--- a/TestData/Web_POS/Billing/billing_test_data.xlsx
+++ b/TestData/Web_POS/Billing/billing_test_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95" count="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97" count="716">
   <si>
     <t>TC_Id</t>
   </si>
@@ -299,6 +299,12 @@
   </si>
   <si>
     <t>Remark</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>Dummy</t>
   </si>
 </sst>
 </file>
@@ -628,7 +634,7 @@
   <sheetPr>
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:X45"/>
+  <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView view="normal" tabSelected="1" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" sqref="C8"/>
@@ -653,7 +659,7 @@
     <col min="23" max="23" width="18.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" customHeight="1">
+    <row r="1" spans="1:25" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -726,8 +732,11 @@
       <c r="X1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="33.75" customHeight="1">
+      <c r="Y1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="33.75" customHeight="1">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -788,8 +797,11 @@
       <c r="T2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="33.75" customHeight="1">
+      <c r="Y2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="33.75" customHeight="1">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -850,8 +862,11 @@
       <c r="T3" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="33.75" customHeight="1">
+      <c r="Y3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="33.75" customHeight="1">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -912,8 +927,11 @@
       <c r="T4" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="45" customHeight="1">
+      <c r="Y4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="45" customHeight="1">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -974,8 +992,11 @@
       <c r="T5" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="19.5" customHeight="1">
+      <c r="Y5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="19.5" customHeight="1">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1036,8 +1057,11 @@
       <c r="T6" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" customHeight="1">
+      <c r="Y6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" customHeight="1">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1098,8 +1122,11 @@
       <c r="T7" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="26.25" customHeight="1">
+      <c r="Y7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="26.25" customHeight="1">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1160,8 +1187,11 @@
       <c r="T8" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" ht="30" customHeight="1">
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="30" customHeight="1">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1222,8 +1252,11 @@
       <c r="T9" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" ht="31.5" customHeight="1">
+      <c r="Y9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="31.5" customHeight="1">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1284,8 +1317,11 @@
       <c r="T10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" ht="32.25" customHeight="1">
+      <c r="Y10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="32.25" customHeight="1">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1346,8 +1382,11 @@
       <c r="T11" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" ht="28.5" customHeight="1">
+      <c r="Y11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="28.5" customHeight="1">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1408,8 +1447,11 @@
       <c r="T12" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" ht="14.25">
+      <c r="Y12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="24">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1470,8 +1512,11 @@
       <c r="T13" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" ht="14.25">
+      <c r="Y13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="24">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1532,8 +1577,11 @@
       <c r="T14" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" ht="14.25">
+      <c r="Y14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="24">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -1594,8 +1642,11 @@
       <c r="T15" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" ht="14.25">
+      <c r="Y15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="24">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -1656,8 +1707,11 @@
       <c r="T16" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="14.25">
+      <c r="Y16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="24">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1718,8 +1772,11 @@
       <c r="T17" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="14.25">
+      <c r="Y17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="24">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1780,8 +1837,11 @@
       <c r="T18" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" ht="14.25">
+      <c r="Y18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="24">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -1842,8 +1902,11 @@
       <c r="T19" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" ht="14.25">
+      <c r="Y19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="24">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -1904,8 +1967,11 @@
       <c r="T20" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" ht="14.25">
+      <c r="Y20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="24">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1966,8 +2032,11 @@
       <c r="T21" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" ht="14.25">
+      <c r="Y21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="24">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -2028,9 +2097,16 @@
       <c r="T22" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" ht="15"/>
-    <row r="24" spans="1:24">
+      <c r="Y22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="25:25">
+      <c r="Y23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -2099,8 +2175,11 @@
       <c r="X24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:24">
+      <c r="Y24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -2169,8 +2248,11 @@
       <c r="X25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:24">
+      <c r="Y25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -2239,8 +2321,11 @@
       <c r="X26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:24">
+      <c r="Y26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -2306,8 +2391,11 @@
       <c r="X27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:24">
+      <c r="Y27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -2376,8 +2464,11 @@
       <c r="X28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:24">
+      <c r="Y28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -2446,8 +2537,11 @@
       <c r="X29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:24">
+      <c r="Y29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -2516,8 +2610,11 @@
       <c r="X30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:24">
+      <c r="Y30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -2586,8 +2683,11 @@
       <c r="X31" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="32" spans="1:24">
+      <c r="Y31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -2656,8 +2756,11 @@
       <c r="X32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:24">
+      <c r="Y32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -2726,8 +2829,11 @@
       <c r="X33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:24">
+      <c r="Y33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -2796,8 +2902,11 @@
       <c r="X34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:24">
+      <c r="Y34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -2866,8 +2975,11 @@
       <c r="X35" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:24">
+      <c r="Y35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -2936,8 +3048,11 @@
       <c r="X36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:24">
+      <c r="Y36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -3006,8 +3121,11 @@
       <c r="X37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:24">
+      <c r="Y37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -3076,8 +3194,11 @@
       <c r="X38" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:24">
+      <c r="Y38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -3146,8 +3267,11 @@
       <c r="X39" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="40" spans="1:24">
+      <c r="Y39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -3216,8 +3340,11 @@
       <c r="X40" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="41" spans="1:24">
+      <c r="Y40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -3286,8 +3413,11 @@
       <c r="X41" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="42" spans="1:24">
+      <c r="Y41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -3356,8 +3486,11 @@
       <c r="X42" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:24">
+      <c r="Y42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -3426,8 +3559,11 @@
       <c r="X43" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="44" spans="1:24">
+      <c r="Y43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -3496,8 +3632,11 @@
       <c r="X44" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="45" spans="1:24">
+      <c r="Y44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -3565,6 +3704,9 @@
       </c>
       <c r="X45" t="s">
         <v>35</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Web_POS/Billing/billing_test_data.xlsx
+++ b/TestData/Web_POS/Billing/billing_test_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97" count="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="165" count="1888">
   <si>
     <t>TC_Id</t>
   </si>
@@ -94,7 +94,7 @@
     <t>Null</t>
   </si>
   <si>
-    <t>123456bn : 1</t>
+    <t>Alexa67 : 2</t>
   </si>
   <si>
     <t>8906118410781: 4</t>
@@ -187,7 +187,7 @@
     <t>TC_34</t>
   </si>
   <si>
-    <t>TC_63</t>
+    <t>TC_35</t>
   </si>
   <si>
     <t>307220524Dzl</t>
@@ -199,28 +199,28 @@
     <t>Rudraksha : 2, Carry bag : 1</t>
   </si>
   <si>
-    <t>TC_64</t>
+    <t>TC_36</t>
   </si>
   <si>
     <t>737534800034 : 2</t>
   </si>
   <si>
-    <t>TC_65</t>
+    <t>TC_37</t>
   </si>
   <si>
     <t>737534800034 : 1</t>
   </si>
   <si>
-    <t>TC_66</t>
+    <t>TC_41</t>
   </si>
   <si>
     <t>Order</t>
   </si>
   <si>
-    <t>TC_67</t>
-  </si>
-  <si>
-    <t>TC_68</t>
+    <t>userone_p2</t>
+  </si>
+  <si>
+    <t>TC_38</t>
   </si>
   <si>
     <t>537300524Y70</t>
@@ -232,61 +232,61 @@
     <t>All</t>
   </si>
   <si>
-    <t>TC_69</t>
-  </si>
-  <si>
-    <t>TC_70</t>
+    <t>TC_39</t>
+  </si>
+  <si>
+    <t>TC_40</t>
   </si>
   <si>
     <t>It was a great experience</t>
   </si>
   <si>
-    <t>TC_71</t>
-  </si>
-  <si>
-    <t>TC_72</t>
+    <t>TC_42</t>
+  </si>
+  <si>
+    <t>TC_43</t>
   </si>
   <si>
     <t>Return</t>
   </si>
   <si>
-    <t>TC_73</t>
+    <t>TC_45</t>
   </si>
   <si>
     <t>Exchange</t>
   </si>
   <si>
-    <t>TC_74</t>
-  </si>
-  <si>
-    <t>TC_75</t>
-  </si>
-  <si>
-    <t>TC_76</t>
-  </si>
-  <si>
-    <t>TC_77</t>
-  </si>
-  <si>
-    <t>TC_78</t>
-  </si>
-  <si>
-    <t>TC_79</t>
-  </si>
-  <si>
-    <t>TC_80</t>
-  </si>
-  <si>
-    <t>TC_81</t>
-  </si>
-  <si>
-    <t>TC_82</t>
-  </si>
-  <si>
-    <t>TC_83</t>
-  </si>
-  <si>
-    <t>TC_84</t>
+    <t>TC_46</t>
+  </si>
+  <si>
+    <t>TC_47</t>
+  </si>
+  <si>
+    <t>userone_p3</t>
+  </si>
+  <si>
+    <t>userone_p4</t>
+  </si>
+  <si>
+    <t>userone_p5</t>
+  </si>
+  <si>
+    <t>userone_p6</t>
+  </si>
+  <si>
+    <t>userone_p7</t>
+  </si>
+  <si>
+    <t>userone_p8</t>
+  </si>
+  <si>
+    <t>userone_p9</t>
+  </si>
+  <si>
+    <t>userone_p10</t>
+  </si>
+  <si>
+    <t>TC_44</t>
   </si>
   <si>
     <t>carry_bag</t>
@@ -305,6 +305,210 @@
   </si>
   <si>
     <t>Dummy</t>
+  </si>
+  <si>
+    <t>userone_p1</t>
+  </si>
+  <si>
+    <t>307260624P3E</t>
+  </si>
+  <si>
+    <t>TC_4</t>
+  </si>
+  <si>
+    <t>TC_3</t>
+  </si>
+  <si>
+    <t>TC_2</t>
+  </si>
+  <si>
+    <t>TC_1</t>
+  </si>
+  <si>
+    <t>TC_8</t>
+  </si>
+  <si>
+    <t>TC_9</t>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>TC_19</t>
+  </si>
+  <si>
+    <t>TC_20</t>
+  </si>
+  <si>
+    <t>TC_31</t>
+  </si>
+  <si>
+    <t>TC_33</t>
+  </si>
+  <si>
+    <t>TC_48</t>
+  </si>
+  <si>
+    <t>TC_49</t>
+  </si>
+  <si>
+    <t>TC_50</t>
+  </si>
+  <si>
+    <t>TC_51</t>
+  </si>
+  <si>
+    <t>TC_52</t>
+  </si>
+  <si>
+    <t>TC_53</t>
+  </si>
+  <si>
+    <t>TC_54</t>
+  </si>
+  <si>
+    <t>TC_55</t>
+  </si>
+  <si>
+    <t>TC_56</t>
+  </si>
+  <si>
+    <t>TC_57</t>
+  </si>
+  <si>
+    <t>userone_p11</t>
+  </si>
+  <si>
+    <t>userone_p12</t>
+  </si>
+  <si>
+    <t>userone_p13</t>
+  </si>
+  <si>
+    <t>userone_p14</t>
+  </si>
+  <si>
+    <t>userone_p15</t>
+  </si>
+  <si>
+    <t>userone_p16</t>
+  </si>
+  <si>
+    <t>userone_p17</t>
+  </si>
+  <si>
+    <t>userone_p18</t>
+  </si>
+  <si>
+    <t>userone_p19</t>
+  </si>
+  <si>
+    <t>userone_p20</t>
+  </si>
+  <si>
+    <t>userone_p21</t>
+  </si>
+  <si>
+    <t>userone_p22</t>
+  </si>
+  <si>
+    <t>userone_p23</t>
+  </si>
+  <si>
+    <t>userone_p24</t>
+  </si>
+  <si>
+    <t>userone_p25</t>
+  </si>
+  <si>
+    <t>userone_p26</t>
+  </si>
+  <si>
+    <t>userone_p27</t>
+  </si>
+  <si>
+    <t>userone_p28</t>
+  </si>
+  <si>
+    <t>userone_p29</t>
+  </si>
+  <si>
+    <t>userone_p30</t>
+  </si>
+  <si>
+    <t>userone_p31</t>
+  </si>
+  <si>
+    <t>userone_p32</t>
+  </si>
+  <si>
+    <t>userone_p33</t>
+  </si>
+  <si>
+    <t>userone_p34</t>
+  </si>
+  <si>
+    <t>userone_p35</t>
+  </si>
+  <si>
+    <t>userone_p36</t>
+  </si>
+  <si>
+    <t>userone_p37</t>
+  </si>
+  <si>
+    <t>userone_p38</t>
+  </si>
+  <si>
+    <t>userone_p39</t>
+  </si>
+  <si>
+    <t>userone_p40</t>
+  </si>
+  <si>
+    <t>userone_p41</t>
+  </si>
+  <si>
+    <t>userone_p42</t>
+  </si>
+  <si>
+    <t>userone_p43</t>
+  </si>
+  <si>
+    <t>userone_p44</t>
+  </si>
+  <si>
+    <t>userone_p45</t>
+  </si>
+  <si>
+    <t>userone_p46</t>
+  </si>
+  <si>
+    <t>userone_p47</t>
+  </si>
+  <si>
+    <t>userone_p48</t>
+  </si>
+  <si>
+    <t>userone_p49</t>
+  </si>
+  <si>
+    <t>userone_p50</t>
+  </si>
+  <si>
+    <t>userone_p51</t>
+  </si>
+  <si>
+    <t>userone_p52</t>
+  </si>
+  <si>
+    <t>307260624ut0</t>
   </si>
 </sst>
 </file>
@@ -359,7 +563,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none">
         <fgColor indexed="64"/>
@@ -378,8 +582,21 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -399,13 +616,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1"/>
@@ -420,6 +637,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,9 +853,9 @@
   <sheetPr>
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Y45"/>
+  <dimension ref="A1:Z68"/>
   <sheetViews>
-    <sheetView view="normal" tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="88" view="normal" tabSelected="1" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -644,9 +863,9 @@
   <cols>
     <col min="2" max="2" width="19.27734375" customWidth="1"/>
     <col min="3" max="3" width="43.9296875" customWidth="1"/>
-    <col min="4" max="4" width="19.27734375" customWidth="1"/>
+    <col min="4" max="4" width="25.34765625" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.8203125" customWidth="1"/>
+    <col min="6" max="6" width="23.9296875" customWidth="1"/>
     <col min="7" max="7" width="16.77734375" customWidth="1"/>
     <col min="8" max="9" width="19.09765625" customWidth="1"/>
     <col min="10" max="11" width="31.95703125" style="1" customWidth="1"/>
@@ -736,88 +955,95 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="33.75" customHeight="1">
+    <row r="2" spans="1:25" customHeight="1">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="D2">
+        <v>123456</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2">
+        <v>123456</v>
+      </c>
+      <c r="G2">
         <v>1000</v>
       </c>
-      <c r="H2" s="1">
-        <v>500</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2">
+        <v>600</v>
+      </c>
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>26</v>
+      <c r="J2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="3">
-        <v>45384</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" t="s">
+        <v>66</v>
+      </c>
+      <c r="W2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" t="s">
+        <v>35</v>
       </c>
       <c r="Y2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="33.75" customHeight="1">
+    <row r="3" spans="1:25" customHeight="1">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>123456</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2">
+        <v>97</v>
+      </c>
+      <c r="F3">
         <v>123456</v>
       </c>
       <c r="G3">
@@ -826,63 +1052,73 @@
       <c r="H3">
         <v>600</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
+      <c r="J3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>62</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="3">
-        <v>45384</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="4">
-        <v>7709577438</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
         <v>35</v>
       </c>
       <c r="T3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" t="s">
         <v>35</v>
       </c>
       <c r="Y3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="33.75" customHeight="1">
+    <row r="4" spans="1:25" customHeight="1">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>123456</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2">
+        <v>97</v>
+      </c>
+      <c r="F4">
         <v>123456</v>
       </c>
       <c r="G4">
@@ -891,35 +1127,35 @@
       <c r="H4">
         <v>600</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
+      <c r="J4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="3">
-        <v>45384</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="4">
-        <v>7709577438</v>
+        <v>35</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>35</v>
@@ -927,27 +1163,39 @@
       <c r="T4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Y4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="45" customHeight="1">
+      <c r="U4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" customHeight="1">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>123456</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2">
+        <v>97</v>
+      </c>
+      <c r="F5">
         <v>123456</v>
       </c>
       <c r="G5">
@@ -956,35 +1204,35 @@
       <c r="H5">
         <v>600</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
+      <c r="J5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="3">
-        <v>45384</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" s="4">
-        <v>7709577438</v>
+        <v>35</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>35</v>
@@ -992,16 +1240,28 @@
       <c r="T5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Y5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="19.5" customHeight="1">
+      <c r="U5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="33.75" customHeight="1">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -1010,18 +1270,18 @@
         <v>123456</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="F6" s="2">
         <v>123456</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>1000</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>24</v>
       </c>
       <c r="J6" s="1">
@@ -1030,11 +1290,11 @@
       <c r="K6" s="1">
         <v>1</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>33</v>
+      <c r="L6" t="s">
+        <v>25</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N6" t="s">
         <v>27</v>
@@ -1048,25 +1308,37 @@
       <c r="Q6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="4">
-        <v>7709577438</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T6" s="1" t="s">
+      <c r="R6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" s="1" t="s">
         <v>35</v>
       </c>
       <c r="Y6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:25" customHeight="1">
+    <row r="7" spans="1:25" ht="33.75" customHeight="1">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
@@ -1075,7 +1347,7 @@
         <v>123456</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="F7" s="2">
         <v>123456</v>
@@ -1086,7 +1358,7 @@
       <c r="H7">
         <v>600</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>24</v>
       </c>
       <c r="J7" s="1">
@@ -1122,16 +1394,28 @@
       <c r="T7" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="U7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="Y7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="26.25" customHeight="1">
+    <row r="8" spans="1:25" ht="33.75" customHeight="1">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
@@ -1140,7 +1424,7 @@
         <v>123456</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="F8" s="2">
         <v>123456</v>
@@ -1151,7 +1435,7 @@
       <c r="H8">
         <v>600</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>24</v>
       </c>
       <c r="J8" s="1">
@@ -1187,16 +1471,28 @@
       <c r="T8" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="U8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="Y8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="30" customHeight="1">
+    <row r="9" spans="1:26" ht="33.75" customHeight="1">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>22</v>
@@ -1205,7 +1501,7 @@
         <v>123456</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="F9" s="2">
         <v>123456</v>
@@ -1216,35 +1512,35 @@
       <c r="H9">
         <v>600</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1</v>
+      <c r="J9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="3">
-        <v>45384</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R9" s="4">
-        <v>7709577438</v>
+        <v>35</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>35</v>
@@ -1252,16 +1548,29 @@
       <c r="T9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Y9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="31.5" customHeight="1">
+      <c r="U9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:24" ht="33.75" customHeight="1">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
@@ -1270,7 +1579,7 @@
         <v>123456</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="F10" s="2">
         <v>123456</v>
@@ -1281,52 +1590,61 @@
       <c r="H10">
         <v>600</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1</v>
+      <c r="J10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="3">
-        <v>45384</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R10" s="4">
-        <v>7709577438</v>
-      </c>
-      <c r="S10" t="s">
-        <v>30</v>
-      </c>
-      <c r="T10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="32.25" customHeight="1">
+        <v>35</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="18" customHeight="1">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
@@ -1335,7 +1653,7 @@
         <v>123456</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="F11" s="2">
         <v>123456</v>
@@ -1382,16 +1700,28 @@
       <c r="T11" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="U11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="Y11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="28.5" customHeight="1">
+    <row r="12" spans="1:25" ht="19.5" customHeight="1">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>22</v>
@@ -1400,7 +1730,7 @@
         <v>123456</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="F12" s="2">
         <v>123456</v>
@@ -1447,16 +1777,28 @@
       <c r="T12" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="U12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="Y12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="24">
+    <row r="13" spans="1:25" customHeight="1">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
@@ -1465,7 +1807,7 @@
         <v>123456</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="F13" s="2">
         <v>123456</v>
@@ -1512,16 +1854,28 @@
       <c r="T13" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="U13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="Y13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="24">
+    <row r="14" spans="1:25" ht="26.25" customHeight="1">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
@@ -1530,7 +1884,7 @@
         <v>123456</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="F14" s="2">
         <v>123456</v>
@@ -1577,25 +1931,37 @@
       <c r="T14" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="U14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="Y14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="24">
+    <row r="15" spans="1:25" ht="30" customHeight="1">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="6">
         <v>123456</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="F15" s="2">
         <v>123456</v>
@@ -1642,25 +2008,37 @@
       <c r="T15" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="U15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="Y15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="24">
+    <row r="16" spans="1:25" ht="30" customHeight="1">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="6">
         <v>123456</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="F16" s="2">
         <v>123456</v>
@@ -1674,32 +2052,32 @@
       <c r="I16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="1">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1">
-        <v>1</v>
+      <c r="J16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N16" t="s">
-        <v>27</v>
-      </c>
-      <c r="O16" s="3">
-        <v>45384</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R16" s="4">
-        <v>7709577438</v>
+        <v>35</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>35</v>
@@ -1707,16 +2085,28 @@
       <c r="T16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Y16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="24">
+      <c r="U16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="31.5" customHeight="1">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>22</v>
@@ -1725,7 +2115,7 @@
         <v>123456</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="F17" s="2">
         <v>123456</v>
@@ -1766,33 +2156,45 @@
       <c r="R17" s="4">
         <v>7709577438</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T17" s="1" t="s">
+      <c r="S17" t="s">
+        <v>30</v>
+      </c>
+      <c r="T17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X17" s="1" t="s">
         <v>35</v>
       </c>
       <c r="Y17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="24">
+    <row r="18" spans="1:25" ht="31.5" customHeight="1">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="D18" s="7">
+        <v>123456</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18">
         <v>123456</v>
       </c>
       <c r="G18">
@@ -1801,128 +2203,144 @@
       <c r="H18">
         <v>600</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="1">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1">
-        <v>1</v>
+      <c r="J18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="M18" t="s">
+        <v>35</v>
       </c>
       <c r="N18" t="s">
-        <v>27</v>
-      </c>
-      <c r="O18" s="3">
-        <v>45384</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R18" s="4">
-        <v>7709577438</v>
+        <v>35</v>
+      </c>
+      <c r="O18" t="s">
+        <v>35</v>
+      </c>
+      <c r="P18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>35</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="T18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U18" t="s">
+        <v>60</v>
+      </c>
+      <c r="V18" t="s">
+        <v>35</v>
+      </c>
+      <c r="W18" t="s">
+        <v>35</v>
+      </c>
+      <c r="X18" t="s">
         <v>35</v>
       </c>
       <c r="Y18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="24">
+    <row r="19" spans="1:25" ht="31.5" customHeight="1">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="7">
         <v>123456</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G19">
-        <v>1000</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F19" s="2"/>
       <c r="H19">
         <v>600</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="1">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1">
-        <v>1</v>
+      <c r="J19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O19" s="3">
-        <v>45384</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R19" s="4">
-        <v>7709577438</v>
+        <v>35</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="U19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V19" t="s">
+        <v>35</v>
+      </c>
+      <c r="W19" t="s">
+        <v>35</v>
+      </c>
+      <c r="X19" t="s">
         <v>35</v>
       </c>
       <c r="Y19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" ht="24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="31.5" customHeight="1">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20">
         <v>123456</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="2">
+        <v>97</v>
+      </c>
+      <c r="F20">
         <v>123456</v>
       </c>
       <c r="G20">
@@ -1931,63 +2349,75 @@
       <c r="H20">
         <v>600</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1">
-        <v>1</v>
+      <c r="J20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="M20" t="s">
+        <v>64</v>
       </c>
       <c r="N20" t="s">
-        <v>27</v>
-      </c>
-      <c r="O20" s="3">
-        <v>45384</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R20" s="4">
-        <v>7709577438</v>
+        <v>35</v>
+      </c>
+      <c r="O20" t="s">
+        <v>35</v>
+      </c>
+      <c r="P20" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>35</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>35</v>
       </c>
       <c r="T20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U20" t="s">
+        <v>35</v>
+      </c>
+      <c r="V20" t="s">
+        <v>35</v>
+      </c>
+      <c r="W20" t="s">
+        <v>35</v>
+      </c>
+      <c r="X20" t="s">
         <v>35</v>
       </c>
       <c r="Y20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="24">
+    <row r="21" spans="1:25" ht="31.5" customHeight="1">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <v>123456</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="2">
+        <v>97</v>
+      </c>
+      <c r="F21">
         <v>123456</v>
       </c>
       <c r="G21">
@@ -1996,52 +2426,64 @@
       <c r="H21">
         <v>600</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="1">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1">
-        <v>1</v>
+      <c r="J21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="M21" t="s">
+        <v>64</v>
       </c>
       <c r="N21" t="s">
-        <v>27</v>
-      </c>
-      <c r="O21" s="3">
+        <v>35</v>
+      </c>
+      <c r="O21" s="5">
         <v>45384</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="P21" t="s">
         <v>28</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="Q21" t="s">
         <v>29</v>
       </c>
-      <c r="R21" s="4">
-        <v>7709577438</v>
+      <c r="R21" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
+      </c>
+      <c r="T21" s="1">
+        <v>300</v>
+      </c>
+      <c r="U21" t="s">
+        <v>35</v>
+      </c>
+      <c r="V21" t="s">
+        <v>35</v>
+      </c>
+      <c r="W21" t="s">
+        <v>35</v>
+      </c>
+      <c r="X21" t="s">
+        <v>35</v>
       </c>
       <c r="Y21" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="24">
+    <row r="22" spans="1:25" ht="32.25" customHeight="1">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>22</v>
@@ -2050,7 +2492,7 @@
         <v>123456</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="F22" s="2">
         <v>123456</v>
@@ -2092,37 +2534,121 @@
         <v>7709577438</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
+      </c>
+      <c r="U22" t="s">
+        <v>35</v>
+      </c>
+      <c r="V22" t="s">
+        <v>35</v>
+      </c>
+      <c r="W22" t="s">
+        <v>35</v>
+      </c>
+      <c r="X22" t="s">
+        <v>35</v>
       </c>
       <c r="Y22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="25:25">
+    <row r="23" spans="1:25" ht="28.5" customHeight="1">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G23">
+        <v>1000</v>
+      </c>
+      <c r="H23">
+        <v>600</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N23" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23" s="3">
+        <v>45384</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R23" s="4">
+        <v>7709577438</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U23" t="s">
+        <v>35</v>
+      </c>
+      <c r="V23" t="s">
+        <v>35</v>
+      </c>
+      <c r="W23" t="s">
+        <v>35</v>
+      </c>
+      <c r="X23" t="s">
+        <v>35</v>
+      </c>
       <c r="Y23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" ht="24">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>123456</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24">
+        <v>97</v>
+      </c>
+      <c r="F24" s="2">
         <v>123456</v>
       </c>
       <c r="G24">
@@ -2131,32 +2657,36 @@
       <c r="H24">
         <v>600</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L24"/>
-      <c r="M24" t="s">
-        <v>35</v>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="N24" t="s">
-        <v>35</v>
-      </c>
-      <c r="O24" t="s">
-        <v>35</v>
-      </c>
-      <c r="P24" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>35</v>
-      </c>
-      <c r="R24" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="O24" s="3">
+        <v>45384</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R24" s="4">
+        <v>7709577438</v>
+      </c>
       <c r="S24" s="1" t="s">
         <v>35</v>
       </c>
@@ -2164,7 +2694,7 @@
         <v>35</v>
       </c>
       <c r="U24" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="V24" t="s">
         <v>35</v>
@@ -2179,23 +2709,23 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" ht="24">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>123456</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25">
+        <v>97</v>
+      </c>
+      <c r="F25" s="2">
         <v>123456</v>
       </c>
       <c r="G25">
@@ -2204,32 +2734,36 @@
       <c r="H25">
         <v>600</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L25"/>
-      <c r="M25" t="s">
-        <v>62</v>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="N25" t="s">
-        <v>35</v>
-      </c>
-      <c r="O25" t="s">
-        <v>35</v>
-      </c>
-      <c r="P25" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>35</v>
-      </c>
-      <c r="R25" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="O25" s="3">
+        <v>45384</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R25" s="4">
+        <v>7709577438</v>
+      </c>
       <c r="S25" s="1" t="s">
         <v>35</v>
       </c>
@@ -2252,23 +2786,23 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" ht="24">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>123456</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26">
+        <v>97</v>
+      </c>
+      <c r="F26" s="2">
         <v>123456</v>
       </c>
       <c r="G26">
@@ -2277,32 +2811,36 @@
       <c r="H26">
         <v>600</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L26"/>
-      <c r="M26" t="s">
-        <v>64</v>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="N26" t="s">
-        <v>35</v>
-      </c>
-      <c r="O26" t="s">
-        <v>35</v>
-      </c>
-      <c r="P26" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>35</v>
-      </c>
-      <c r="R26" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="O26" s="3">
+        <v>45384</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R26" s="4">
+        <v>7709577438</v>
+      </c>
       <c r="S26" s="1" t="s">
         <v>35</v>
       </c>
@@ -2325,23 +2863,23 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" ht="24">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>123456</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27">
+        <v>97</v>
+      </c>
+      <c r="F27" s="2">
         <v>123456</v>
       </c>
       <c r="G27">
@@ -2350,29 +2888,36 @@
       <c r="H27">
         <v>600</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L27"/>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="N27" t="s">
-        <v>35</v>
-      </c>
-      <c r="O27" t="s">
-        <v>35</v>
-      </c>
-      <c r="P27" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>35</v>
-      </c>
-      <c r="R27" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="O27" s="3">
+        <v>45384</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R27" s="4">
+        <v>7709577438</v>
+      </c>
       <c r="S27" s="1" t="s">
         <v>35</v>
       </c>
@@ -2383,7 +2928,7 @@
         <v>35</v>
       </c>
       <c r="V27" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="W27" t="s">
         <v>35</v>
@@ -2395,23 +2940,23 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" ht="24">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>123456</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28">
+        <v>97</v>
+      </c>
+      <c r="F28" s="2">
         <v>123456</v>
       </c>
       <c r="G28">
@@ -2420,32 +2965,36 @@
       <c r="H28">
         <v>600</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L28"/>
-      <c r="M28" t="s">
-        <v>64</v>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="N28" t="s">
-        <v>35</v>
-      </c>
-      <c r="O28" t="s">
-        <v>35</v>
-      </c>
-      <c r="P28" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>35</v>
-      </c>
-      <c r="R28" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="O28" s="3">
+        <v>45384</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R28" s="4">
+        <v>7709577438</v>
+      </c>
       <c r="S28" s="1" t="s">
         <v>35</v>
       </c>
@@ -2458,8 +3007,8 @@
       <c r="V28" t="s">
         <v>35</v>
       </c>
-      <c r="W28">
-        <v>10</v>
+      <c r="W28" t="s">
+        <v>35</v>
       </c>
       <c r="X28" t="s">
         <v>35</v>
@@ -2468,23 +3017,23 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" ht="24">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>123456</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29">
+        <v>97</v>
+      </c>
+      <c r="F29" s="2">
         <v>123456</v>
       </c>
       <c r="G29">
@@ -2493,37 +3042,41 @@
       <c r="H29">
         <v>600</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29"/>
-      <c r="M29" t="s">
-        <v>70</v>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="N29" t="s">
-        <v>35</v>
-      </c>
-      <c r="O29" s="5">
+        <v>27</v>
+      </c>
+      <c r="O29" s="3">
         <v>45384</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="Q29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R29" s="1"/>
+      <c r="R29" s="4">
+        <v>7709577438</v>
+      </c>
       <c r="S29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T29" s="1">
-        <v>300</v>
+      <c r="T29" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="U29" t="s">
         <v>35</v>
@@ -2541,23 +3094,23 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" ht="24">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>123456</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30">
+        <v>97</v>
+      </c>
+      <c r="F30" s="2">
         <v>123456</v>
       </c>
       <c r="G30">
@@ -2566,37 +3119,41 @@
       <c r="H30">
         <v>600</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L30"/>
-      <c r="M30" t="s">
-        <v>70</v>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="N30" t="s">
-        <v>35</v>
-      </c>
-      <c r="O30" s="5">
+        <v>27</v>
+      </c>
+      <c r="O30" s="3">
         <v>45384</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="Q30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R30" s="1"/>
+      <c r="R30" s="4">
+        <v>7709577438</v>
+      </c>
       <c r="S30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T30" s="1">
-        <v>300</v>
+      <c r="T30" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="U30" t="s">
         <v>35</v>
@@ -2614,23 +3171,23 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" ht="24">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>123456</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31">
+        <v>97</v>
+      </c>
+      <c r="F31" s="2">
         <v>123456</v>
       </c>
       <c r="G31">
@@ -2639,37 +3196,41 @@
       <c r="H31">
         <v>600</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L31"/>
-      <c r="M31" t="s">
-        <v>64</v>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="N31" t="s">
-        <v>35</v>
-      </c>
-      <c r="O31" s="5">
+        <v>27</v>
+      </c>
+      <c r="O31" s="3">
         <v>45384</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="Q31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R31" s="1"/>
+      <c r="R31" s="4">
+        <v>7709577438</v>
+      </c>
       <c r="S31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T31" s="1">
-        <v>300</v>
+      <c r="T31" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="U31" t="s">
         <v>35</v>
@@ -2681,7 +3242,7 @@
         <v>35</v>
       </c>
       <c r="X31" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="Y31" t="s">
         <v>96</v>
@@ -2689,10 +3250,10 @@
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
         <v>22</v>
@@ -2701,7 +3262,7 @@
         <v>123456</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="F32">
         <v>123456</v>
@@ -2721,7 +3282,9 @@
       <c r="K32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L32"/>
+      <c r="L32" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M32" t="s">
         <v>64</v>
       </c>
@@ -2737,7 +3300,9 @@
       <c r="Q32" t="s">
         <v>29</v>
       </c>
-      <c r="R32" s="1"/>
+      <c r="R32" s="4">
+        <v>7709577438</v>
+      </c>
       <c r="S32" s="1" t="s">
         <v>35</v>
       </c>
@@ -2760,23 +3325,23 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" ht="24">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>123456</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33">
+        <v>97</v>
+      </c>
+      <c r="F33" s="2">
         <v>123456</v>
       </c>
       <c r="G33">
@@ -2785,43 +3350,47 @@
       <c r="H33">
         <v>600</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L33"/>
-      <c r="M33" t="s">
-        <v>35</v>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="N33" t="s">
-        <v>35</v>
-      </c>
-      <c r="O33" t="s">
-        <v>35</v>
-      </c>
-      <c r="P33" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>35</v>
-      </c>
-      <c r="R33" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="O33" s="3">
+        <v>45384</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R33" s="4">
+        <v>7709577438</v>
+      </c>
       <c r="S33" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="U33" t="s">
         <v>35</v>
       </c>
       <c r="V33" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W33" t="s">
         <v>35</v>
@@ -2835,21 +3404,21 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>123456</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
-      </c>
-      <c r="F34">
+        <v>97</v>
+      </c>
+      <c r="F34" s="2">
         <v>123456</v>
       </c>
       <c r="G34">
@@ -2858,71 +3427,73 @@
       <c r="H34">
         <v>600</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L34"/>
-      <c r="M34" t="s">
-        <v>35</v>
-      </c>
-      <c r="N34" t="s">
-        <v>35</v>
-      </c>
-      <c r="O34" t="s">
-        <v>35</v>
-      </c>
-      <c r="P34" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>35</v>
-      </c>
-      <c r="R34" s="1"/>
+      <c r="L34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S34" s="1" t="s">
         <v>35</v>
       </c>
       <c r="T34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U34" t="s">
-        <v>35</v>
-      </c>
-      <c r="V34" t="s">
-        <v>79</v>
-      </c>
-      <c r="W34" t="s">
-        <v>35</v>
-      </c>
-      <c r="X34" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25">
+      <c r="U34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="24">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>123456</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35">
+        <v>97</v>
+      </c>
+      <c r="F35" s="2">
         <v>123456</v>
       </c>
       <c r="G35">
@@ -2931,71 +3502,75 @@
       <c r="H35">
         <v>600</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L35"/>
-      <c r="M35" t="s">
-        <v>35</v>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="N35" t="s">
-        <v>35</v>
-      </c>
-      <c r="O35" t="s">
-        <v>35</v>
-      </c>
-      <c r="P35" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>35</v>
-      </c>
-      <c r="R35" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="O35" s="3">
+        <v>45384</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R35" s="4">
+        <v>7709577438</v>
+      </c>
       <c r="S35" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U35" t="s">
-        <v>35</v>
-      </c>
-      <c r="V35" t="s">
-        <v>66</v>
-      </c>
-      <c r="W35" t="s">
-        <v>35</v>
-      </c>
-      <c r="X35" t="s">
+        <v>55</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="Y35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" ht="24">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>123456</v>
       </c>
       <c r="E36" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36">
+        <v>97</v>
+      </c>
+      <c r="F36" s="2">
         <v>123456</v>
       </c>
       <c r="G36">
@@ -3004,7 +3579,7 @@
       <c r="H36">
         <v>600</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J36" s="1" t="s">
@@ -3013,40 +3588,44 @@
       <c r="K36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L36"/>
-      <c r="M36" t="s">
-        <v>35</v>
+      <c r="L36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="N36" t="s">
         <v>35</v>
       </c>
-      <c r="O36" t="s">
-        <v>35</v>
-      </c>
-      <c r="P36" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>35</v>
-      </c>
-      <c r="R36" s="1"/>
+      <c r="O36" s="3">
+        <v>45384</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R36" s="4">
+        <v>7709577438</v>
+      </c>
       <c r="S36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T36" s="1" t="s">
-        <v>35</v>
+      <c r="T36" s="1">
+        <v>300</v>
       </c>
       <c r="U36" t="s">
         <v>35</v>
       </c>
       <c r="V36" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="W36" t="s">
         <v>35</v>
       </c>
       <c r="X36" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="Y36" t="s">
         <v>96</v>
@@ -3054,10 +3633,10 @@
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
         <v>22</v>
@@ -3066,7 +3645,7 @@
         <v>123456</v>
       </c>
       <c r="E37" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="F37">
         <v>123456</v>
@@ -3077,7 +3656,7 @@
       <c r="H37">
         <v>600</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J37" s="1" t="s">
@@ -3086,34 +3665,38 @@
       <c r="K37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L37"/>
+      <c r="L37" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M37" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="N37" t="s">
         <v>35</v>
       </c>
-      <c r="O37" t="s">
-        <v>35</v>
+      <c r="O37" s="5">
+        <v>45384</v>
       </c>
       <c r="P37" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="Q37" t="s">
-        <v>35</v>
-      </c>
-      <c r="R37" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="R37" s="4">
+        <v>7709577438</v>
+      </c>
       <c r="S37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T37" s="1" t="s">
-        <v>35</v>
+      <c r="T37" s="1">
+        <v>300</v>
       </c>
       <c r="U37" t="s">
         <v>35</v>
       </c>
       <c r="V37" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="W37" t="s">
         <v>35</v>
@@ -3127,10 +3710,10 @@
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
         <v>22</v>
@@ -3139,7 +3722,7 @@
         <v>123456</v>
       </c>
       <c r="E38" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="F38">
         <v>123456</v>
@@ -3150,7 +3733,7 @@
       <c r="H38">
         <v>600</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J38" s="1" t="s">
@@ -3159,34 +3742,38 @@
       <c r="K38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L38"/>
+      <c r="L38" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M38" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="N38" t="s">
         <v>35</v>
       </c>
-      <c r="O38" t="s">
-        <v>35</v>
+      <c r="O38" s="5">
+        <v>45384</v>
       </c>
       <c r="P38" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="Q38" t="s">
-        <v>35</v>
-      </c>
-      <c r="R38" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="R38" s="4">
+        <v>7709577438</v>
+      </c>
       <c r="S38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T38" s="1" t="s">
-        <v>35</v>
+      <c r="T38" s="1">
+        <v>300</v>
       </c>
       <c r="U38" t="s">
         <v>35</v>
       </c>
       <c r="V38" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="W38" t="s">
         <v>35</v>
@@ -3200,19 +3787,16 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
         <v>22</v>
       </c>
-      <c r="D39">
-        <v>123456</v>
-      </c>
       <c r="E39" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="F39">
         <v>123456</v>
@@ -3223,7 +3807,7 @@
       <c r="H39">
         <v>600</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J39" s="1" t="s">
@@ -3232,60 +3816,61 @@
       <c r="K39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L39"/>
-      <c r="M39" t="s">
-        <v>35</v>
-      </c>
-      <c r="N39" t="s">
-        <v>35</v>
-      </c>
-      <c r="O39" t="s">
-        <v>35</v>
-      </c>
-      <c r="P39" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>35</v>
-      </c>
-      <c r="R39" s="1"/>
+      <c r="L39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S39" s="1" t="s">
         <v>35</v>
       </c>
       <c r="T39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U39" t="s">
-        <v>35</v>
-      </c>
-      <c r="V39" t="s">
-        <v>77</v>
-      </c>
-      <c r="W39" t="s">
-        <v>35</v>
-      </c>
-      <c r="X39" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>96</v>
+      <c r="U39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
         <v>22</v>
       </c>
-      <c r="D40">
-        <v>123456</v>
-      </c>
       <c r="E40" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="F40">
         <v>123456</v>
@@ -3296,7 +3881,7 @@
       <c r="H40">
         <v>600</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J40" s="1" t="s">
@@ -3305,60 +3890,61 @@
       <c r="K40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L40"/>
-      <c r="M40" t="s">
-        <v>35</v>
-      </c>
-      <c r="N40" t="s">
-        <v>35</v>
-      </c>
-      <c r="O40" t="s">
-        <v>35</v>
-      </c>
-      <c r="P40" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>35</v>
-      </c>
-      <c r="R40" s="1"/>
+      <c r="L40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S40" s="1" t="s">
         <v>35</v>
       </c>
       <c r="T40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U40" t="s">
-        <v>35</v>
-      </c>
-      <c r="V40" t="s">
-        <v>77</v>
-      </c>
-      <c r="W40" t="s">
-        <v>35</v>
-      </c>
-      <c r="X40" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>96</v>
+      <c r="U40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C41" t="s">
         <v>22</v>
       </c>
-      <c r="D41">
-        <v>123456</v>
-      </c>
       <c r="E41" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="F41">
         <v>123456</v>
@@ -3369,7 +3955,7 @@
       <c r="H41">
         <v>600</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J41" s="1" t="s">
@@ -3378,51 +3964,55 @@
       <c r="K41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L41"/>
-      <c r="M41" t="s">
-        <v>64</v>
-      </c>
-      <c r="N41" t="s">
-        <v>35</v>
-      </c>
-      <c r="O41" t="s">
-        <v>35</v>
-      </c>
-      <c r="P41" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>35</v>
-      </c>
-      <c r="R41" s="1"/>
+      <c r="L41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="S41" s="1" t="s">
         <v>35</v>
       </c>
       <c r="T41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U41" t="s">
-        <v>35</v>
-      </c>
-      <c r="V41" t="s">
-        <v>35</v>
-      </c>
-      <c r="W41">
-        <v>5</v>
-      </c>
-      <c r="X41" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>96</v>
+      <c r="U41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y41" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
         <v>22</v>
@@ -3431,7 +4021,7 @@
         <v>123456</v>
       </c>
       <c r="E42" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="F42">
         <v>123456</v>
@@ -3451,9 +4041,11 @@
       <c r="K42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L42"/>
+      <c r="L42" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M42" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="N42" t="s">
         <v>35</v>
@@ -3478,10 +4070,10 @@
         <v>35</v>
       </c>
       <c r="V42" t="s">
-        <v>35</v>
-      </c>
-      <c r="W42">
-        <v>60</v>
+        <v>77</v>
+      </c>
+      <c r="W42" t="s">
+        <v>35</v>
       </c>
       <c r="X42" t="s">
         <v>35</v>
@@ -3492,10 +4084,10 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C43" t="s">
         <v>22</v>
@@ -3504,7 +4096,7 @@
         <v>123456</v>
       </c>
       <c r="E43" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="F43">
         <v>123456</v>
@@ -3524,9 +4116,11 @@
       <c r="K43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L43"/>
+      <c r="L43" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M43" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="N43" t="s">
         <v>35</v>
@@ -3551,10 +4145,10 @@
         <v>35</v>
       </c>
       <c r="V43" t="s">
-        <v>35</v>
-      </c>
-      <c r="W43">
-        <v>10</v>
+        <v>79</v>
+      </c>
+      <c r="W43" t="s">
+        <v>35</v>
       </c>
       <c r="X43" t="s">
         <v>35</v>
@@ -3565,10 +4159,10 @@
     </row>
     <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C44" t="s">
         <v>22</v>
@@ -3577,7 +4171,7 @@
         <v>123456</v>
       </c>
       <c r="E44" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="F44">
         <v>123456</v>
@@ -3597,9 +4191,11 @@
       <c r="K44" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L44"/>
+      <c r="L44" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M44" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="N44" t="s">
         <v>35</v>
@@ -3624,10 +4220,10 @@
         <v>35</v>
       </c>
       <c r="V44" t="s">
-        <v>35</v>
-      </c>
-      <c r="W44">
-        <v>5</v>
+        <v>66</v>
+      </c>
+      <c r="W44" t="s">
+        <v>35</v>
       </c>
       <c r="X44" t="s">
         <v>35</v>
@@ -3641,7 +4237,7 @@
         <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s">
         <v>22</v>
@@ -3650,7 +4246,7 @@
         <v>123456</v>
       </c>
       <c r="E45" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="F45">
         <v>123456</v>
@@ -3670,34 +4266,36 @@
       <c r="K45" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L45"/>
+      <c r="L45" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M45" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="N45" t="s">
         <v>35</v>
       </c>
-      <c r="O45" s="5">
-        <v>45384</v>
+      <c r="O45" t="s">
+        <v>35</v>
       </c>
       <c r="P45" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="Q45" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="R45" s="1"/>
       <c r="S45" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T45" s="1">
-        <v>300</v>
+      <c r="T45" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="U45" t="s">
         <v>35</v>
       </c>
       <c r="V45" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="W45" t="s">
         <v>35</v>
@@ -3706,6 +4304,907 @@
         <v>35</v>
       </c>
       <c r="Y45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
+      <c r="A46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46">
+        <v>123456</v>
+      </c>
+      <c r="E46" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46">
+        <v>123456</v>
+      </c>
+      <c r="G46">
+        <v>1000</v>
+      </c>
+      <c r="H46">
+        <v>600</v>
+      </c>
+      <c r="I46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M46" t="s">
+        <v>35</v>
+      </c>
+      <c r="N46" t="s">
+        <v>35</v>
+      </c>
+      <c r="O46" t="s">
+        <v>35</v>
+      </c>
+      <c r="P46" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>35</v>
+      </c>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U46" t="s">
+        <v>35</v>
+      </c>
+      <c r="V46" t="s">
+        <v>66</v>
+      </c>
+      <c r="W46" t="s">
+        <v>35</v>
+      </c>
+      <c r="X46" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
+      <c r="A47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47">
+        <v>123456</v>
+      </c>
+      <c r="E47" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47">
+        <v>123456</v>
+      </c>
+      <c r="G47">
+        <v>1000</v>
+      </c>
+      <c r="H47">
+        <v>600</v>
+      </c>
+      <c r="I47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M47" t="s">
+        <v>35</v>
+      </c>
+      <c r="N47" t="s">
+        <v>35</v>
+      </c>
+      <c r="O47" t="s">
+        <v>35</v>
+      </c>
+      <c r="P47" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>35</v>
+      </c>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U47" t="s">
+        <v>35</v>
+      </c>
+      <c r="V47" t="s">
+        <v>77</v>
+      </c>
+      <c r="W47" t="s">
+        <v>35</v>
+      </c>
+      <c r="X47" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
+      <c r="A48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48">
+        <v>123456</v>
+      </c>
+      <c r="E48" t="s">
+        <v>97</v>
+      </c>
+      <c r="F48">
+        <v>123456</v>
+      </c>
+      <c r="G48">
+        <v>1000</v>
+      </c>
+      <c r="H48">
+        <v>600</v>
+      </c>
+      <c r="I48" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M48" t="s">
+        <v>35</v>
+      </c>
+      <c r="N48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O48" t="s">
+        <v>35</v>
+      </c>
+      <c r="P48" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>35</v>
+      </c>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U48" t="s">
+        <v>35</v>
+      </c>
+      <c r="V48" t="s">
+        <v>77</v>
+      </c>
+      <c r="W48" t="s">
+        <v>35</v>
+      </c>
+      <c r="X48" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
+      <c r="A49" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49">
+        <v>123456</v>
+      </c>
+      <c r="E49" t="s">
+        <v>97</v>
+      </c>
+      <c r="F49">
+        <v>123456</v>
+      </c>
+      <c r="G49">
+        <v>1000</v>
+      </c>
+      <c r="H49">
+        <v>600</v>
+      </c>
+      <c r="I49" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M49" t="s">
+        <v>35</v>
+      </c>
+      <c r="N49" t="s">
+        <v>35</v>
+      </c>
+      <c r="O49" t="s">
+        <v>35</v>
+      </c>
+      <c r="P49" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>35</v>
+      </c>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U49" t="s">
+        <v>35</v>
+      </c>
+      <c r="V49" t="s">
+        <v>77</v>
+      </c>
+      <c r="W49" t="s">
+        <v>35</v>
+      </c>
+      <c r="X49" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
+      <c r="A50" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50">
+        <v>123456</v>
+      </c>
+      <c r="E50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50">
+        <v>123456</v>
+      </c>
+      <c r="G50">
+        <v>1000</v>
+      </c>
+      <c r="H50">
+        <v>600</v>
+      </c>
+      <c r="I50" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M50" t="s">
+        <v>64</v>
+      </c>
+      <c r="N50" t="s">
+        <v>35</v>
+      </c>
+      <c r="O50" t="s">
+        <v>35</v>
+      </c>
+      <c r="P50" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>35</v>
+      </c>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U50" t="s">
+        <v>35</v>
+      </c>
+      <c r="V50" t="s">
+        <v>35</v>
+      </c>
+      <c r="W50">
+        <v>5</v>
+      </c>
+      <c r="X50" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
+      <c r="A51" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51">
+        <v>123456</v>
+      </c>
+      <c r="E51" t="s">
+        <v>97</v>
+      </c>
+      <c r="F51">
+        <v>123456</v>
+      </c>
+      <c r="G51">
+        <v>1000</v>
+      </c>
+      <c r="H51">
+        <v>600</v>
+      </c>
+      <c r="I51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M51" t="s">
+        <v>64</v>
+      </c>
+      <c r="N51" t="s">
+        <v>35</v>
+      </c>
+      <c r="O51" t="s">
+        <v>35</v>
+      </c>
+      <c r="P51" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>35</v>
+      </c>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U51" t="s">
+        <v>35</v>
+      </c>
+      <c r="V51" t="s">
+        <v>35</v>
+      </c>
+      <c r="W51">
+        <v>60</v>
+      </c>
+      <c r="X51" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
+      <c r="A52" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52">
+        <v>123456</v>
+      </c>
+      <c r="E52" t="s">
+        <v>97</v>
+      </c>
+      <c r="F52">
+        <v>123456</v>
+      </c>
+      <c r="G52">
+        <v>1000</v>
+      </c>
+      <c r="H52">
+        <v>600</v>
+      </c>
+      <c r="I52" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M52" t="s">
+        <v>64</v>
+      </c>
+      <c r="N52" t="s">
+        <v>35</v>
+      </c>
+      <c r="O52" t="s">
+        <v>35</v>
+      </c>
+      <c r="P52" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>35</v>
+      </c>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U52" t="s">
+        <v>35</v>
+      </c>
+      <c r="V52" t="s">
+        <v>35</v>
+      </c>
+      <c r="W52">
+        <v>10</v>
+      </c>
+      <c r="X52" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
+      <c r="A53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53">
+        <v>123456</v>
+      </c>
+      <c r="E53" t="s">
+        <v>97</v>
+      </c>
+      <c r="F53">
+        <v>123456</v>
+      </c>
+      <c r="G53">
+        <v>1000</v>
+      </c>
+      <c r="H53">
+        <v>600</v>
+      </c>
+      <c r="I53" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M53" t="s">
+        <v>64</v>
+      </c>
+      <c r="N53" t="s">
+        <v>35</v>
+      </c>
+      <c r="O53" t="s">
+        <v>35</v>
+      </c>
+      <c r="P53" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>35</v>
+      </c>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U53" t="s">
+        <v>35</v>
+      </c>
+      <c r="V53" t="s">
+        <v>35</v>
+      </c>
+      <c r="W53">
+        <v>10</v>
+      </c>
+      <c r="X53" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
+      <c r="A54" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54">
+        <v>123456</v>
+      </c>
+      <c r="E54" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54">
+        <v>123456</v>
+      </c>
+      <c r="G54">
+        <v>1000</v>
+      </c>
+      <c r="H54">
+        <v>600</v>
+      </c>
+      <c r="I54" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M54" t="s">
+        <v>64</v>
+      </c>
+      <c r="N54" t="s">
+        <v>35</v>
+      </c>
+      <c r="O54" t="s">
+        <v>35</v>
+      </c>
+      <c r="P54" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>35</v>
+      </c>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U54" t="s">
+        <v>35</v>
+      </c>
+      <c r="V54" t="s">
+        <v>35</v>
+      </c>
+      <c r="W54">
+        <v>5</v>
+      </c>
+      <c r="X54" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+    </row>
+    <row r="56" spans="2:20">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+    </row>
+    <row r="57" spans="2:20">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+    </row>
+    <row r="58" spans="2:20">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+    </row>
+    <row r="59" spans="2:20">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+    </row>
+    <row r="60" spans="2:20">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+    </row>
+    <row r="61" spans="2:20">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+    </row>
+    <row r="62" spans="2:20">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+    </row>
+    <row r="63" spans="2:20">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+    </row>
+    <row r="64" spans="2:20">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+    </row>
+    <row r="65" spans="2:20">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+    </row>
+    <row r="66" spans="2:20">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+    </row>
+    <row r="67" spans="2:20">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+    </row>
+    <row r="68" spans="25:25">
+      <c r="Y68" t="s">
         <v>96</v>
       </c>
     </row>

--- a/TestData/Web_POS/Billing/billing_test_data.xlsx
+++ b/TestData/Web_POS/Billing/billing_test_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr fullPrecision="1" calcId="125725"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,436 +19,449 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="118">
-  <si>
-    <t xml:space="preserve">TC_Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">serial_key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">username_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">username_pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password_pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">closing_balance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opening_balance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">store_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assortment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">categories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buy_items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">get_items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manual_discount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">discount_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carry_bag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price_Override</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">salesperson_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">307220524Dzl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zwshashank.agrawal@teampureplay.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MrunalJagtap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Index9QA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NULL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dummy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">307260624P3E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">userone_p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">737534800034 : 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i9Qa_user1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QBSB-Specificqty-Flat-percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8906118410781 : 2,  8906118412556 : 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maharashtra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saloni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexa67 : 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8906118410781: 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list : Assortment_Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount : 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cash : 100, paytm : 100, voucher : 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8906118410781 : 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QBSB-Specificqty-Flat-rupees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QBSB-Any Qty-get pool-spf-Rupees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8906118412761 : 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rudraksha : 2, Carry bag : 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QBSB-Specificity-Flat-fixed-all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">737534800034 : 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QBSB-any____qty-Getpool-Specificqty-Free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8906118412761 : 1, 8906118412662 : 1, 8906118412556 : 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list : Assortment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100Rs Discount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It was a great experience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itembarcode0116 : 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Return</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exchange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">307260624ut0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">userone_p2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118" count="1056">
+  <si>
+    <t>TC_Id</t>
+  </si>
+  <si>
+    <t>serial_key</t>
+  </si>
+  <si>
+    <t>username_admin</t>
+  </si>
+  <si>
+    <t>password_admin</t>
+  </si>
+  <si>
+    <t>username_pos</t>
+  </si>
+  <si>
+    <t>password_pos</t>
+  </si>
+  <si>
+    <t>closing_balance</t>
+  </si>
+  <si>
+    <t>opening_balance</t>
+  </si>
+  <si>
+    <t>store_name</t>
+  </si>
+  <si>
+    <t>assortment</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>buy_items</t>
+  </si>
+  <si>
+    <t>get_items</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>manual_discount</t>
+  </si>
+  <si>
+    <t>discount_value</t>
+  </si>
+  <si>
+    <t>carry_bag</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Price_Override</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>salesperson_name</t>
+  </si>
+  <si>
+    <t>TC_1</t>
+  </si>
+  <si>
+    <t>307220524Dzl</t>
+  </si>
+  <si>
+    <t>zwshashank.agrawal@teampureplay.com</t>
+  </si>
+  <si>
+    <t>MrunalJagtap</t>
+  </si>
+  <si>
+    <t>Index9QA</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Dummy</t>
+  </si>
+  <si>
+    <t>TC_2</t>
+  </si>
+  <si>
+    <t>307260624P3E</t>
+  </si>
+  <si>
+    <t>userone_p1</t>
+  </si>
+  <si>
+    <t>737534800034 : 2</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>i9Qa_user1</t>
+  </si>
+  <si>
+    <t>QBSB-Specificqty-Flat-percentage</t>
+  </si>
+  <si>
+    <t>8906118410781 : 2,  8906118412556 : 2</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Saloni</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Alexa67 : 2</t>
+  </si>
+  <si>
+    <t>8906118410781: 4</t>
+  </si>
+  <si>
+    <t>list : Assortment_Item</t>
+  </si>
+  <si>
+    <t>Amount : 10</t>
+  </si>
+  <si>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>cash : 100, paytm : 100, voucher : 0</t>
+  </si>
+  <si>
+    <t>8906118410781 : 1</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>TC_09</t>
+  </si>
+  <si>
+    <t>QBSB-Specificqty-Flat-rupees</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>QBSB-Any Qty-get pool-spf-Rupees</t>
+  </si>
+  <si>
+    <t>8906118412761 : 1</t>
+  </si>
+  <si>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>Rudraksha : 2, Carry bag : 1</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>QBSB-Specificity-Flat-fixed-all</t>
+  </si>
+  <si>
+    <t>TC_19</t>
+  </si>
+  <si>
+    <t>737534800034 : 1</t>
+  </si>
+  <si>
+    <t>TC_20</t>
+  </si>
+  <si>
+    <t>TC_21</t>
+  </si>
+  <si>
+    <t>TC_22</t>
+  </si>
+  <si>
+    <t>TC_23</t>
+  </si>
+  <si>
+    <t>TC_24</t>
+  </si>
+  <si>
+    <t>TC_25</t>
+  </si>
+  <si>
+    <t>TC_26</t>
+  </si>
+  <si>
+    <t>TC_27</t>
+  </si>
+  <si>
+    <t>TC_28</t>
+  </si>
+  <si>
+    <t>TC_29</t>
+  </si>
+  <si>
+    <t>TC_30</t>
+  </si>
+  <si>
+    <t>QBSB-any____qty-Getpool-Specificqty-Free</t>
+  </si>
+  <si>
+    <t>8906118412761 : 1, 8906118412662 : 1, 8906118412556 : 1</t>
+  </si>
+  <si>
+    <t>TC_31</t>
+  </si>
+  <si>
+    <t>TC_32</t>
+  </si>
+  <si>
+    <t>list : Assortment</t>
+  </si>
+  <si>
+    <t>100Rs Discount</t>
+  </si>
+  <si>
+    <t>TC_33</t>
+  </si>
+  <si>
+    <t>TC_34</t>
+  </si>
+  <si>
+    <t>TC_35</t>
+  </si>
+  <si>
+    <t>It was a great experience</t>
+  </si>
+  <si>
+    <t>TC_36</t>
+  </si>
+  <si>
+    <t>Itembarcode0116 : 1</t>
+  </si>
+  <si>
+    <t>TC_37</t>
+  </si>
+  <si>
+    <t>TC_38</t>
+  </si>
+  <si>
+    <t>TC_39</t>
+  </si>
+  <si>
+    <t>TC_40</t>
+  </si>
+  <si>
+    <t>TC_41</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>TC_42</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>TC_43</t>
+  </si>
+  <si>
+    <t>TC_44</t>
+  </si>
+  <si>
+    <t>TC_45</t>
+  </si>
+  <si>
+    <t>TC_46</t>
+  </si>
+  <si>
+    <t>TC_47</t>
+  </si>
+  <si>
+    <t>TC_48</t>
+  </si>
+  <si>
+    <t>TC_49</t>
+  </si>
+  <si>
+    <t>TC_50</t>
+  </si>
+  <si>
+    <t>TC_51</t>
+  </si>
+  <si>
+    <t>TC_52</t>
+  </si>
+  <si>
+    <t>TC_53</t>
+  </si>
+  <si>
+    <t>307260624ut0</t>
+  </si>
+  <si>
+    <t>userone_p2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$-409]M/D/YYYY"/>
+<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <charset val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF2B579A"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF161616"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -465,14 +477,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="medium">
         <color rgb="FF2B579A"/>
@@ -484,102 +496,65 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="38">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -588,6 +563,7 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="ConditionalFormatStyle" xfId="20"/>
     <cellStyle name="HeaderStyle" xfId="21"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -647,47 +623,53 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF2B579A"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr/>
   <dimension ref="A1:AMJ68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z1" activeCellId="0" sqref="Z1"/>
+    <sheetView defaultGridColor="0" colorId="64" view="normal" tabSelected="1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="19.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="31.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="31.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="28.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="19.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="23.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="18.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="0" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="22.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="12.63"/>
+    <col min="1" max="1" width="12.6796875" customWidth="1"/>
+    <col min="2" max="2" width="19.27734375" customWidth="1"/>
+    <col min="3" max="3" width="43.9296875" customWidth="1"/>
+    <col min="4" max="4" width="25.34765625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.9296875" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="8" max="9" width="19.09765625" customWidth="1"/>
+    <col min="10" max="11" width="31.95703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="31.95703125" customWidth="1"/>
+    <col min="13" max="14" width="28.75" customWidth="1"/>
+    <col min="15" max="17" width="19.09765625" customWidth="1"/>
+    <col min="18" max="20" width="29.45703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="23.20703125" customWidth="1"/>
+    <col min="22" max="22" width="15" customWidth="1"/>
+    <col min="23" max="23" width="18.9296875" customWidth="1"/>
+    <col min="24" max="25" width="12.6796875" customWidth="1"/>
+    <col min="26" max="26" width="22.84765625" customWidth="1"/>
+    <col min="27" max="1025" width="12.6796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:26" customHeight="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -705,13 +687,13 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -720,22 +702,22 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -747,51 +729,51 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:26" customHeight="1">
+      <c r="A2" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G2" s="0" t="n">
+      <c r="D2">
+        <v>123456</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2">
+        <v>123456</v>
+      </c>
+      <c r="G2">
         <v>1000</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>600</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -803,16 +785,16 @@
       <c r="L2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="0" t="s">
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" t="s">
         <v>31</v>
       </c>
       <c r="S2" s="1" t="s">
@@ -821,51 +803,51 @@
       <c r="T2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" s="0" t="s">
+      <c r="U2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y2" s="0" t="s">
+      <c r="W2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="Z2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" customHeight="1">
+      <c r="A3" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="D3">
+        <v>123456</v>
+      </c>
+      <c r="E3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G3" s="0" t="n">
+      <c r="F3">
+        <v>123456</v>
+      </c>
+      <c r="G3">
         <v>1000</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>600</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -877,19 +859,19 @@
       <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="0" t="s">
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" t="s">
         <v>31</v>
       </c>
       <c r="S3" s="1" t="s">
@@ -898,26 +880,26 @@
       <c r="T3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y3" s="0" t="s">
+      <c r="U3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" t="s">
         <v>33</v>
       </c>
-      <c r="Z3" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Z3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="33" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
@@ -927,19 +909,19 @@
       <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>123456</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="5" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G4" s="4" t="n">
+      <c r="F4" s="5">
+        <v>123456</v>
+      </c>
+      <c r="G4" s="4">
         <v>1000</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="4">
         <v>600</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -948,10 +930,10 @@
       <c r="J4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="3">
         <v>1</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="L4" s="3">
         <v>2</v>
       </c>
       <c r="M4" s="3" t="s">
@@ -996,7 +978,7 @@
       </c>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="34.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:27" ht="34.8" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>45</v>
       </c>
@@ -1006,19 +988,19 @@
       <c r="C5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>123456</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="5" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G5" s="4" t="n">
+      <c r="F5" s="5">
+        <v>123456</v>
+      </c>
+      <c r="G5" s="4">
         <v>1000</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="4">
         <v>600</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -1027,10 +1009,10 @@
       <c r="J5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K5" s="3">
         <v>1</v>
       </c>
-      <c r="L5" s="3" t="n">
+      <c r="L5" s="3">
         <v>2</v>
       </c>
       <c r="M5" s="3" t="s">
@@ -1075,8 +1057,8 @@
       </c>
       <c r="AA5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:26" ht="33.75" customHeight="1">
+      <c r="A6" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1085,40 +1067,40 @@
       <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="D6" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G6" s="1" t="n">
+      <c r="F6" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G6" s="1">
         <v>1000</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6">
         <v>600</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="8" t="n">
+      <c r="J6" s="8">
         <v>1</v>
       </c>
-      <c r="K6" s="8" t="n">
+      <c r="K6" s="8">
         <v>1</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="L6" t="s">
         <v>47</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="N6" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="9" t="n">
+      <c r="O6" s="9">
         <v>45384</v>
       </c>
       <c r="P6" s="9" t="s">
@@ -1148,15 +1130,15 @@
       <c r="X6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y6" s="0" t="s">
+      <c r="Y6" t="s">
         <v>33</v>
       </c>
-      <c r="Z6" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="Z6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="33.75" customHeight="1">
+      <c r="A7" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1165,28 +1147,28 @@
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="D7" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G7" s="0" t="n">
+      <c r="F7" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G7">
         <v>1000</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>600</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="8" t="n">
+      <c r="J7" s="8">
         <v>1</v>
       </c>
-      <c r="K7" s="8" t="n">
+      <c r="K7" s="8">
         <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -1195,10 +1177,10 @@
       <c r="M7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="N7" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="9" t="n">
+      <c r="O7" s="9">
         <v>45384</v>
       </c>
       <c r="P7" s="9" t="s">
@@ -1207,7 +1189,7 @@
       <c r="Q7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="R7" s="10" t="n">
+      <c r="R7" s="10">
         <v>7709577438</v>
       </c>
       <c r="S7" s="1" t="s">
@@ -1228,15 +1210,15 @@
       <c r="X7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y7" s="0" t="s">
+      <c r="Y7" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="Z7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="33.75" customHeight="1">
+      <c r="A8" t="s">
         <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1245,28 +1227,28 @@
       <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E8" s="0" t="s">
+      <c r="D8" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E8" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G8" s="0" t="n">
+      <c r="F8" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G8">
         <v>1000</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8">
         <v>600</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="8" t="n">
+      <c r="J8" s="8">
         <v>1</v>
       </c>
-      <c r="K8" s="8" t="n">
+      <c r="K8" s="8">
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -1275,10 +1257,10 @@
       <c r="M8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="N8" t="s">
         <v>49</v>
       </c>
-      <c r="O8" s="9" t="n">
+      <c r="O8" s="9">
         <v>45384</v>
       </c>
       <c r="P8" s="9" t="s">
@@ -1287,7 +1269,7 @@
       <c r="Q8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="R8" s="10" t="n">
+      <c r="R8" s="10">
         <v>7709577438</v>
       </c>
       <c r="S8" s="1" t="s">
@@ -1308,15 +1290,15 @@
       <c r="X8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y8" s="0" t="s">
+      <c r="Y8" t="s">
         <v>33</v>
       </c>
-      <c r="Z8" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="Z8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="33.75" customHeight="1">
+      <c r="A9" t="s">
         <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1325,19 +1307,19 @@
       <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="5">
         <v>123456</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="5" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G9" s="0" t="n">
+      <c r="F9" s="5">
+        <v>123456</v>
+      </c>
+      <c r="G9">
         <v>1000</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9">
         <v>600</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -1346,10 +1328,10 @@
       <c r="J9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="3" t="n">
+      <c r="K9" s="3">
         <v>1</v>
       </c>
-      <c r="L9" s="3" t="n">
+      <c r="L9" s="3">
         <v>2</v>
       </c>
       <c r="M9" s="3" t="s">
@@ -1393,8 +1375,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:26" ht="33.75" customHeight="1">
+      <c r="A10" t="s">
         <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1403,19 +1385,19 @@
       <c r="C10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="5">
         <v>123456</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="5" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G10" s="0" t="n">
+      <c r="F10" s="5">
+        <v>123456</v>
+      </c>
+      <c r="G10">
         <v>1000</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10">
         <v>600</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -1424,10 +1406,10 @@
       <c r="J10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="3" t="n">
+      <c r="K10" s="3">
         <v>1</v>
       </c>
-      <c r="L10" s="3" t="n">
+      <c r="L10" s="3">
         <v>2</v>
       </c>
       <c r="M10" s="3" t="s">
@@ -1467,12 +1449,12 @@
       <c r="Y10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Z10" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="Z10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="18" customHeight="1">
+      <c r="A11" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1481,28 +1463,28 @@
       <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E11" s="0" t="s">
+      <c r="D11" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E11" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G11" s="0" t="n">
+      <c r="F11" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G11">
         <v>1000</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11">
         <v>600</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="8" t="n">
+      <c r="J11" s="8">
         <v>1</v>
       </c>
-      <c r="K11" s="8" t="n">
+      <c r="K11" s="8">
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -1511,10 +1493,10 @@
       <c r="M11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N11" s="0" t="s">
+      <c r="N11" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="9" t="n">
+      <c r="O11" s="9">
         <v>45384</v>
       </c>
       <c r="P11" s="9" t="s">
@@ -1523,7 +1505,7 @@
       <c r="Q11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="R11" s="10" t="n">
+      <c r="R11" s="10">
         <v>7709577438</v>
       </c>
       <c r="S11" s="1" t="s">
@@ -1544,15 +1526,15 @@
       <c r="X11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y11" s="0" t="s">
+      <c r="Y11" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="Z11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A12" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1561,28 +1543,28 @@
       <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E12" s="0" t="s">
+      <c r="D12" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E12" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G12" s="0" t="n">
+      <c r="F12" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G12">
         <v>1000</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12">
         <v>600</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="8" t="n">
+      <c r="J12" s="8">
         <v>1</v>
       </c>
-      <c r="K12" s="8" t="n">
+      <c r="K12" s="8">
         <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
@@ -1591,10 +1573,10 @@
       <c r="M12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N12" s="0" t="s">
+      <c r="N12" t="s">
         <v>49</v>
       </c>
-      <c r="O12" s="9" t="n">
+      <c r="O12" s="9">
         <v>45384</v>
       </c>
       <c r="P12" s="9" t="s">
@@ -1603,7 +1585,7 @@
       <c r="Q12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="10" t="n">
+      <c r="R12" s="10">
         <v>7709577438</v>
       </c>
       <c r="S12" s="1" t="s">
@@ -1624,15 +1606,15 @@
       <c r="X12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y12" s="0" t="s">
+      <c r="Y12" t="s">
         <v>33</v>
       </c>
-      <c r="Z12" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="Z12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" customHeight="1">
+      <c r="A13" t="s">
         <v>61</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1641,28 +1623,28 @@
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E13" s="0" t="s">
+      <c r="D13" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E13" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G13" s="0" t="n">
+      <c r="F13" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G13">
         <v>1000</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13">
         <v>600</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="8" t="n">
+      <c r="J13" s="8">
         <v>1</v>
       </c>
-      <c r="K13" s="8" t="n">
+      <c r="K13" s="8">
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
@@ -1671,10 +1653,10 @@
       <c r="M13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N13" s="0" t="s">
+      <c r="N13" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="9" t="n">
+      <c r="O13" s="9">
         <v>45384</v>
       </c>
       <c r="P13" s="9" t="s">
@@ -1683,7 +1665,7 @@
       <c r="Q13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="R13" s="10" t="n">
+      <c r="R13" s="10">
         <v>7709577438</v>
       </c>
       <c r="S13" s="1" t="s">
@@ -1704,15 +1686,15 @@
       <c r="X13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y13" s="0" t="s">
+      <c r="Y13" t="s">
         <v>33</v>
       </c>
-      <c r="Z13" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="Z13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="26.25" customHeight="1">
+      <c r="A14" t="s">
         <v>62</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1721,28 +1703,28 @@
       <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E14" s="0" t="s">
+      <c r="D14" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E14" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G14" s="0" t="n">
+      <c r="F14" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G14">
         <v>1000</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14">
         <v>600</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="8" t="n">
+      <c r="J14" s="8">
         <v>1</v>
       </c>
-      <c r="K14" s="8" t="n">
+      <c r="K14" s="8">
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
@@ -1751,10 +1733,10 @@
       <c r="M14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N14" s="0" t="s">
+      <c r="N14" t="s">
         <v>49</v>
       </c>
-      <c r="O14" s="9" t="n">
+      <c r="O14" s="9">
         <v>45384</v>
       </c>
       <c r="P14" s="9" t="s">
@@ -1763,7 +1745,7 @@
       <c r="Q14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="R14" s="10" t="n">
+      <c r="R14" s="10">
         <v>7709577438</v>
       </c>
       <c r="S14" s="1" t="s">
@@ -1784,15 +1766,15 @@
       <c r="X14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y14" s="0" t="s">
+      <c r="Y14" t="s">
         <v>33</v>
       </c>
-      <c r="Z14" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="Z14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="30" customHeight="1">
+      <c r="A15" t="s">
         <v>63</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1801,28 +1783,28 @@
       <c r="C15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="11" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E15" s="0" t="s">
+      <c r="D15" s="11">
+        <v>123456</v>
+      </c>
+      <c r="E15" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G15" s="0" t="n">
+      <c r="F15" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G15">
         <v>1000</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15">
         <v>600</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="8" t="n">
+      <c r="J15" s="8">
         <v>1</v>
       </c>
-      <c r="K15" s="8" t="n">
+      <c r="K15" s="8">
         <v>1</v>
       </c>
       <c r="L15" s="1" t="s">
@@ -1831,10 +1813,10 @@
       <c r="M15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N15" s="0" t="s">
+      <c r="N15" t="s">
         <v>49</v>
       </c>
-      <c r="O15" s="9" t="n">
+      <c r="O15" s="9">
         <v>45384</v>
       </c>
       <c r="P15" s="9" t="s">
@@ -1843,7 +1825,7 @@
       <c r="Q15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="R15" s="10" t="n">
+      <c r="R15" s="10">
         <v>7709577438</v>
       </c>
       <c r="S15" s="1" t="s">
@@ -1864,15 +1846,15 @@
       <c r="X15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y15" s="0" t="s">
+      <c r="Y15" t="s">
         <v>33</v>
       </c>
-      <c r="Z15" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="Z15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1024" s="3" customFormat="1" ht="13.8">
+      <c r="A16" t="s">
         <v>64</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1881,19 +1863,19 @@
       <c r="C16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="D16" s="5">
         <v>123456</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="5" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G16" s="0" t="n">
+      <c r="F16" s="5">
+        <v>123456</v>
+      </c>
+      <c r="G16">
         <v>1000</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16">
         <v>600</v>
       </c>
       <c r="I16" s="3" t="s">
@@ -1902,10 +1884,10 @@
       <c r="J16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K16" s="3" t="n">
+      <c r="K16" s="3">
         <v>1</v>
       </c>
-      <c r="L16" s="3" t="n">
+      <c r="L16" s="3">
         <v>1</v>
       </c>
       <c r="M16" s="3" t="s">
@@ -1942,660 +1924,660 @@
       <c r="X16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y16" s="0" t="s">
+      <c r="Y16" t="s">
         <v>33</v>
       </c>
-      <c r="Z16" s="0" t="s">
+      <c r="Z16" t="s">
         <v>31</v>
       </c>
       <c r="AF16" s="7"/>
       <c r="AG16" s="7"/>
       <c r="AH16" s="7"/>
-      <c r="AI16" s="0"/>
+      <c r="AI16"/>
       <c r="AJ16" s="12"/>
       <c r="AK16" s="5"/>
       <c r="AL16" s="5"/>
       <c r="AM16" s="5"/>
       <c r="AN16" s="5"/>
-      <c r="AO16" s="0"/>
-      <c r="AP16" s="0"/>
+      <c r="AO16"/>
+      <c r="AP16"/>
       <c r="AW16" s="7"/>
       <c r="AX16" s="7"/>
       <c r="AY16" s="7"/>
-      <c r="AZ16" s="0"/>
+      <c r="AZ16"/>
       <c r="BA16" s="12"/>
       <c r="BB16" s="5"/>
       <c r="BC16" s="5"/>
       <c r="BD16" s="5"/>
       <c r="BE16" s="5"/>
-      <c r="BF16" s="0"/>
-      <c r="BG16" s="0"/>
+      <c r="BF16"/>
+      <c r="BG16"/>
       <c r="BN16" s="7"/>
       <c r="BO16" s="7"/>
       <c r="BP16" s="7"/>
-      <c r="BQ16" s="0"/>
+      <c r="BQ16"/>
       <c r="BR16" s="12"/>
       <c r="BS16" s="5"/>
       <c r="BT16" s="5"/>
       <c r="BU16" s="5"/>
       <c r="BV16" s="5"/>
-      <c r="BW16" s="0"/>
-      <c r="BX16" s="0"/>
+      <c r="BW16"/>
+      <c r="BX16"/>
       <c r="CE16" s="7"/>
       <c r="CF16" s="7"/>
       <c r="CG16" s="7"/>
-      <c r="CH16" s="0"/>
+      <c r="CH16"/>
       <c r="CI16" s="12"/>
       <c r="CJ16" s="5"/>
       <c r="CK16" s="5"/>
       <c r="CL16" s="5"/>
       <c r="CM16" s="5"/>
-      <c r="CN16" s="0"/>
-      <c r="CO16" s="0"/>
+      <c r="CN16"/>
+      <c r="CO16"/>
       <c r="CV16" s="7"/>
       <c r="CW16" s="7"/>
       <c r="CX16" s="7"/>
-      <c r="CY16" s="0"/>
+      <c r="CY16"/>
       <c r="CZ16" s="12"/>
       <c r="DA16" s="5"/>
       <c r="DB16" s="5"/>
       <c r="DC16" s="5"/>
       <c r="DD16" s="5"/>
-      <c r="DE16" s="0"/>
-      <c r="DF16" s="0"/>
+      <c r="DE16"/>
+      <c r="DF16"/>
       <c r="DM16" s="7"/>
       <c r="DN16" s="7"/>
       <c r="DO16" s="7"/>
-      <c r="DP16" s="0"/>
+      <c r="DP16"/>
       <c r="DQ16" s="12"/>
       <c r="DR16" s="5"/>
       <c r="DS16" s="5"/>
       <c r="DT16" s="5"/>
       <c r="DU16" s="5"/>
-      <c r="DV16" s="0"/>
-      <c r="DW16" s="0"/>
+      <c r="DV16"/>
+      <c r="DW16"/>
       <c r="ED16" s="7"/>
       <c r="EE16" s="7"/>
       <c r="EF16" s="7"/>
-      <c r="EG16" s="0"/>
+      <c r="EG16"/>
       <c r="EH16" s="12"/>
       <c r="EI16" s="5"/>
       <c r="EJ16" s="5"/>
       <c r="EK16" s="5"/>
       <c r="EL16" s="5"/>
-      <c r="EM16" s="0"/>
-      <c r="EN16" s="0"/>
+      <c r="EM16"/>
+      <c r="EN16"/>
       <c r="EU16" s="7"/>
       <c r="EV16" s="7"/>
       <c r="EW16" s="7"/>
-      <c r="EX16" s="0"/>
+      <c r="EX16"/>
       <c r="EY16" s="12"/>
       <c r="EZ16" s="5"/>
       <c r="FA16" s="5"/>
       <c r="FB16" s="5"/>
       <c r="FC16" s="5"/>
-      <c r="FD16" s="0"/>
-      <c r="FE16" s="0"/>
+      <c r="FD16"/>
+      <c r="FE16"/>
       <c r="FL16" s="7"/>
       <c r="FM16" s="7"/>
       <c r="FN16" s="7"/>
-      <c r="FO16" s="0"/>
+      <c r="FO16"/>
       <c r="FP16" s="12"/>
       <c r="FQ16" s="5"/>
       <c r="FR16" s="5"/>
       <c r="FS16" s="5"/>
       <c r="FT16" s="5"/>
-      <c r="FU16" s="0"/>
-      <c r="FV16" s="0"/>
+      <c r="FU16"/>
+      <c r="FV16"/>
       <c r="GC16" s="7"/>
       <c r="GD16" s="7"/>
       <c r="GE16" s="7"/>
-      <c r="GF16" s="0"/>
+      <c r="GF16"/>
       <c r="GG16" s="12"/>
       <c r="GH16" s="5"/>
       <c r="GI16" s="5"/>
       <c r="GJ16" s="5"/>
       <c r="GK16" s="5"/>
-      <c r="GL16" s="0"/>
-      <c r="GM16" s="0"/>
+      <c r="GL16"/>
+      <c r="GM16"/>
       <c r="GT16" s="7"/>
       <c r="GU16" s="7"/>
       <c r="GV16" s="7"/>
-      <c r="GW16" s="0"/>
+      <c r="GW16"/>
       <c r="GX16" s="12"/>
       <c r="GY16" s="5"/>
       <c r="GZ16" s="5"/>
       <c r="HA16" s="5"/>
       <c r="HB16" s="5"/>
-      <c r="HC16" s="0"/>
-      <c r="HD16" s="0"/>
+      <c r="HC16"/>
+      <c r="HD16"/>
       <c r="HK16" s="7"/>
       <c r="HL16" s="7"/>
       <c r="HM16" s="7"/>
-      <c r="HN16" s="0"/>
+      <c r="HN16"/>
       <c r="HO16" s="12"/>
       <c r="HP16" s="5"/>
       <c r="HQ16" s="5"/>
       <c r="HR16" s="5"/>
       <c r="HS16" s="5"/>
-      <c r="HT16" s="0"/>
-      <c r="HU16" s="0"/>
+      <c r="HT16"/>
+      <c r="HU16"/>
       <c r="IB16" s="7"/>
       <c r="IC16" s="7"/>
       <c r="ID16" s="7"/>
-      <c r="IE16" s="0"/>
+      <c r="IE16"/>
       <c r="IF16" s="12"/>
       <c r="IG16" s="5"/>
       <c r="IH16" s="5"/>
       <c r="II16" s="5"/>
       <c r="IJ16" s="5"/>
-      <c r="IK16" s="0"/>
-      <c r="IL16" s="0"/>
+      <c r="IK16"/>
+      <c r="IL16"/>
       <c r="IS16" s="7"/>
       <c r="IT16" s="7"/>
       <c r="IU16" s="7"/>
-      <c r="IV16" s="0"/>
+      <c r="IV16"/>
       <c r="IW16" s="12"/>
       <c r="IX16" s="5"/>
       <c r="IY16" s="5"/>
       <c r="IZ16" s="5"/>
       <c r="JA16" s="5"/>
-      <c r="JB16" s="0"/>
-      <c r="JC16" s="0"/>
+      <c r="JB16"/>
+      <c r="JC16"/>
       <c r="JJ16" s="7"/>
       <c r="JK16" s="7"/>
       <c r="JL16" s="7"/>
-      <c r="JM16" s="0"/>
+      <c r="JM16"/>
       <c r="JN16" s="12"/>
       <c r="JO16" s="5"/>
       <c r="JP16" s="5"/>
       <c r="JQ16" s="5"/>
       <c r="JR16" s="5"/>
-      <c r="JS16" s="0"/>
-      <c r="JT16" s="0"/>
+      <c r="JS16"/>
+      <c r="JT16"/>
       <c r="KA16" s="7"/>
       <c r="KB16" s="7"/>
       <c r="KC16" s="7"/>
-      <c r="KD16" s="0"/>
+      <c r="KD16"/>
       <c r="KE16" s="12"/>
       <c r="KF16" s="5"/>
       <c r="KG16" s="5"/>
       <c r="KH16" s="5"/>
       <c r="KI16" s="5"/>
-      <c r="KJ16" s="0"/>
-      <c r="KK16" s="0"/>
+      <c r="KJ16"/>
+      <c r="KK16"/>
       <c r="KR16" s="7"/>
       <c r="KS16" s="7"/>
       <c r="KT16" s="7"/>
-      <c r="KU16" s="0"/>
+      <c r="KU16"/>
       <c r="KV16" s="12"/>
       <c r="KW16" s="5"/>
       <c r="KX16" s="5"/>
       <c r="KY16" s="5"/>
       <c r="KZ16" s="5"/>
-      <c r="LA16" s="0"/>
-      <c r="LB16" s="0"/>
+      <c r="LA16"/>
+      <c r="LB16"/>
       <c r="LI16" s="7"/>
       <c r="LJ16" s="7"/>
       <c r="LK16" s="7"/>
-      <c r="LL16" s="0"/>
+      <c r="LL16"/>
       <c r="LM16" s="12"/>
       <c r="LN16" s="5"/>
       <c r="LO16" s="5"/>
       <c r="LP16" s="5"/>
       <c r="LQ16" s="5"/>
-      <c r="LR16" s="0"/>
-      <c r="LS16" s="0"/>
+      <c r="LR16"/>
+      <c r="LS16"/>
       <c r="LZ16" s="7"/>
       <c r="MA16" s="7"/>
       <c r="MB16" s="7"/>
-      <c r="MC16" s="0"/>
+      <c r="MC16"/>
       <c r="MD16" s="12"/>
       <c r="ME16" s="5"/>
       <c r="MF16" s="5"/>
       <c r="MG16" s="5"/>
       <c r="MH16" s="5"/>
-      <c r="MI16" s="0"/>
-      <c r="MJ16" s="0"/>
+      <c r="MI16"/>
+      <c r="MJ16"/>
       <c r="MQ16" s="7"/>
       <c r="MR16" s="7"/>
       <c r="MS16" s="7"/>
-      <c r="MT16" s="0"/>
+      <c r="MT16"/>
       <c r="MU16" s="12"/>
       <c r="MV16" s="5"/>
       <c r="MW16" s="5"/>
       <c r="MX16" s="5"/>
       <c r="MY16" s="5"/>
-      <c r="MZ16" s="0"/>
-      <c r="NA16" s="0"/>
+      <c r="MZ16"/>
+      <c r="NA16"/>
       <c r="NH16" s="7"/>
       <c r="NI16" s="7"/>
       <c r="NJ16" s="7"/>
-      <c r="NK16" s="0"/>
+      <c r="NK16"/>
       <c r="NL16" s="12"/>
       <c r="NM16" s="5"/>
       <c r="NN16" s="5"/>
       <c r="NO16" s="5"/>
       <c r="NP16" s="5"/>
-      <c r="NQ16" s="0"/>
-      <c r="NR16" s="0"/>
+      <c r="NQ16"/>
+      <c r="NR16"/>
       <c r="NY16" s="7"/>
       <c r="NZ16" s="7"/>
       <c r="OA16" s="7"/>
-      <c r="OB16" s="0"/>
+      <c r="OB16"/>
       <c r="OC16" s="12"/>
       <c r="OD16" s="5"/>
       <c r="OE16" s="5"/>
       <c r="OF16" s="5"/>
       <c r="OG16" s="5"/>
-      <c r="OH16" s="0"/>
-      <c r="OI16" s="0"/>
+      <c r="OH16"/>
+      <c r="OI16"/>
       <c r="OP16" s="7"/>
       <c r="OQ16" s="7"/>
       <c r="OR16" s="7"/>
-      <c r="OS16" s="0"/>
+      <c r="OS16"/>
       <c r="OT16" s="12"/>
       <c r="OU16" s="5"/>
       <c r="OV16" s="5"/>
       <c r="OW16" s="5"/>
       <c r="OX16" s="5"/>
-      <c r="OY16" s="0"/>
-      <c r="OZ16" s="0"/>
+      <c r="OY16"/>
+      <c r="OZ16"/>
       <c r="PG16" s="7"/>
       <c r="PH16" s="7"/>
       <c r="PI16" s="7"/>
-      <c r="PJ16" s="0"/>
+      <c r="PJ16"/>
       <c r="PK16" s="12"/>
       <c r="PL16" s="5"/>
       <c r="PM16" s="5"/>
       <c r="PN16" s="5"/>
       <c r="PO16" s="5"/>
-      <c r="PP16" s="0"/>
-      <c r="PQ16" s="0"/>
+      <c r="PP16"/>
+      <c r="PQ16"/>
       <c r="PX16" s="7"/>
       <c r="PY16" s="7"/>
       <c r="PZ16" s="7"/>
-      <c r="QA16" s="0"/>
+      <c r="QA16"/>
       <c r="QB16" s="12"/>
       <c r="QC16" s="5"/>
       <c r="QD16" s="5"/>
       <c r="QE16" s="5"/>
       <c r="QF16" s="5"/>
-      <c r="QG16" s="0"/>
-      <c r="QH16" s="0"/>
+      <c r="QG16"/>
+      <c r="QH16"/>
       <c r="QO16" s="7"/>
       <c r="QP16" s="7"/>
       <c r="QQ16" s="7"/>
-      <c r="QR16" s="0"/>
+      <c r="QR16"/>
       <c r="QS16" s="12"/>
       <c r="QT16" s="5"/>
       <c r="QU16" s="5"/>
       <c r="QV16" s="5"/>
       <c r="QW16" s="5"/>
-      <c r="QX16" s="0"/>
-      <c r="QY16" s="0"/>
+      <c r="QX16"/>
+      <c r="QY16"/>
       <c r="RF16" s="7"/>
       <c r="RG16" s="7"/>
       <c r="RH16" s="7"/>
-      <c r="RI16" s="0"/>
+      <c r="RI16"/>
       <c r="RJ16" s="12"/>
       <c r="RK16" s="5"/>
       <c r="RL16" s="5"/>
       <c r="RM16" s="5"/>
       <c r="RN16" s="5"/>
-      <c r="RO16" s="0"/>
-      <c r="RP16" s="0"/>
+      <c r="RO16"/>
+      <c r="RP16"/>
       <c r="RW16" s="7"/>
       <c r="RX16" s="7"/>
       <c r="RY16" s="7"/>
-      <c r="RZ16" s="0"/>
+      <c r="RZ16"/>
       <c r="SA16" s="12"/>
       <c r="SB16" s="5"/>
       <c r="SC16" s="5"/>
       <c r="SD16" s="5"/>
       <c r="SE16" s="5"/>
-      <c r="SF16" s="0"/>
-      <c r="SG16" s="0"/>
+      <c r="SF16"/>
+      <c r="SG16"/>
       <c r="SN16" s="7"/>
       <c r="SO16" s="7"/>
       <c r="SP16" s="7"/>
-      <c r="SQ16" s="0"/>
+      <c r="SQ16"/>
       <c r="SR16" s="12"/>
       <c r="SS16" s="5"/>
       <c r="ST16" s="5"/>
       <c r="SU16" s="5"/>
       <c r="SV16" s="5"/>
-      <c r="SW16" s="0"/>
-      <c r="SX16" s="0"/>
+      <c r="SW16"/>
+      <c r="SX16"/>
       <c r="TE16" s="7"/>
       <c r="TF16" s="7"/>
       <c r="TG16" s="7"/>
-      <c r="TH16" s="0"/>
+      <c r="TH16"/>
       <c r="TI16" s="12"/>
       <c r="TJ16" s="5"/>
       <c r="TK16" s="5"/>
       <c r="TL16" s="5"/>
       <c r="TM16" s="5"/>
-      <c r="TN16" s="0"/>
-      <c r="TO16" s="0"/>
+      <c r="TN16"/>
+      <c r="TO16"/>
       <c r="TV16" s="7"/>
       <c r="TW16" s="7"/>
       <c r="TX16" s="7"/>
-      <c r="TY16" s="0"/>
+      <c r="TY16"/>
       <c r="TZ16" s="12"/>
       <c r="UA16" s="5"/>
       <c r="UB16" s="5"/>
       <c r="UC16" s="5"/>
       <c r="UD16" s="5"/>
-      <c r="UE16" s="0"/>
-      <c r="UF16" s="0"/>
+      <c r="UE16"/>
+      <c r="UF16"/>
       <c r="UM16" s="7"/>
       <c r="UN16" s="7"/>
       <c r="UO16" s="7"/>
-      <c r="UP16" s="0"/>
+      <c r="UP16"/>
       <c r="UQ16" s="12"/>
       <c r="UR16" s="5"/>
       <c r="US16" s="5"/>
       <c r="UT16" s="5"/>
       <c r="UU16" s="5"/>
-      <c r="UV16" s="0"/>
-      <c r="UW16" s="0"/>
+      <c r="UV16"/>
+      <c r="UW16"/>
       <c r="VD16" s="7"/>
       <c r="VE16" s="7"/>
       <c r="VF16" s="7"/>
-      <c r="VG16" s="0"/>
+      <c r="VG16"/>
       <c r="VH16" s="12"/>
       <c r="VI16" s="5"/>
       <c r="VJ16" s="5"/>
       <c r="VK16" s="5"/>
       <c r="VL16" s="5"/>
-      <c r="VM16" s="0"/>
-      <c r="VN16" s="0"/>
+      <c r="VM16"/>
+      <c r="VN16"/>
       <c r="VU16" s="7"/>
       <c r="VV16" s="7"/>
       <c r="VW16" s="7"/>
-      <c r="VX16" s="0"/>
+      <c r="VX16"/>
       <c r="VY16" s="12"/>
       <c r="VZ16" s="5"/>
       <c r="WA16" s="5"/>
       <c r="WB16" s="5"/>
       <c r="WC16" s="5"/>
-      <c r="WD16" s="0"/>
-      <c r="WE16" s="0"/>
+      <c r="WD16"/>
+      <c r="WE16"/>
       <c r="WL16" s="7"/>
       <c r="WM16" s="7"/>
       <c r="WN16" s="7"/>
-      <c r="WO16" s="0"/>
+      <c r="WO16"/>
       <c r="WP16" s="12"/>
       <c r="WQ16" s="5"/>
       <c r="WR16" s="5"/>
       <c r="WS16" s="5"/>
       <c r="WT16" s="5"/>
-      <c r="WU16" s="0"/>
-      <c r="WV16" s="0"/>
+      <c r="WU16"/>
+      <c r="WV16"/>
       <c r="XC16" s="7"/>
       <c r="XD16" s="7"/>
       <c r="XE16" s="7"/>
-      <c r="XF16" s="0"/>
+      <c r="XF16"/>
       <c r="XG16" s="12"/>
       <c r="XH16" s="5"/>
       <c r="XI16" s="5"/>
       <c r="XJ16" s="5"/>
       <c r="XK16" s="5"/>
-      <c r="XL16" s="0"/>
-      <c r="XM16" s="0"/>
+      <c r="XL16"/>
+      <c r="XM16"/>
       <c r="XT16" s="7"/>
       <c r="XU16" s="7"/>
       <c r="XV16" s="7"/>
-      <c r="XW16" s="0"/>
+      <c r="XW16"/>
       <c r="XX16" s="12"/>
       <c r="XY16" s="5"/>
       <c r="XZ16" s="5"/>
       <c r="YA16" s="5"/>
       <c r="YB16" s="5"/>
-      <c r="YC16" s="0"/>
-      <c r="YD16" s="0"/>
+      <c r="YC16"/>
+      <c r="YD16"/>
       <c r="YK16" s="7"/>
       <c r="YL16" s="7"/>
       <c r="YM16" s="7"/>
-      <c r="YN16" s="0"/>
+      <c r="YN16"/>
       <c r="YO16" s="12"/>
       <c r="YP16" s="5"/>
       <c r="YQ16" s="5"/>
       <c r="YR16" s="5"/>
       <c r="YS16" s="5"/>
-      <c r="YT16" s="0"/>
-      <c r="YU16" s="0"/>
+      <c r="YT16"/>
+      <c r="YU16"/>
       <c r="ZB16" s="7"/>
       <c r="ZC16" s="7"/>
       <c r="ZD16" s="7"/>
-      <c r="ZE16" s="0"/>
+      <c r="ZE16"/>
       <c r="ZF16" s="12"/>
       <c r="ZG16" s="5"/>
       <c r="ZH16" s="5"/>
       <c r="ZI16" s="5"/>
       <c r="ZJ16" s="5"/>
-      <c r="ZK16" s="0"/>
-      <c r="ZL16" s="0"/>
+      <c r="ZK16"/>
+      <c r="ZL16"/>
       <c r="ZS16" s="7"/>
       <c r="ZT16" s="7"/>
       <c r="ZU16" s="7"/>
-      <c r="ZV16" s="0"/>
+      <c r="ZV16"/>
       <c r="ZW16" s="12"/>
       <c r="ZX16" s="5"/>
       <c r="ZY16" s="5"/>
       <c r="ZZ16" s="5"/>
       <c r="AAA16" s="5"/>
-      <c r="AAB16" s="0"/>
-      <c r="AAC16" s="0"/>
+      <c r="AAB16"/>
+      <c r="AAC16"/>
       <c r="AAJ16" s="7"/>
       <c r="AAK16" s="7"/>
       <c r="AAL16" s="7"/>
-      <c r="AAM16" s="0"/>
+      <c r="AAM16"/>
       <c r="AAN16" s="12"/>
       <c r="AAO16" s="5"/>
       <c r="AAP16" s="5"/>
       <c r="AAQ16" s="5"/>
       <c r="AAR16" s="5"/>
-      <c r="AAS16" s="0"/>
-      <c r="AAT16" s="0"/>
+      <c r="AAS16"/>
+      <c r="AAT16"/>
       <c r="ABA16" s="7"/>
       <c r="ABB16" s="7"/>
       <c r="ABC16" s="7"/>
-      <c r="ABD16" s="0"/>
+      <c r="ABD16"/>
       <c r="ABE16" s="12"/>
       <c r="ABF16" s="5"/>
       <c r="ABG16" s="5"/>
       <c r="ABH16" s="5"/>
       <c r="ABI16" s="5"/>
-      <c r="ABJ16" s="0"/>
-      <c r="ABK16" s="0"/>
+      <c r="ABJ16"/>
+      <c r="ABK16"/>
       <c r="ABR16" s="7"/>
       <c r="ABS16" s="7"/>
       <c r="ABT16" s="7"/>
-      <c r="ABU16" s="0"/>
+      <c r="ABU16"/>
       <c r="ABV16" s="12"/>
       <c r="ABW16" s="5"/>
       <c r="ABX16" s="5"/>
       <c r="ABY16" s="5"/>
       <c r="ABZ16" s="5"/>
-      <c r="ACA16" s="0"/>
-      <c r="ACB16" s="0"/>
+      <c r="ACA16"/>
+      <c r="ACB16"/>
       <c r="ACI16" s="7"/>
       <c r="ACJ16" s="7"/>
       <c r="ACK16" s="7"/>
-      <c r="ACL16" s="0"/>
+      <c r="ACL16"/>
       <c r="ACM16" s="12"/>
       <c r="ACN16" s="5"/>
       <c r="ACO16" s="5"/>
       <c r="ACP16" s="5"/>
       <c r="ACQ16" s="5"/>
-      <c r="ACR16" s="0"/>
-      <c r="ACS16" s="0"/>
+      <c r="ACR16"/>
+      <c r="ACS16"/>
       <c r="ACZ16" s="7"/>
       <c r="ADA16" s="7"/>
       <c r="ADB16" s="7"/>
-      <c r="ADC16" s="0"/>
+      <c r="ADC16"/>
       <c r="ADD16" s="12"/>
       <c r="ADE16" s="5"/>
       <c r="ADF16" s="5"/>
       <c r="ADG16" s="5"/>
       <c r="ADH16" s="5"/>
-      <c r="ADI16" s="0"/>
-      <c r="ADJ16" s="0"/>
+      <c r="ADI16"/>
+      <c r="ADJ16"/>
       <c r="ADQ16" s="7"/>
       <c r="ADR16" s="7"/>
       <c r="ADS16" s="7"/>
-      <c r="ADT16" s="0"/>
+      <c r="ADT16"/>
       <c r="ADU16" s="12"/>
       <c r="ADV16" s="5"/>
       <c r="ADW16" s="5"/>
       <c r="ADX16" s="5"/>
       <c r="ADY16" s="5"/>
-      <c r="ADZ16" s="0"/>
-      <c r="AEA16" s="0"/>
+      <c r="ADZ16"/>
+      <c r="AEA16"/>
       <c r="AEH16" s="7"/>
       <c r="AEI16" s="7"/>
       <c r="AEJ16" s="7"/>
-      <c r="AEK16" s="0"/>
+      <c r="AEK16"/>
       <c r="AEL16" s="12"/>
       <c r="AEM16" s="5"/>
       <c r="AEN16" s="5"/>
       <c r="AEO16" s="5"/>
       <c r="AEP16" s="5"/>
-      <c r="AEQ16" s="0"/>
-      <c r="AER16" s="0"/>
+      <c r="AEQ16"/>
+      <c r="AER16"/>
       <c r="AEY16" s="7"/>
       <c r="AEZ16" s="7"/>
       <c r="AFA16" s="7"/>
-      <c r="AFB16" s="0"/>
+      <c r="AFB16"/>
       <c r="AFC16" s="12"/>
       <c r="AFD16" s="5"/>
       <c r="AFE16" s="5"/>
       <c r="AFF16" s="5"/>
       <c r="AFG16" s="5"/>
-      <c r="AFH16" s="0"/>
-      <c r="AFI16" s="0"/>
+      <c r="AFH16"/>
+      <c r="AFI16"/>
       <c r="AFP16" s="7"/>
       <c r="AFQ16" s="7"/>
       <c r="AFR16" s="7"/>
-      <c r="AFS16" s="0"/>
+      <c r="AFS16"/>
       <c r="AFT16" s="12"/>
       <c r="AFU16" s="5"/>
       <c r="AFV16" s="5"/>
       <c r="AFW16" s="5"/>
       <c r="AFX16" s="5"/>
-      <c r="AFY16" s="0"/>
-      <c r="AFZ16" s="0"/>
+      <c r="AFY16"/>
+      <c r="AFZ16"/>
       <c r="AGG16" s="7"/>
       <c r="AGH16" s="7"/>
       <c r="AGI16" s="7"/>
-      <c r="AGJ16" s="0"/>
+      <c r="AGJ16"/>
       <c r="AGK16" s="12"/>
       <c r="AGL16" s="5"/>
       <c r="AGM16" s="5"/>
       <c r="AGN16" s="5"/>
       <c r="AGO16" s="5"/>
-      <c r="AGP16" s="0"/>
-      <c r="AGQ16" s="0"/>
+      <c r="AGP16"/>
+      <c r="AGQ16"/>
       <c r="AGX16" s="7"/>
       <c r="AGY16" s="7"/>
       <c r="AGZ16" s="7"/>
-      <c r="AHA16" s="0"/>
+      <c r="AHA16"/>
       <c r="AHB16" s="12"/>
       <c r="AHC16" s="5"/>
       <c r="AHD16" s="5"/>
       <c r="AHE16" s="5"/>
       <c r="AHF16" s="5"/>
-      <c r="AHG16" s="0"/>
-      <c r="AHH16" s="0"/>
+      <c r="AHG16"/>
+      <c r="AHH16"/>
       <c r="AHO16" s="7"/>
       <c r="AHP16" s="7"/>
       <c r="AHQ16" s="7"/>
-      <c r="AHR16" s="0"/>
+      <c r="AHR16"/>
       <c r="AHS16" s="12"/>
       <c r="AHT16" s="5"/>
       <c r="AHU16" s="5"/>
       <c r="AHV16" s="5"/>
       <c r="AHW16" s="5"/>
-      <c r="AHX16" s="0"/>
-      <c r="AHY16" s="0"/>
+      <c r="AHX16"/>
+      <c r="AHY16"/>
       <c r="AIF16" s="7"/>
       <c r="AIG16" s="7"/>
       <c r="AIH16" s="7"/>
-      <c r="AII16" s="0"/>
+      <c r="AII16"/>
       <c r="AIJ16" s="12"/>
       <c r="AIK16" s="5"/>
       <c r="AIL16" s="5"/>
       <c r="AIM16" s="5"/>
       <c r="AIN16" s="5"/>
-      <c r="AIO16" s="0"/>
-      <c r="AIP16" s="0"/>
+      <c r="AIO16"/>
+      <c r="AIP16"/>
       <c r="AIW16" s="7"/>
       <c r="AIX16" s="7"/>
       <c r="AIY16" s="7"/>
-      <c r="AIZ16" s="0"/>
+      <c r="AIZ16"/>
       <c r="AJA16" s="12"/>
       <c r="AJB16" s="5"/>
       <c r="AJC16" s="5"/>
       <c r="AJD16" s="5"/>
       <c r="AJE16" s="5"/>
-      <c r="AJF16" s="0"/>
-      <c r="AJG16" s="0"/>
+      <c r="AJF16"/>
+      <c r="AJG16"/>
       <c r="AJN16" s="7"/>
       <c r="AJO16" s="7"/>
       <c r="AJP16" s="7"/>
-      <c r="AJQ16" s="0"/>
+      <c r="AJQ16"/>
       <c r="AJR16" s="12"/>
       <c r="AJS16" s="5"/>
       <c r="AJT16" s="5"/>
       <c r="AJU16" s="5"/>
       <c r="AJV16" s="5"/>
-      <c r="AJW16" s="0"/>
-      <c r="AJX16" s="0"/>
+      <c r="AJW16"/>
+      <c r="AJX16"/>
       <c r="AKE16" s="7"/>
       <c r="AKF16" s="7"/>
       <c r="AKG16" s="7"/>
-      <c r="AKH16" s="0"/>
+      <c r="AKH16"/>
       <c r="AKI16" s="12"/>
       <c r="AKJ16" s="5"/>
       <c r="AKK16" s="5"/>
       <c r="AKL16" s="5"/>
       <c r="AKM16" s="5"/>
-      <c r="AKN16" s="0"/>
-      <c r="AKO16" s="0"/>
+      <c r="AKN16"/>
+      <c r="AKO16"/>
       <c r="AKV16" s="7"/>
       <c r="AKW16" s="7"/>
       <c r="AKX16" s="7"/>
-      <c r="AKY16" s="0"/>
+      <c r="AKY16"/>
       <c r="AKZ16" s="12"/>
       <c r="ALA16" s="5"/>
       <c r="ALB16" s="5"/>
       <c r="ALC16" s="5"/>
       <c r="ALD16" s="5"/>
-      <c r="ALE16" s="0"/>
-      <c r="ALF16" s="0"/>
+      <c r="ALE16"/>
+      <c r="ALF16"/>
       <c r="ALM16" s="7"/>
       <c r="ALN16" s="7"/>
       <c r="ALO16" s="7"/>
-      <c r="ALP16" s="0"/>
+      <c r="ALP16"/>
       <c r="ALQ16" s="12"/>
       <c r="ALR16" s="5"/>
       <c r="ALS16" s="5"/>
       <c r="ALT16" s="5"/>
       <c r="ALU16" s="5"/>
-      <c r="ALV16" s="0"/>
-      <c r="ALW16" s="0"/>
+      <c r="ALV16"/>
+      <c r="ALW16"/>
       <c r="AMD16" s="7"/>
       <c r="AME16" s="7"/>
       <c r="AMF16" s="7"/>
-      <c r="AMG16" s="0"/>
+      <c r="AMG16"/>
       <c r="AMH16" s="12"/>
       <c r="AMI16" s="5"/>
       <c r="AMJ16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:26" ht="31.5" customHeight="1">
+      <c r="A17" t="s">
         <v>67</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2604,28 +2586,28 @@
       <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E17" s="0" t="s">
+      <c r="D17" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E17" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G17" s="0" t="n">
+      <c r="F17" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G17">
         <v>1000</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17">
         <v>600</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="8" t="n">
+      <c r="J17" s="8">
         <v>1</v>
       </c>
-      <c r="K17" s="8" t="n">
+      <c r="K17" s="8">
         <v>1</v>
       </c>
       <c r="L17" s="1" t="s">
@@ -2634,10 +2616,10 @@
       <c r="M17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N17" s="0" t="s">
+      <c r="N17" t="s">
         <v>49</v>
       </c>
-      <c r="O17" s="9" t="n">
+      <c r="O17" s="9">
         <v>45384</v>
       </c>
       <c r="P17" s="9" t="s">
@@ -2646,7 +2628,7 @@
       <c r="Q17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="R17" s="10" t="n">
+      <c r="R17" s="10">
         <v>7709577438</v>
       </c>
       <c r="S17" s="1" t="s">
@@ -2667,39 +2649,39 @@
       <c r="X17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y17" s="0" t="s">
+      <c r="Y17" t="s">
         <v>33</v>
       </c>
-      <c r="Z17" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="Z17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="31.5" customHeight="1">
+      <c r="A18" t="s">
         <v>68</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="13" t="n">
+      <c r="D18" s="13">
         <v>123456</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G18" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="F18">
+        <v>123456</v>
+      </c>
+      <c r="G18">
         <v>1000</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18">
         <v>600</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" t="s">
         <v>30</v>
       </c>
       <c r="J18" s="8" t="s">
@@ -2711,19 +2693,19 @@
       <c r="L18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N18" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O18" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P18" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q18" s="0" t="s">
+      <c r="M18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" t="s">
         <v>31</v>
       </c>
       <c r="R18" s="1" t="s">
@@ -2735,27 +2717,27 @@
       <c r="T18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U18" s="0" t="s">
+      <c r="U18" t="s">
         <v>69</v>
       </c>
-      <c r="V18" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W18" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X18" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y18" s="0" t="s">
+      <c r="V18" t="s">
+        <v>31</v>
+      </c>
+      <c r="W18" t="s">
+        <v>31</v>
+      </c>
+      <c r="X18" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y18" t="s">
         <v>33</v>
       </c>
-      <c r="Z18" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="Z18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="31.5" customHeight="1">
+      <c r="A19" t="s">
         <v>70</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2764,19 +2746,19 @@
       <c r="C19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="D19" s="5">
         <v>123456</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="5" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G19" s="0" t="n">
+      <c r="F19" s="5">
+        <v>123456</v>
+      </c>
+      <c r="G19">
         <v>1000</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19">
         <v>600</v>
       </c>
       <c r="I19" s="3" t="s">
@@ -2785,10 +2767,10 @@
       <c r="J19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="3" t="n">
+      <c r="K19" s="3">
         <v>1</v>
       </c>
-      <c r="L19" s="3" t="n">
+      <c r="L19" s="3">
         <v>1</v>
       </c>
       <c r="M19" s="3" t="s">
@@ -2813,48 +2795,48 @@
       <c r="U19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V19" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W19" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X19" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y19" s="0" t="s">
+      <c r="V19" t="s">
+        <v>31</v>
+      </c>
+      <c r="W19" t="s">
+        <v>31</v>
+      </c>
+      <c r="X19" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y19" t="s">
         <v>33</v>
       </c>
-      <c r="Z19" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="Z19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="31.5" customHeight="1">
+      <c r="A20" t="s">
         <v>72</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E20" s="0" t="s">
+      <c r="D20">
+        <v>123456</v>
+      </c>
+      <c r="E20" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G20" s="0" t="n">
+      <c r="F20">
+        <v>123456</v>
+      </c>
+      <c r="G20">
         <v>1000</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20">
         <v>600</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="I20" t="s">
         <v>30</v>
       </c>
       <c r="J20" s="8" t="s">
@@ -2866,19 +2848,19 @@
       <c r="L20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M20" s="0" t="s">
+      <c r="M20" t="s">
         <v>73</v>
       </c>
-      <c r="N20" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O20" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P20" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q20" s="0" t="s">
+      <c r="N20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" t="s">
         <v>31</v>
       </c>
       <c r="R20" s="1" t="s">
@@ -2890,51 +2872,51 @@
       <c r="T20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U20" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V20" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W20" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X20" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y20" s="0" t="s">
+      <c r="U20" t="s">
+        <v>31</v>
+      </c>
+      <c r="V20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W20" t="s">
+        <v>31</v>
+      </c>
+      <c r="X20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y20" t="s">
         <v>33</v>
       </c>
-      <c r="Z20" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="Z20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="31.5" customHeight="1">
+      <c r="A21" t="s">
         <v>74</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E21" s="0" t="s">
+      <c r="D21">
+        <v>123456</v>
+      </c>
+      <c r="E21" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G21" s="0" t="n">
+      <c r="F21">
+        <v>123456</v>
+      </c>
+      <c r="G21">
         <v>1000</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21">
         <v>600</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="I21" t="s">
         <v>30</v>
       </c>
       <c r="J21" s="8" t="s">
@@ -2946,19 +2928,19 @@
       <c r="L21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M21" s="0" t="s">
+      <c r="M21" t="s">
         <v>73</v>
       </c>
-      <c r="N21" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O21" s="14" t="n">
+      <c r="N21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="14">
         <v>45384</v>
       </c>
-      <c r="P21" s="0" t="s">
+      <c r="P21" t="s">
         <v>42</v>
       </c>
-      <c r="Q21" s="0" t="s">
+      <c r="Q21" t="s">
         <v>43</v>
       </c>
       <c r="R21" s="1" t="s">
@@ -2967,30 +2949,30 @@
       <c r="S21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T21" s="1" t="n">
+      <c r="T21" s="1">
         <v>300</v>
       </c>
-      <c r="U21" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V21" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W21" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X21" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y21" s="0" t="s">
+      <c r="U21" t="s">
+        <v>31</v>
+      </c>
+      <c r="V21" t="s">
+        <v>31</v>
+      </c>
+      <c r="W21" t="s">
+        <v>31</v>
+      </c>
+      <c r="X21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y21" t="s">
         <v>33</v>
       </c>
-      <c r="Z21" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="Z21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="32.25" customHeight="1">
+      <c r="A22" t="s">
         <v>75</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2999,28 +2981,28 @@
       <c r="C22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E22" s="0" t="s">
+      <c r="D22" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G22" s="0" t="n">
+      <c r="F22" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G22">
         <v>1000</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22">
         <v>600</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J22" s="8" t="n">
+      <c r="J22" s="8">
         <v>1</v>
       </c>
-      <c r="K22" s="8" t="n">
+      <c r="K22" s="8">
         <v>1</v>
       </c>
       <c r="L22" s="1" t="s">
@@ -3029,10 +3011,10 @@
       <c r="M22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N22" s="0" t="s">
+      <c r="N22" t="s">
         <v>49</v>
       </c>
-      <c r="O22" s="9" t="n">
+      <c r="O22" s="9">
         <v>45384</v>
       </c>
       <c r="P22" s="9" t="s">
@@ -3041,7 +3023,7 @@
       <c r="Q22" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="R22" s="10" t="n">
+      <c r="R22" s="10">
         <v>7709577438</v>
       </c>
       <c r="S22" s="1" t="s">
@@ -3050,27 +3032,27 @@
       <c r="T22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U22" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V22" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W22" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X22" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y22" s="0" t="s">
+      <c r="U22" t="s">
+        <v>31</v>
+      </c>
+      <c r="V22" t="s">
+        <v>31</v>
+      </c>
+      <c r="W22" t="s">
+        <v>31</v>
+      </c>
+      <c r="X22" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y22" t="s">
         <v>33</v>
       </c>
       <c r="Z22" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:26" ht="28.5" customHeight="1">
+      <c r="A23" t="s">
         <v>76</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -3079,28 +3061,28 @@
       <c r="C23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E23" s="0" t="s">
+      <c r="D23" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G23" s="0" t="n">
+      <c r="F23" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G23">
         <v>1000</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23">
         <v>600</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="8" t="n">
+      <c r="J23" s="8">
         <v>1</v>
       </c>
-      <c r="K23" s="8" t="n">
+      <c r="K23" s="8">
         <v>1</v>
       </c>
       <c r="L23" s="1" t="s">
@@ -3109,10 +3091,10 @@
       <c r="M23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N23" s="0" t="s">
+      <c r="N23" t="s">
         <v>49</v>
       </c>
-      <c r="O23" s="9" t="n">
+      <c r="O23" s="9">
         <v>45384</v>
       </c>
       <c r="P23" s="9" t="s">
@@ -3121,7 +3103,7 @@
       <c r="Q23" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="R23" s="10" t="n">
+      <c r="R23" s="10">
         <v>7709577438</v>
       </c>
       <c r="S23" s="1" t="s">
@@ -3130,27 +3112,27 @@
       <c r="T23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U23" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V23" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W23" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X23" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y23" s="0" t="s">
+      <c r="U23" t="s">
+        <v>31</v>
+      </c>
+      <c r="V23" t="s">
+        <v>31</v>
+      </c>
+      <c r="W23" t="s">
+        <v>31</v>
+      </c>
+      <c r="X23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y23" t="s">
         <v>33</v>
       </c>
       <c r="Z23" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:26" ht="13.8">
+      <c r="A24" t="s">
         <v>77</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -3159,28 +3141,28 @@
       <c r="C24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E24" s="0" t="s">
+      <c r="D24" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E24" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G24" s="0" t="n">
+      <c r="F24" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G24">
         <v>1000</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24">
         <v>600</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="8" t="n">
+      <c r="J24" s="8">
         <v>1</v>
       </c>
-      <c r="K24" s="8" t="n">
+      <c r="K24" s="8">
         <v>1</v>
       </c>
       <c r="L24" s="1" t="s">
@@ -3189,10 +3171,10 @@
       <c r="M24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N24" s="0" t="s">
+      <c r="N24" t="s">
         <v>49</v>
       </c>
-      <c r="O24" s="9" t="n">
+      <c r="O24" s="9">
         <v>45384</v>
       </c>
       <c r="P24" s="9" t="s">
@@ -3201,7 +3183,7 @@
       <c r="Q24" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="R24" s="10" t="n">
+      <c r="R24" s="10">
         <v>7709577438</v>
       </c>
       <c r="S24" s="1" t="s">
@@ -3210,27 +3192,27 @@
       <c r="T24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U24" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V24" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W24" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X24" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y24" s="0" t="s">
+      <c r="U24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V24" t="s">
+        <v>31</v>
+      </c>
+      <c r="W24" t="s">
+        <v>31</v>
+      </c>
+      <c r="X24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y24" t="s">
         <v>33</v>
       </c>
-      <c r="Z24" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="Z24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="13.8">
+      <c r="A25" t="s">
         <v>78</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -3239,28 +3221,28 @@
       <c r="C25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E25" s="0" t="s">
+      <c r="D25" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E25" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G25" s="0" t="n">
+      <c r="F25" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G25">
         <v>1000</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25">
         <v>600</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="8" t="n">
+      <c r="J25" s="8">
         <v>1</v>
       </c>
-      <c r="K25" s="8" t="n">
+      <c r="K25" s="8">
         <v>1</v>
       </c>
       <c r="L25" s="1" t="s">
@@ -3269,10 +3251,10 @@
       <c r="M25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N25" s="0" t="s">
+      <c r="N25" t="s">
         <v>49</v>
       </c>
-      <c r="O25" s="9" t="n">
+      <c r="O25" s="9">
         <v>45384</v>
       </c>
       <c r="P25" s="9" t="s">
@@ -3281,7 +3263,7 @@
       <c r="Q25" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="R25" s="10" t="n">
+      <c r="R25" s="10">
         <v>7709577438</v>
       </c>
       <c r="S25" s="1" t="s">
@@ -3290,27 +3272,27 @@
       <c r="T25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U25" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V25" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W25" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X25" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y25" s="0" t="s">
+      <c r="U25" t="s">
+        <v>31</v>
+      </c>
+      <c r="V25" t="s">
+        <v>31</v>
+      </c>
+      <c r="W25" t="s">
+        <v>31</v>
+      </c>
+      <c r="X25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y25" t="s">
         <v>33</v>
       </c>
-      <c r="Z25" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="Z25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="13.8">
+      <c r="A26" t="s">
         <v>79</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3319,28 +3301,28 @@
       <c r="C26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E26" s="0" t="s">
+      <c r="D26" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E26" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G26" s="0" t="n">
+      <c r="F26" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G26">
         <v>1000</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26">
         <v>600</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="8" t="n">
+      <c r="J26" s="8">
         <v>1</v>
       </c>
-      <c r="K26" s="8" t="n">
+      <c r="K26" s="8">
         <v>1</v>
       </c>
       <c r="L26" s="1" t="s">
@@ -3349,10 +3331,10 @@
       <c r="M26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N26" s="0" t="s">
+      <c r="N26" t="s">
         <v>49</v>
       </c>
-      <c r="O26" s="9" t="n">
+      <c r="O26" s="9">
         <v>45384</v>
       </c>
       <c r="P26" s="9" t="s">
@@ -3361,7 +3343,7 @@
       <c r="Q26" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="R26" s="10" t="n">
+      <c r="R26" s="10">
         <v>7709577438</v>
       </c>
       <c r="S26" s="1" t="s">
@@ -3370,27 +3352,27 @@
       <c r="T26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U26" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V26" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W26" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X26" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y26" s="0" t="s">
+      <c r="U26" t="s">
+        <v>31</v>
+      </c>
+      <c r="V26" t="s">
+        <v>31</v>
+      </c>
+      <c r="W26" t="s">
+        <v>31</v>
+      </c>
+      <c r="X26" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y26" t="s">
         <v>33</v>
       </c>
-      <c r="Z26" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="Z26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="13.8">
+      <c r="A27" t="s">
         <v>80</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -3399,28 +3381,28 @@
       <c r="C27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E27" s="0" t="s">
+      <c r="D27" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E27" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G27" s="0" t="n">
+      <c r="F27" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G27">
         <v>1000</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27">
         <v>600</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="8" t="n">
+      <c r="J27" s="8">
         <v>1</v>
       </c>
-      <c r="K27" s="8" t="n">
+      <c r="K27" s="8">
         <v>1</v>
       </c>
       <c r="L27" s="1" t="s">
@@ -3429,10 +3411,10 @@
       <c r="M27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N27" s="0" t="s">
+      <c r="N27" t="s">
         <v>49</v>
       </c>
-      <c r="O27" s="9" t="n">
+      <c r="O27" s="9">
         <v>45384</v>
       </c>
       <c r="P27" s="9" t="s">
@@ -3441,7 +3423,7 @@
       <c r="Q27" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="R27" s="10" t="n">
+      <c r="R27" s="10">
         <v>7709577438</v>
       </c>
       <c r="S27" s="1" t="s">
@@ -3450,27 +3432,27 @@
       <c r="T27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U27" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V27" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W27" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X27" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y27" s="0" t="s">
+      <c r="U27" t="s">
+        <v>31</v>
+      </c>
+      <c r="V27" t="s">
+        <v>31</v>
+      </c>
+      <c r="W27" t="s">
+        <v>31</v>
+      </c>
+      <c r="X27" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y27" t="s">
         <v>33</v>
       </c>
-      <c r="Z27" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="Z27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="48">
+      <c r="A28" t="s">
         <v>81</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -3479,28 +3461,28 @@
       <c r="C28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E28" s="0" t="s">
+      <c r="D28" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E28" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G28" s="0" t="n">
+      <c r="F28" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G28">
         <v>1000</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28">
         <v>600</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="8" t="n">
+      <c r="J28" s="8">
         <v>1</v>
       </c>
-      <c r="K28" s="8" t="n">
+      <c r="K28" s="8">
         <v>1</v>
       </c>
       <c r="L28" s="1" t="s">
@@ -3509,10 +3491,10 @@
       <c r="M28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N28" s="0" t="s">
+      <c r="N28" t="s">
         <v>49</v>
       </c>
-      <c r="O28" s="9" t="n">
+      <c r="O28" s="9">
         <v>45384</v>
       </c>
       <c r="P28" s="9" t="s">
@@ -3521,7 +3503,7 @@
       <c r="Q28" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="R28" s="10" t="n">
+      <c r="R28" s="10">
         <v>7709577438</v>
       </c>
       <c r="S28" s="1" t="s">
@@ -3530,27 +3512,27 @@
       <c r="T28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U28" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V28" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W28" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X28" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y28" s="0" t="s">
+      <c r="U28" t="s">
+        <v>31</v>
+      </c>
+      <c r="V28" t="s">
+        <v>31</v>
+      </c>
+      <c r="W28" t="s">
+        <v>31</v>
+      </c>
+      <c r="X28" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y28" t="s">
         <v>33</v>
       </c>
-      <c r="Z28" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="Z28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="13.8">
+      <c r="A29" t="s">
         <v>82</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -3559,28 +3541,28 @@
       <c r="C29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E29" s="0" t="s">
+      <c r="D29" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E29" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G29" s="0" t="n">
+      <c r="F29" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G29">
         <v>1000</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29">
         <v>600</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J29" s="8" t="n">
+      <c r="J29" s="8">
         <v>1</v>
       </c>
-      <c r="K29" s="8" t="n">
+      <c r="K29" s="8">
         <v>1</v>
       </c>
       <c r="L29" s="1" t="s">
@@ -3589,10 +3571,10 @@
       <c r="M29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N29" s="0" t="s">
+      <c r="N29" t="s">
         <v>49</v>
       </c>
-      <c r="O29" s="9" t="n">
+      <c r="O29" s="9">
         <v>45384</v>
       </c>
       <c r="P29" s="9" t="s">
@@ -3601,7 +3583,7 @@
       <c r="Q29" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="R29" s="10" t="n">
+      <c r="R29" s="10">
         <v>7709577438</v>
       </c>
       <c r="S29" s="1" t="s">
@@ -3610,27 +3592,27 @@
       <c r="T29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U29" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V29" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W29" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X29" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y29" s="0" t="s">
+      <c r="U29" t="s">
+        <v>31</v>
+      </c>
+      <c r="V29" t="s">
+        <v>31</v>
+      </c>
+      <c r="W29" t="s">
+        <v>31</v>
+      </c>
+      <c r="X29" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y29" t="s">
         <v>33</v>
       </c>
-      <c r="Z29" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="Z29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="13.8">
+      <c r="A30" t="s">
         <v>83</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -3639,28 +3621,28 @@
       <c r="C30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E30" s="0" t="s">
+      <c r="D30" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E30" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G30" s="0" t="n">
+      <c r="F30" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G30">
         <v>1000</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30">
         <v>600</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J30" s="8" t="n">
+      <c r="J30" s="8">
         <v>1</v>
       </c>
-      <c r="K30" s="8" t="n">
+      <c r="K30" s="8">
         <v>1</v>
       </c>
       <c r="L30" s="1" t="s">
@@ -3669,10 +3651,10 @@
       <c r="M30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N30" s="0" t="s">
+      <c r="N30" t="s">
         <v>49</v>
       </c>
-      <c r="O30" s="9" t="n">
+      <c r="O30" s="9">
         <v>45384</v>
       </c>
       <c r="P30" s="9" t="s">
@@ -3681,7 +3663,7 @@
       <c r="Q30" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="R30" s="10" t="n">
+      <c r="R30" s="10">
         <v>7709577438</v>
       </c>
       <c r="S30" s="1" t="s">
@@ -3690,26 +3672,26 @@
       <c r="T30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U30" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V30" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W30" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X30" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y30" s="0" t="s">
+      <c r="U30" t="s">
+        <v>31</v>
+      </c>
+      <c r="V30" t="s">
+        <v>31</v>
+      </c>
+      <c r="W30" t="s">
+        <v>31</v>
+      </c>
+      <c r="X30" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y30" t="s">
         <v>33</v>
       </c>
-      <c r="Z30" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="35.4">
       <c r="A31" s="4" t="s">
         <v>84</v>
       </c>
@@ -3719,19 +3701,19 @@
       <c r="C31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="4">
         <v>123456</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="4" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G31" s="4" t="n">
+      <c r="F31" s="4">
+        <v>123456</v>
+      </c>
+      <c r="G31" s="4">
         <v>1000</v>
       </c>
-      <c r="H31" s="4" t="n">
+      <c r="H31" s="4">
         <v>600</v>
       </c>
       <c r="I31" s="4" t="s">
@@ -3740,10 +3722,10 @@
       <c r="J31" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K31" s="3" t="n">
+      <c r="K31" s="3">
         <v>1</v>
       </c>
-      <c r="L31" s="3" t="n">
+      <c r="L31" s="3">
         <v>2</v>
       </c>
       <c r="M31" s="4" t="s">
@@ -3759,7 +3741,7 @@
       <c r="Q31" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="R31" s="10" t="n">
+      <c r="R31" s="10">
         <v>7709577438</v>
       </c>
       <c r="S31" s="1" t="s">
@@ -3768,51 +3750,51 @@
       <c r="T31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U31" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V31" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W31" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X31" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y31" s="0" t="s">
+      <c r="U31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V31" t="s">
+        <v>31</v>
+      </c>
+      <c r="W31" t="s">
+        <v>31</v>
+      </c>
+      <c r="X31" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y31" t="s">
         <v>33</v>
       </c>
-      <c r="Z31" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="Z31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="13.8">
+      <c r="A32" t="s">
         <v>87</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E32" s="0" t="s">
+      <c r="D32">
+        <v>123456</v>
+      </c>
+      <c r="E32" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G32" s="0" t="n">
+      <c r="F32">
+        <v>123456</v>
+      </c>
+      <c r="G32">
         <v>1000</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="H32">
         <v>600</v>
       </c>
-      <c r="I32" s="0" t="s">
+      <c r="I32" t="s">
         <v>30</v>
       </c>
       <c r="J32" s="8" t="s">
@@ -3824,51 +3806,51 @@
       <c r="L32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M32" s="0" t="s">
+      <c r="M32" t="s">
         <v>73</v>
       </c>
-      <c r="N32" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O32" s="14" t="n">
+      <c r="N32" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" s="14">
         <v>45384</v>
       </c>
-      <c r="P32" s="0" t="s">
+      <c r="P32" t="s">
         <v>42</v>
       </c>
-      <c r="Q32" s="0" t="s">
+      <c r="Q32" t="s">
         <v>43</v>
       </c>
-      <c r="R32" s="10" t="n">
+      <c r="R32" s="10">
         <v>7709577438</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T32" s="1" t="n">
+      <c r="T32" s="1">
         <v>300</v>
       </c>
-      <c r="U32" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V32" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W32" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X32" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y32" s="0" t="s">
+      <c r="U32" t="s">
+        <v>31</v>
+      </c>
+      <c r="V32" t="s">
+        <v>31</v>
+      </c>
+      <c r="W32" t="s">
+        <v>31</v>
+      </c>
+      <c r="X32" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y32" t="s">
         <v>33</v>
       </c>
-      <c r="Z32" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="Z32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="13.8">
+      <c r="A33" t="s">
         <v>88</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3877,28 +3859,28 @@
       <c r="C33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E33" s="0" t="s">
+      <c r="D33" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E33" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G33" s="0" t="n">
+      <c r="F33" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G33">
         <v>1000</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="H33">
         <v>600</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J33" s="8" t="n">
+      <c r="J33" s="8">
         <v>1</v>
       </c>
-      <c r="K33" s="8" t="n">
+      <c r="K33" s="8">
         <v>1</v>
       </c>
       <c r="L33" s="1" t="s">
@@ -3907,10 +3889,10 @@
       <c r="M33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N33" s="0" t="s">
+      <c r="N33" t="s">
         <v>49</v>
       </c>
-      <c r="O33" s="9" t="n">
+      <c r="O33" s="9">
         <v>45384</v>
       </c>
       <c r="P33" s="9" t="s">
@@ -3919,7 +3901,7 @@
       <c r="Q33" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="R33" s="10" t="n">
+      <c r="R33" s="10">
         <v>7709577438</v>
       </c>
       <c r="S33" s="1" t="s">
@@ -3928,27 +3910,27 @@
       <c r="T33" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U33" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V33" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W33" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X33" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y33" s="0" t="s">
+      <c r="U33" t="s">
+        <v>31</v>
+      </c>
+      <c r="V33" t="s">
+        <v>31</v>
+      </c>
+      <c r="W33" t="s">
+        <v>31</v>
+      </c>
+      <c r="X33" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y33" t="s">
         <v>33</v>
       </c>
-      <c r="Z33" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="Z33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="13.8">
+      <c r="A34" t="s">
         <v>91</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -3957,19 +3939,19 @@
       <c r="C34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E34" s="0" t="s">
+      <c r="D34" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E34" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G34" s="0" t="n">
+      <c r="F34" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G34">
         <v>1000</v>
       </c>
-      <c r="H34" s="0" t="n">
+      <c r="H34">
         <v>600</v>
       </c>
       <c r="I34" s="1" t="s">
@@ -4025,8 +4007,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:26" ht="13.8">
+      <c r="A35" t="s">
         <v>92</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -4035,28 +4017,28 @@
       <c r="C35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E35" s="0" t="s">
+      <c r="D35" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E35" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G35" s="0" t="n">
+      <c r="F35" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G35">
         <v>1000</v>
       </c>
-      <c r="H35" s="0" t="n">
+      <c r="H35">
         <v>600</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J35" s="8" t="n">
+      <c r="J35" s="8">
         <v>1</v>
       </c>
-      <c r="K35" s="8" t="n">
+      <c r="K35" s="8">
         <v>1</v>
       </c>
       <c r="L35" s="1" t="s">
@@ -4065,10 +4047,10 @@
       <c r="M35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N35" s="0" t="s">
+      <c r="N35" t="s">
         <v>49</v>
       </c>
-      <c r="O35" s="9" t="n">
+      <c r="O35" s="9">
         <v>45384</v>
       </c>
       <c r="P35" s="9" t="s">
@@ -4077,7 +4059,7 @@
       <c r="Q35" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="R35" s="10" t="n">
+      <c r="R35" s="10">
         <v>7709577438</v>
       </c>
       <c r="S35" s="1" t="s">
@@ -4098,15 +4080,15 @@
       <c r="X35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y35" s="0" t="s">
+      <c r="Y35" t="s">
         <v>33</v>
       </c>
       <c r="Z35" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:26" ht="13.8">
+      <c r="A36" t="s">
         <v>93</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -4115,19 +4097,19 @@
       <c r="C36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E36" s="0" t="s">
+      <c r="D36" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E36" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G36" s="0" t="n">
+      <c r="F36" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G36">
         <v>1000</v>
       </c>
-      <c r="H36" s="0" t="n">
+      <c r="H36">
         <v>600</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -4145,10 +4127,10 @@
       <c r="M36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N36" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O36" s="9" t="n">
+      <c r="N36" t="s">
+        <v>31</v>
+      </c>
+      <c r="O36" s="9">
         <v>45384</v>
       </c>
       <c r="P36" s="9" t="s">
@@ -4157,57 +4139,57 @@
       <c r="Q36" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="R36" s="10" t="n">
+      <c r="R36" s="10">
         <v>7709577438</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T36" s="1" t="n">
+      <c r="T36" s="1">
         <v>300</v>
       </c>
-      <c r="U36" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V36" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W36" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X36" s="0" t="s">
+      <c r="U36" t="s">
+        <v>31</v>
+      </c>
+      <c r="V36" t="s">
+        <v>31</v>
+      </c>
+      <c r="W36" t="s">
+        <v>31</v>
+      </c>
+      <c r="X36" t="s">
         <v>94</v>
       </c>
-      <c r="Y36" s="0" t="s">
+      <c r="Y36" t="s">
         <v>33</v>
       </c>
-      <c r="Z36" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="Z36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="13.8">
+      <c r="A37" t="s">
         <v>95</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E37" s="0" t="s">
+      <c r="D37">
+        <v>123456</v>
+      </c>
+      <c r="E37" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G37" s="0" t="n">
+      <c r="F37">
+        <v>123456</v>
+      </c>
+      <c r="G37">
         <v>1000</v>
       </c>
-      <c r="H37" s="0" t="n">
+      <c r="H37">
         <v>600</v>
       </c>
       <c r="I37" s="1" t="s">
@@ -4222,72 +4204,72 @@
       <c r="L37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M37" s="0" t="s">
+      <c r="M37" t="s">
         <v>96</v>
       </c>
-      <c r="N37" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O37" s="14" t="n">
+      <c r="N37" t="s">
+        <v>31</v>
+      </c>
+      <c r="O37" s="14">
         <v>45384</v>
       </c>
-      <c r="P37" s="0" t="s">
+      <c r="P37" t="s">
         <v>42</v>
       </c>
-      <c r="Q37" s="0" t="s">
+      <c r="Q37" t="s">
         <v>43</v>
       </c>
-      <c r="R37" s="10" t="n">
+      <c r="R37" s="10">
         <v>7709577438</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T37" s="1" t="n">
+      <c r="T37" s="1">
         <v>300</v>
       </c>
-      <c r="U37" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V37" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W37" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X37" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y37" s="0" t="s">
+      <c r="U37" t="s">
+        <v>31</v>
+      </c>
+      <c r="V37" t="s">
+        <v>31</v>
+      </c>
+      <c r="W37" t="s">
+        <v>31</v>
+      </c>
+      <c r="X37" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y37" t="s">
         <v>33</v>
       </c>
-      <c r="Z37" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="Z37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="13.8">
+      <c r="A38" t="s">
         <v>97</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E38" s="0" t="s">
+      <c r="D38">
+        <v>123456</v>
+      </c>
+      <c r="E38" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G38" s="0" t="n">
+      <c r="F38">
+        <v>123456</v>
+      </c>
+      <c r="G38">
         <v>1000</v>
       </c>
-      <c r="H38" s="0" t="n">
+      <c r="H38">
         <v>600</v>
       </c>
       <c r="I38" s="1" t="s">
@@ -4302,50 +4284,50 @@
       <c r="L38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M38" s="0" t="s">
+      <c r="M38" t="s">
         <v>96</v>
       </c>
-      <c r="N38" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O38" s="14" t="n">
+      <c r="N38" t="s">
+        <v>31</v>
+      </c>
+      <c r="O38" s="14">
         <v>45384</v>
       </c>
-      <c r="P38" s="0" t="s">
+      <c r="P38" t="s">
         <v>42</v>
       </c>
-      <c r="Q38" s="0" t="s">
+      <c r="Q38" t="s">
         <v>43</v>
       </c>
-      <c r="R38" s="10" t="n">
+      <c r="R38" s="10">
         <v>7709577438</v>
       </c>
       <c r="S38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T38" s="1" t="n">
+      <c r="T38" s="1">
         <v>300</v>
       </c>
-      <c r="U38" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V38" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W38" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X38" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y38" s="0" t="s">
+      <c r="U38" t="s">
+        <v>31</v>
+      </c>
+      <c r="V38" t="s">
+        <v>31</v>
+      </c>
+      <c r="W38" t="s">
+        <v>31</v>
+      </c>
+      <c r="X38" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y38" t="s">
         <v>33</v>
       </c>
-      <c r="Z38" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="35.4">
       <c r="A39" s="4" t="s">
         <v>98</v>
       </c>
@@ -4355,19 +4337,19 @@
       <c r="C39" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="4" t="n">
+      <c r="D39" s="4">
         <v>123456</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F39" s="4" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G39" s="4" t="n">
+      <c r="F39" s="4">
+        <v>123456</v>
+      </c>
+      <c r="G39" s="4">
         <v>1000</v>
       </c>
-      <c r="H39" s="4" t="n">
+      <c r="H39" s="4">
         <v>600</v>
       </c>
       <c r="I39" s="4" t="s">
@@ -4376,10 +4358,10 @@
       <c r="J39" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K39" s="3" t="n">
+      <c r="K39" s="3">
         <v>1</v>
       </c>
-      <c r="L39" s="3" t="n">
+      <c r="L39" s="3">
         <v>2</v>
       </c>
       <c r="M39" s="4" t="s">
@@ -4416,15 +4398,15 @@
       <c r="X39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y39" s="0" t="s">
+      <c r="Y39" t="s">
         <v>33</v>
       </c>
-      <c r="Z39" s="0" t="s">
+      <c r="Z39" t="s">
         <v>31</v>
       </c>
       <c r="AA39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:27" ht="35.4">
       <c r="A40" s="4" t="s">
         <v>99</v>
       </c>
@@ -4434,19 +4416,19 @@
       <c r="C40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="4" t="n">
+      <c r="D40" s="4">
         <v>123456</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F40" s="4" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G40" s="4" t="n">
+      <c r="F40" s="4">
+        <v>123456</v>
+      </c>
+      <c r="G40" s="4">
         <v>1000</v>
       </c>
-      <c r="H40" s="4" t="n">
+      <c r="H40" s="4">
         <v>600</v>
       </c>
       <c r="I40" s="4" t="s">
@@ -4455,10 +4437,10 @@
       <c r="J40" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K40" s="3" t="n">
+      <c r="K40" s="3">
         <v>1</v>
       </c>
-      <c r="L40" s="3" t="n">
+      <c r="L40" s="3">
         <v>2</v>
       </c>
       <c r="M40" s="4" t="s">
@@ -4495,15 +4477,15 @@
       <c r="X40" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y40" s="0" t="s">
+      <c r="Y40" t="s">
         <v>33</v>
       </c>
-      <c r="Z40" s="0" t="s">
+      <c r="Z40" t="s">
         <v>31</v>
       </c>
       <c r="AA40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:27" ht="35.4">
       <c r="A41" s="4" t="s">
         <v>100</v>
       </c>
@@ -4513,19 +4495,19 @@
       <c r="C41" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="4" t="n">
+      <c r="D41" s="4">
         <v>123456</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F41" s="4" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G41" s="4" t="n">
+      <c r="F41" s="4">
+        <v>123456</v>
+      </c>
+      <c r="G41" s="4">
         <v>1000</v>
       </c>
-      <c r="H41" s="4" t="n">
+      <c r="H41" s="4">
         <v>600</v>
       </c>
       <c r="I41" s="4" t="s">
@@ -4534,10 +4516,10 @@
       <c r="J41" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K41" s="3" t="n">
+      <c r="K41" s="3">
         <v>1</v>
       </c>
-      <c r="L41" s="3" t="n">
+      <c r="L41" s="3">
         <v>2</v>
       </c>
       <c r="M41" s="4" t="s">
@@ -4574,40 +4556,40 @@
       <c r="X41" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y41" s="0" t="s">
+      <c r="Y41" t="s">
         <v>33</v>
       </c>
-      <c r="Z41" s="0" t="s">
+      <c r="Z41" t="s">
         <v>31</v>
       </c>
       <c r="AA41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:26" ht="13.8">
+      <c r="A42" t="s">
         <v>101</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E42" s="0" t="s">
+      <c r="D42">
+        <v>123456</v>
+      </c>
+      <c r="E42" t="s">
         <v>36</v>
       </c>
-      <c r="F42" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G42" s="0" t="n">
+      <c r="F42">
+        <v>123456</v>
+      </c>
+      <c r="G42">
         <v>1000</v>
       </c>
-      <c r="H42" s="0" t="n">
+      <c r="H42">
         <v>600</v>
       </c>
-      <c r="I42" s="0" t="s">
+      <c r="I42" t="s">
         <v>30</v>
       </c>
       <c r="J42" s="8" t="s">
@@ -4619,19 +4601,19 @@
       <c r="L42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M42" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N42" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O42" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P42" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q42" s="0" t="s">
+      <c r="M42" t="s">
+        <v>31</v>
+      </c>
+      <c r="N42" t="s">
+        <v>31</v>
+      </c>
+      <c r="O42" t="s">
+        <v>31</v>
+      </c>
+      <c r="P42" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q42" t="s">
         <v>31</v>
       </c>
       <c r="S42" s="1" t="s">
@@ -4640,51 +4622,51 @@
       <c r="T42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U42" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V42" s="0" t="s">
+      <c r="U42" t="s">
+        <v>31</v>
+      </c>
+      <c r="V42" t="s">
         <v>102</v>
       </c>
-      <c r="W42" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X42" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y42" s="0" t="s">
+      <c r="W42" t="s">
+        <v>31</v>
+      </c>
+      <c r="X42" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y42" t="s">
         <v>33</v>
       </c>
-      <c r="Z42" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="Z42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="13.8">
+      <c r="A43" t="s">
         <v>103</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E43" s="0" t="s">
+      <c r="D43">
+        <v>123456</v>
+      </c>
+      <c r="E43" t="s">
         <v>36</v>
       </c>
-      <c r="F43" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G43" s="0" t="n">
+      <c r="F43">
+        <v>123456</v>
+      </c>
+      <c r="G43">
         <v>1000</v>
       </c>
-      <c r="H43" s="0" t="n">
+      <c r="H43">
         <v>600</v>
       </c>
-      <c r="I43" s="0" t="s">
+      <c r="I43" t="s">
         <v>30</v>
       </c>
       <c r="J43" s="8" t="s">
@@ -4696,19 +4678,19 @@
       <c r="L43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M43" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N43" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O43" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P43" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q43" s="0" t="s">
+      <c r="M43" t="s">
+        <v>31</v>
+      </c>
+      <c r="N43" t="s">
+        <v>31</v>
+      </c>
+      <c r="O43" t="s">
+        <v>31</v>
+      </c>
+      <c r="P43" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q43" t="s">
         <v>31</v>
       </c>
       <c r="S43" s="1" t="s">
@@ -4717,51 +4699,51 @@
       <c r="T43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U43" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V43" s="0" t="s">
+      <c r="U43" t="s">
+        <v>31</v>
+      </c>
+      <c r="V43" t="s">
         <v>104</v>
       </c>
-      <c r="W43" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X43" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y43" s="0" t="s">
+      <c r="W43" t="s">
+        <v>31</v>
+      </c>
+      <c r="X43" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y43" t="s">
         <v>33</v>
       </c>
-      <c r="Z43" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="Z43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" ht="13.8">
+      <c r="A44" t="s">
         <v>105</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E44" s="0" t="s">
+      <c r="D44">
+        <v>123456</v>
+      </c>
+      <c r="E44" t="s">
         <v>36</v>
       </c>
-      <c r="F44" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G44" s="0" t="n">
+      <c r="F44">
+        <v>123456</v>
+      </c>
+      <c r="G44">
         <v>1000</v>
       </c>
-      <c r="H44" s="0" t="n">
+      <c r="H44">
         <v>600</v>
       </c>
-      <c r="I44" s="0" t="s">
+      <c r="I44" t="s">
         <v>30</v>
       </c>
       <c r="J44" s="8" t="s">
@@ -4773,19 +4755,19 @@
       <c r="L44" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M44" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N44" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O44" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P44" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q44" s="0" t="s">
+      <c r="M44" t="s">
+        <v>31</v>
+      </c>
+      <c r="N44" t="s">
+        <v>31</v>
+      </c>
+      <c r="O44" t="s">
+        <v>31</v>
+      </c>
+      <c r="P44" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q44" t="s">
         <v>31</v>
       </c>
       <c r="S44" s="1" t="s">
@@ -4794,51 +4776,51 @@
       <c r="T44" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U44" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V44" s="0" t="s">
+      <c r="U44" t="s">
+        <v>31</v>
+      </c>
+      <c r="V44" t="s">
         <v>32</v>
       </c>
-      <c r="W44" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X44" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y44" s="0" t="s">
+      <c r="W44" t="s">
+        <v>31</v>
+      </c>
+      <c r="X44" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y44" t="s">
         <v>33</v>
       </c>
-      <c r="Z44" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="Z44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" ht="13.8">
+      <c r="A45" t="s">
         <v>106</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E45" s="0" t="s">
+      <c r="D45">
+        <v>123456</v>
+      </c>
+      <c r="E45" t="s">
         <v>36</v>
       </c>
-      <c r="F45" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G45" s="0" t="n">
+      <c r="F45">
+        <v>123456</v>
+      </c>
+      <c r="G45">
         <v>1000</v>
       </c>
-      <c r="H45" s="0" t="n">
+      <c r="H45">
         <v>600</v>
       </c>
-      <c r="I45" s="0" t="s">
+      <c r="I45" t="s">
         <v>30</v>
       </c>
       <c r="J45" s="8" t="s">
@@ -4850,19 +4832,19 @@
       <c r="L45" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M45" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N45" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O45" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P45" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q45" s="0" t="s">
+      <c r="M45" t="s">
+        <v>31</v>
+      </c>
+      <c r="N45" t="s">
+        <v>31</v>
+      </c>
+      <c r="O45" t="s">
+        <v>31</v>
+      </c>
+      <c r="P45" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q45" t="s">
         <v>31</v>
       </c>
       <c r="S45" s="1" t="s">
@@ -4871,51 +4853,51 @@
       <c r="T45" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U45" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V45" s="0" t="s">
+      <c r="U45" t="s">
+        <v>31</v>
+      </c>
+      <c r="V45" t="s">
         <v>32</v>
       </c>
-      <c r="W45" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X45" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y45" s="0" t="s">
+      <c r="W45" t="s">
+        <v>31</v>
+      </c>
+      <c r="X45" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y45" t="s">
         <v>33</v>
       </c>
-      <c r="Z45" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="Z45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="13.8">
+      <c r="A46" t="s">
         <v>107</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E46" s="0" t="s">
+      <c r="D46">
+        <v>123456</v>
+      </c>
+      <c r="E46" t="s">
         <v>36</v>
       </c>
-      <c r="F46" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G46" s="0" t="n">
+      <c r="F46">
+        <v>123456</v>
+      </c>
+      <c r="G46">
         <v>1000</v>
       </c>
-      <c r="H46" s="0" t="n">
+      <c r="H46">
         <v>600</v>
       </c>
-      <c r="I46" s="0" t="s">
+      <c r="I46" t="s">
         <v>30</v>
       </c>
       <c r="J46" s="8" t="s">
@@ -4927,19 +4909,19 @@
       <c r="L46" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M46" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N46" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O46" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P46" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q46" s="0" t="s">
+      <c r="M46" t="s">
+        <v>31</v>
+      </c>
+      <c r="N46" t="s">
+        <v>31</v>
+      </c>
+      <c r="O46" t="s">
+        <v>31</v>
+      </c>
+      <c r="P46" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q46" t="s">
         <v>31</v>
       </c>
       <c r="S46" s="1" t="s">
@@ -4948,51 +4930,51 @@
       <c r="T46" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U46" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V46" s="0" t="s">
+      <c r="U46" t="s">
+        <v>31</v>
+      </c>
+      <c r="V46" t="s">
         <v>32</v>
       </c>
-      <c r="W46" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X46" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y46" s="0" t="s">
+      <c r="W46" t="s">
+        <v>31</v>
+      </c>
+      <c r="X46" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y46" t="s">
         <v>33</v>
       </c>
-      <c r="Z46" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="Z46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="13.8">
+      <c r="A47" t="s">
         <v>108</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E47" s="0" t="s">
+      <c r="D47">
+        <v>123456</v>
+      </c>
+      <c r="E47" t="s">
         <v>36</v>
       </c>
-      <c r="F47" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G47" s="0" t="n">
+      <c r="F47">
+        <v>123456</v>
+      </c>
+      <c r="G47">
         <v>1000</v>
       </c>
-      <c r="H47" s="0" t="n">
+      <c r="H47">
         <v>600</v>
       </c>
-      <c r="I47" s="0" t="s">
+      <c r="I47" t="s">
         <v>30</v>
       </c>
       <c r="J47" s="8" t="s">
@@ -5004,19 +4986,19 @@
       <c r="L47" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M47" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N47" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O47" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P47" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q47" s="0" t="s">
+      <c r="M47" t="s">
+        <v>31</v>
+      </c>
+      <c r="N47" t="s">
+        <v>31</v>
+      </c>
+      <c r="O47" t="s">
+        <v>31</v>
+      </c>
+      <c r="P47" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q47" t="s">
         <v>31</v>
       </c>
       <c r="S47" s="1" t="s">
@@ -5025,51 +5007,51 @@
       <c r="T47" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U47" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V47" s="0" t="s">
+      <c r="U47" t="s">
+        <v>31</v>
+      </c>
+      <c r="V47" t="s">
         <v>102</v>
       </c>
-      <c r="W47" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X47" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y47" s="0" t="s">
+      <c r="W47" t="s">
+        <v>31</v>
+      </c>
+      <c r="X47" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y47" t="s">
         <v>33</v>
       </c>
-      <c r="Z47" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="Z47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="13.8">
+      <c r="A48" t="s">
         <v>109</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E48" s="0" t="s">
+      <c r="D48">
+        <v>123456</v>
+      </c>
+      <c r="E48" t="s">
         <v>36</v>
       </c>
-      <c r="F48" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G48" s="0" t="n">
+      <c r="F48">
+        <v>123456</v>
+      </c>
+      <c r="G48">
         <v>1000</v>
       </c>
-      <c r="H48" s="0" t="n">
+      <c r="H48">
         <v>600</v>
       </c>
-      <c r="I48" s="0" t="s">
+      <c r="I48" t="s">
         <v>30</v>
       </c>
       <c r="J48" s="8" t="s">
@@ -5081,19 +5063,19 @@
       <c r="L48" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M48" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N48" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O48" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P48" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q48" s="0" t="s">
+      <c r="M48" t="s">
+        <v>31</v>
+      </c>
+      <c r="N48" t="s">
+        <v>31</v>
+      </c>
+      <c r="O48" t="s">
+        <v>31</v>
+      </c>
+      <c r="P48" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q48" t="s">
         <v>31</v>
       </c>
       <c r="S48" s="1" t="s">
@@ -5102,51 +5084,51 @@
       <c r="T48" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U48" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V48" s="0" t="s">
+      <c r="U48" t="s">
+        <v>31</v>
+      </c>
+      <c r="V48" t="s">
         <v>102</v>
       </c>
-      <c r="W48" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X48" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y48" s="0" t="s">
+      <c r="W48" t="s">
+        <v>31</v>
+      </c>
+      <c r="X48" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y48" t="s">
         <v>33</v>
       </c>
-      <c r="Z48" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="Z48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="13.8">
+      <c r="A49" t="s">
         <v>110</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E49" s="0" t="s">
+      <c r="D49">
+        <v>123456</v>
+      </c>
+      <c r="E49" t="s">
         <v>36</v>
       </c>
-      <c r="F49" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G49" s="0" t="n">
+      <c r="F49">
+        <v>123456</v>
+      </c>
+      <c r="G49">
         <v>1000</v>
       </c>
-      <c r="H49" s="0" t="n">
+      <c r="H49">
         <v>600</v>
       </c>
-      <c r="I49" s="0" t="s">
+      <c r="I49" t="s">
         <v>30</v>
       </c>
       <c r="J49" s="1" t="s">
@@ -5158,19 +5140,19 @@
       <c r="L49" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M49" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N49" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O49" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P49" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q49" s="0" t="s">
+      <c r="M49" t="s">
+        <v>31</v>
+      </c>
+      <c r="N49" t="s">
+        <v>31</v>
+      </c>
+      <c r="O49" t="s">
+        <v>31</v>
+      </c>
+      <c r="P49" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q49" t="s">
         <v>31</v>
       </c>
       <c r="S49" s="1" t="s">
@@ -5179,51 +5161,51 @@
       <c r="T49" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U49" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V49" s="0" t="s">
+      <c r="U49" t="s">
+        <v>31</v>
+      </c>
+      <c r="V49" t="s">
         <v>102</v>
       </c>
-      <c r="W49" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X49" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y49" s="0" t="s">
+      <c r="W49" t="s">
+        <v>31</v>
+      </c>
+      <c r="X49" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y49" t="s">
         <v>33</v>
       </c>
-      <c r="Z49" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="Z49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" ht="13.8">
+      <c r="A50" t="s">
         <v>111</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" t="s">
         <v>28</v>
       </c>
-      <c r="D50" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E50" s="0" t="s">
+      <c r="D50">
+        <v>123456</v>
+      </c>
+      <c r="E50" t="s">
         <v>36</v>
       </c>
-      <c r="F50" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G50" s="0" t="n">
+      <c r="F50">
+        <v>123456</v>
+      </c>
+      <c r="G50">
         <v>1000</v>
       </c>
-      <c r="H50" s="0" t="n">
+      <c r="H50">
         <v>600</v>
       </c>
-      <c r="I50" s="0" t="s">
+      <c r="I50" t="s">
         <v>30</v>
       </c>
       <c r="J50" s="1" t="s">
@@ -5235,19 +5217,19 @@
       <c r="L50" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M50" s="0" t="s">
+      <c r="M50" t="s">
         <v>73</v>
       </c>
-      <c r="N50" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O50" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P50" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q50" s="0" t="s">
+      <c r="N50" t="s">
+        <v>31</v>
+      </c>
+      <c r="O50" t="s">
+        <v>31</v>
+      </c>
+      <c r="P50" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q50" t="s">
         <v>31</v>
       </c>
       <c r="S50" s="1" t="s">
@@ -5256,51 +5238,51 @@
       <c r="T50" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U50" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V50" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W50" s="0" t="n">
+      <c r="U50" t="s">
+        <v>31</v>
+      </c>
+      <c r="V50" t="s">
+        <v>31</v>
+      </c>
+      <c r="W50">
         <v>5</v>
       </c>
-      <c r="X50" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y50" s="0" t="s">
+      <c r="X50" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y50" t="s">
         <v>33</v>
       </c>
-      <c r="Z50" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="Z50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" ht="13.8">
+      <c r="A51" t="s">
         <v>112</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E51" s="0" t="s">
+      <c r="D51">
+        <v>123456</v>
+      </c>
+      <c r="E51" t="s">
         <v>36</v>
       </c>
-      <c r="F51" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G51" s="0" t="n">
+      <c r="F51">
+        <v>123456</v>
+      </c>
+      <c r="G51">
         <v>1000</v>
       </c>
-      <c r="H51" s="0" t="n">
+      <c r="H51">
         <v>600</v>
       </c>
-      <c r="I51" s="0" t="s">
+      <c r="I51" t="s">
         <v>30</v>
       </c>
       <c r="J51" s="1" t="s">
@@ -5312,19 +5294,19 @@
       <c r="L51" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M51" s="0" t="s">
+      <c r="M51" t="s">
         <v>73</v>
       </c>
-      <c r="N51" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O51" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P51" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q51" s="0" t="s">
+      <c r="N51" t="s">
+        <v>31</v>
+      </c>
+      <c r="O51" t="s">
+        <v>31</v>
+      </c>
+      <c r="P51" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q51" t="s">
         <v>31</v>
       </c>
       <c r="S51" s="1" t="s">
@@ -5333,51 +5315,51 @@
       <c r="T51" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U51" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V51" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W51" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="X51" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y51" s="0" t="s">
+      <c r="U51" t="s">
+        <v>31</v>
+      </c>
+      <c r="V51" t="s">
+        <v>31</v>
+      </c>
+      <c r="W51">
+        <v>600</v>
+      </c>
+      <c r="X51" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y51" t="s">
         <v>33</v>
       </c>
-      <c r="Z51" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="Z51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" ht="13.8">
+      <c r="A52" t="s">
         <v>113</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E52" s="0" t="s">
+      <c r="D52">
+        <v>123456</v>
+      </c>
+      <c r="E52" t="s">
         <v>36</v>
       </c>
-      <c r="F52" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G52" s="0" t="n">
+      <c r="F52">
+        <v>123456</v>
+      </c>
+      <c r="G52">
         <v>1000</v>
       </c>
-      <c r="H52" s="0" t="n">
+      <c r="H52">
         <v>600</v>
       </c>
-      <c r="I52" s="0" t="s">
+      <c r="I52" t="s">
         <v>30</v>
       </c>
       <c r="J52" s="1" t="s">
@@ -5389,19 +5371,19 @@
       <c r="L52" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M52" s="0" t="s">
+      <c r="M52" t="s">
         <v>73</v>
       </c>
-      <c r="N52" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O52" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P52" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q52" s="0" t="s">
+      <c r="N52" t="s">
+        <v>31</v>
+      </c>
+      <c r="O52" t="s">
+        <v>31</v>
+      </c>
+      <c r="P52" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q52" t="s">
         <v>31</v>
       </c>
       <c r="S52" s="1" t="s">
@@ -5410,51 +5392,51 @@
       <c r="T52" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U52" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V52" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W52" s="0" t="n">
+      <c r="U52" t="s">
+        <v>31</v>
+      </c>
+      <c r="V52" t="s">
+        <v>31</v>
+      </c>
+      <c r="W52">
         <v>10</v>
       </c>
-      <c r="X52" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y52" s="0" t="s">
+      <c r="X52" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y52" t="s">
         <v>33</v>
       </c>
-      <c r="Z52" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="Z52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" ht="13.8">
+      <c r="A53" t="s">
         <v>114</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E53" s="0" t="s">
+      <c r="D53">
+        <v>123456</v>
+      </c>
+      <c r="E53" t="s">
         <v>36</v>
       </c>
-      <c r="F53" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G53" s="0" t="n">
+      <c r="F53">
+        <v>123456</v>
+      </c>
+      <c r="G53">
         <v>1000</v>
       </c>
-      <c r="H53" s="0" t="n">
+      <c r="H53">
         <v>600</v>
       </c>
-      <c r="I53" s="0" t="s">
+      <c r="I53" t="s">
         <v>30</v>
       </c>
       <c r="J53" s="1" t="s">
@@ -5466,19 +5448,19 @@
       <c r="L53" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M53" s="0" t="s">
+      <c r="M53" t="s">
         <v>73</v>
       </c>
-      <c r="N53" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O53" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P53" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q53" s="0" t="s">
+      <c r="N53" t="s">
+        <v>31</v>
+      </c>
+      <c r="O53" t="s">
+        <v>31</v>
+      </c>
+      <c r="P53" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q53" t="s">
         <v>31</v>
       </c>
       <c r="S53" s="1" t="s">
@@ -5487,51 +5469,51 @@
       <c r="T53" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U53" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V53" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W53" s="0" t="n">
+      <c r="U53" t="s">
+        <v>31</v>
+      </c>
+      <c r="V53" t="s">
+        <v>31</v>
+      </c>
+      <c r="W53">
         <v>10</v>
       </c>
-      <c r="X53" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y53" s="0" t="s">
+      <c r="X53" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y53" t="s">
         <v>33</v>
       </c>
-      <c r="Z53" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="Z53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" ht="13.8">
+      <c r="A54" t="s">
         <v>115</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E54" s="0" t="s">
+      <c r="D54">
+        <v>123456</v>
+      </c>
+      <c r="E54" t="s">
         <v>117</v>
       </c>
-      <c r="F54" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G54" s="0" t="n">
+      <c r="F54">
+        <v>123456</v>
+      </c>
+      <c r="G54">
         <v>1000</v>
       </c>
-      <c r="H54" s="0" t="n">
+      <c r="H54">
         <v>600</v>
       </c>
-      <c r="I54" s="0" t="s">
+      <c r="I54" t="s">
         <v>30</v>
       </c>
       <c r="J54" s="1" t="s">
@@ -5543,19 +5525,19 @@
       <c r="L54" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M54" s="0" t="s">
+      <c r="M54" t="s">
         <v>73</v>
       </c>
-      <c r="N54" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O54" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P54" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q54" s="0" t="s">
+      <c r="N54" t="s">
+        <v>31</v>
+      </c>
+      <c r="O54" t="s">
+        <v>31</v>
+      </c>
+      <c r="P54" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q54" t="s">
         <v>31</v>
       </c>
       <c r="S54" s="1" t="s">
@@ -5564,26 +5546,26 @@
       <c r="T54" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U54" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V54" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W54" s="0" t="n">
+      <c r="U54" t="s">
+        <v>31</v>
+      </c>
+      <c r="V54" t="s">
+        <v>31</v>
+      </c>
+      <c r="W54">
         <v>5</v>
       </c>
-      <c r="X54" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y54" s="0" t="s">
+      <c r="X54" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y54" t="s">
         <v>33</v>
       </c>
-      <c r="Z54" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="2:26" ht="13.8">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -5597,7 +5579,7 @@
       <c r="R55" s="10"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="2:26" ht="13.8">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -5611,7 +5593,7 @@
       <c r="R56" s="10"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="2:18" ht="13.8">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -5624,7 +5606,7 @@
       <c r="Q57" s="9"/>
       <c r="R57" s="10"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="2:18" ht="13.8">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -5637,7 +5619,7 @@
       <c r="Q58" s="9"/>
       <c r="R58" s="10"/>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="2:18">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -5650,7 +5632,7 @@
       <c r="Q59" s="9"/>
       <c r="R59" s="10"/>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="2:18">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -5663,7 +5645,7 @@
       <c r="Q60" s="9"/>
       <c r="R60" s="10"/>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="2:18">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -5676,7 +5658,7 @@
       <c r="Q61" s="9"/>
       <c r="R61" s="10"/>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="2:18">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -5689,7 +5671,7 @@
       <c r="Q62" s="9"/>
       <c r="R62" s="10"/>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="2:18">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -5702,7 +5684,7 @@
       <c r="Q63" s="9"/>
       <c r="R63" s="10"/>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="2:18">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -5715,7 +5697,7 @@
       <c r="Q64" s="9"/>
       <c r="R64" s="10"/>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="2:18">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -5728,7 +5710,7 @@
       <c r="Q65" s="9"/>
       <c r="R65" s="10"/>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="2:18">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -5741,7 +5723,7 @@
       <c r="Q66" s="9"/>
       <c r="R66" s="10"/>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="2:18">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -5754,14 +5736,11 @@
       <c r="Q67" s="9"/>
       <c r="R67" s="10"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" ht="12.8"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter scaleWithDoc="1" alignWithMargins="1" differentFirst="0" differentOddEven="0"/>
 </worksheet>
 </file>
--- a/TestData/Web_POS/Billing/billing_test_data.xlsx
+++ b/TestData/Web_POS/Billing/billing_test_data.xlsx
@@ -668,8 +668,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B25" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O34" activeCellId="0" sqref="O34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -681,11 +681,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="19.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="19.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="31.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="31.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="28.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="19.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="19.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="1" width="29.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="23.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="15"/>

--- a/TestData/Web_POS/Billing/billing_test_data.xlsx
+++ b/TestData/Web_POS/Billing/billing_test_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr fullPrecision="1" calcId="125725"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,433 +19,467 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="117">
-  <si>
-    <t xml:space="preserve">TC_Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">serial_key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">username_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">username_pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password_pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">closing_balance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opening_balance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">store_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assortment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">categories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buy_items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">get_items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manual_discount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">discount_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carry_bag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price_Override</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">salesperson_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">307260624P3E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zwshashank.agrawal@teampureplay.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">userone_p1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Index9QA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NULL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dummy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">737534800034 : 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QBSB-Specificqty-Flat-percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8906118410781 : 2,  8906118412556 : 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maharashtra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saloni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexa67 : 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8906118410781: 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list : Assortment_Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount : 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cash : 100, paytm : 100, voucher : 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8906118410781 : 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QBSB-Specificqty-Flat-rupees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QBSB-Any Qty-get pool-spf-Rupees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8906118412761 : 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">307220524Dzl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MrunalJagtap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rudraksha : 2, Carry bag : 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QBSB-Specificity-Flat-fixed-all</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">737534800034 : 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QBSB-any____qty-Getpool-Specificqty-Free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8906118412761 : 1, 8906118412662 : 1, 8906118412556 : 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list : Assortment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100Rs Discount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It was a great experience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itembarcode0116 : 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Return</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exchange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">307260624ut0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">userone_p2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="124" count="1065">
+  <si>
+    <t>TC_Id</t>
+  </si>
+  <si>
+    <t>serial_key</t>
+  </si>
+  <si>
+    <t>username_admin</t>
+  </si>
+  <si>
+    <t>password_admin</t>
+  </si>
+  <si>
+    <t>username_pos</t>
+  </si>
+  <si>
+    <t>password_pos</t>
+  </si>
+  <si>
+    <t>closing_balance</t>
+  </si>
+  <si>
+    <t>opening_balance</t>
+  </si>
+  <si>
+    <t>store_name</t>
+  </si>
+  <si>
+    <t>assortment</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>buy_items</t>
+  </si>
+  <si>
+    <t>get_items</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>manual_discount</t>
+  </si>
+  <si>
+    <t>discount_value</t>
+  </si>
+  <si>
+    <t>carry_bag</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Price_Override</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>salesperson_name</t>
+  </si>
+  <si>
+    <t>TC_1</t>
+  </si>
+  <si>
+    <t>307260624P3E</t>
+  </si>
+  <si>
+    <t>zwshashank.agrawal@teampureplay.com</t>
+  </si>
+  <si>
+    <t>userone_p1</t>
+  </si>
+  <si>
+    <t>Index9QA</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Dummy</t>
+  </si>
+  <si>
+    <t>TC_2</t>
+  </si>
+  <si>
+    <t>737534800034 : 2</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>QBSB-Specificqty-Flat-percentage</t>
+  </si>
+  <si>
+    <t>8906118410781 : 2,  8906118412556 : 2</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Saloni</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Alexa67 : 2</t>
+  </si>
+  <si>
+    <t>8906118410781: 4</t>
+  </si>
+  <si>
+    <t>list : Assortment_Item</t>
+  </si>
+  <si>
+    <t>Amount : 10</t>
+  </si>
+  <si>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>cash : 100, paytm : 100, voucher : 0</t>
+  </si>
+  <si>
+    <t>8906118410781 : 1</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>TC_09</t>
+  </si>
+  <si>
+    <t>QBSB-Specificqty-Flat-rupees</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>QBSB-Any Qty-get pool-spf-Rupees</t>
+  </si>
+  <si>
+    <t>8906118412761 : 1</t>
+  </si>
+  <si>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>307220524Dzl</t>
+  </si>
+  <si>
+    <t>MrunalJagtap</t>
+  </si>
+  <si>
+    <t>Rudraksha : 2, Carry bag : 1</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>QBSB-Specificity-Flat-fixed-all</t>
+  </si>
+  <si>
+    <t>TC_19</t>
+  </si>
+  <si>
+    <t>737534800034 : 1</t>
+  </si>
+  <si>
+    <t>TC_20</t>
+  </si>
+  <si>
+    <t>TC_21</t>
+  </si>
+  <si>
+    <t>TC_22</t>
+  </si>
+  <si>
+    <t>TC_23</t>
+  </si>
+  <si>
+    <t>TC_24</t>
+  </si>
+  <si>
+    <t>TC_25</t>
+  </si>
+  <si>
+    <t>TC_26</t>
+  </si>
+  <si>
+    <t>TC_27</t>
+  </si>
+  <si>
+    <t>TC_28</t>
+  </si>
+  <si>
+    <t>TC_29</t>
+  </si>
+  <si>
+    <t>TC_30</t>
+  </si>
+  <si>
+    <t>QBSB-any____qty-Getpool-Specificqty-Free</t>
+  </si>
+  <si>
+    <t>8906118412761 : 1, 8906118412662 : 1, 8906118412556 : 1</t>
+  </si>
+  <si>
+    <t>TC_31</t>
+  </si>
+  <si>
+    <t>TC_32</t>
+  </si>
+  <si>
+    <t>list : Assortment</t>
+  </si>
+  <si>
+    <t>100Rs Discount</t>
+  </si>
+  <si>
+    <t>TC_33</t>
+  </si>
+  <si>
+    <t>TC_34</t>
+  </si>
+  <si>
+    <t>TC_35</t>
+  </si>
+  <si>
+    <t>It was a great experience</t>
+  </si>
+  <si>
+    <t>TC_36</t>
+  </si>
+  <si>
+    <t>Itembarcode0116 : 1</t>
+  </si>
+  <si>
+    <t>TC_37</t>
+  </si>
+  <si>
+    <t>TC_38</t>
+  </si>
+  <si>
+    <t>TC_39</t>
+  </si>
+  <si>
+    <t>TC_40</t>
+  </si>
+  <si>
+    <t>TC_41</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>TC_42</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>TC_43</t>
+  </si>
+  <si>
+    <t>TC_44</t>
+  </si>
+  <si>
+    <t>TC_45</t>
+  </si>
+  <si>
+    <t>TC_46</t>
+  </si>
+  <si>
+    <t>TC_47</t>
+  </si>
+  <si>
+    <t>TC_48</t>
+  </si>
+  <si>
+    <t>TC_49</t>
+  </si>
+  <si>
+    <t>TC_50</t>
+  </si>
+  <si>
+    <t>TC_51</t>
+  </si>
+  <si>
+    <t>TC_52</t>
+  </si>
+  <si>
+    <t>TC_53</t>
+  </si>
+  <si>
+    <t>307260624ut0</t>
+  </si>
+  <si>
+    <t>userone_p2</t>
+  </si>
+  <si>
+    <t>tax_invoice</t>
+  </si>
+  <si>
+    <t>8906118410781: 3</t>
+  </si>
+  <si>
+    <t>voucher_code</t>
+  </si>
+  <si>
+    <t>PUEpEn</t>
+  </si>
+  <si>
+    <t>737534800034 : 4,8906118412556 : 3</t>
+  </si>
+  <si>
+    <t>Amount : 100</t>
+  </si>
+  <si>
+    <t>Custom_Discount_Amount : 100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$-409]M/D/YYYY"/>
+<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <charset val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF2B579A"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF161616"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -460,16 +493,29 @@
         <bgColor rgb="FFE7E7E7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="3">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color rgb="FF2B579A"/>
@@ -481,114 +527,76 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="43">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="1" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" applyAlignment="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyAlignment="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -597,6 +605,7 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="ConditionalFormatStyle" xfId="20"/>
     <cellStyle name="HeaderStyle" xfId="21"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -656,47 +665,53 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF2B579A"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr/>
   <dimension ref="A1:AMJ68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
+    <sheetView topLeftCell="K1" zoomScale="90" defaultGridColor="0" colorId="64" view="normal" tabSelected="1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="19.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="31.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="31.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="28.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="19.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="23.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="18.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="0" width="12.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="22.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="12.68"/>
+    <col min="1" max="1" width="12.6796875" customWidth="1"/>
+    <col min="2" max="2" width="19.27734375" customWidth="1"/>
+    <col min="3" max="3" width="43.9296875" customWidth="1"/>
+    <col min="4" max="4" width="25.34765625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.9296875" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="8" max="9" width="19.09765625" customWidth="1"/>
+    <col min="10" max="11" width="31.95703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="31.95703125" customWidth="1"/>
+    <col min="13" max="14" width="28.75" customWidth="1"/>
+    <col min="15" max="17" width="19.09765625" customWidth="1"/>
+    <col min="18" max="20" width="29.45703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="23.20703125" customWidth="1"/>
+    <col min="22" max="22" width="15" customWidth="1"/>
+    <col min="23" max="23" width="18.9296875" customWidth="1"/>
+    <col min="24" max="25" width="12.6796875" customWidth="1"/>
+    <col min="26" max="26" width="22.84765625" customWidth="1"/>
+    <col min="27" max="1025" width="12.6796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:28" customHeight="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -714,13 +729,13 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -729,22 +744,22 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -756,51 +771,57 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="AA1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" customHeight="1">
+      <c r="A2" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2">
+        <v>123456</v>
+      </c>
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G2" s="0" t="n">
+      <c r="F2">
+        <v>123456</v>
+      </c>
+      <c r="G2">
         <v>1000</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>600</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -812,16 +833,16 @@
       <c r="L2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="0" t="s">
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" t="s">
         <v>31</v>
       </c>
       <c r="S2" s="1" t="s">
@@ -830,51 +851,51 @@
       <c r="T2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" s="0" t="s">
+      <c r="U2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y2" s="0" t="s">
+      <c r="W2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="Z2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" customHeight="1">
+      <c r="A3" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="D3">
+        <v>123456</v>
+      </c>
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G3" s="0" t="n">
+      <c r="F3">
+        <v>123456</v>
+      </c>
+      <c r="G3">
         <v>1000</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>600</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -886,19 +907,19 @@
       <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="0" t="s">
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" t="s">
         <v>31</v>
       </c>
       <c r="S3" s="1" t="s">
@@ -907,26 +928,26 @@
       <c r="T3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y3" s="0" t="s">
+      <c r="U3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" t="s">
+        <v>31</v>
+      </c>
+      <c r="X3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" t="s">
         <v>33</v>
       </c>
-      <c r="Z3" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Z3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="33" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
@@ -936,19 +957,19 @@
       <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="5" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="D4" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="5" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G4" s="4" t="n">
+      <c r="F4" s="5">
+        <v>123456</v>
+      </c>
+      <c r="G4" s="4">
         <v>1000</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="4">
         <v>600</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -957,10 +978,10 @@
       <c r="J4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="3">
         <v>1</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="L4" s="3">
         <v>2</v>
       </c>
       <c r="M4" s="3" t="s">
@@ -1005,7 +1026,7 @@
       </c>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="34.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:27" ht="34.8" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>42</v>
       </c>
@@ -1015,31 +1036,31 @@
       <c r="C5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="D5" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="5" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G5" s="4" t="n">
+      <c r="F5" s="5">
+        <v>123456</v>
+      </c>
+      <c r="G5" s="4">
         <v>1000</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="4">
         <v>600</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="3" t="n">
+      <c r="J5" s="6">
         <v>1</v>
       </c>
-      <c r="L5" s="3" t="n">
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
         <v>2</v>
       </c>
       <c r="M5" s="3" t="s">
@@ -1084,8 +1105,8 @@
       </c>
       <c r="AA5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:26" ht="33.75" customHeight="1">
+      <c r="A6" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1094,40 +1115,40 @@
       <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="D6" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G6" s="1" t="n">
+      <c r="F6" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G6" s="1">
         <v>1000</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6">
         <v>600</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="8" t="n">
+      <c r="J6" s="8">
         <v>1</v>
       </c>
-      <c r="K6" s="8" t="n">
+      <c r="K6" s="8">
         <v>1</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="L6" t="s">
         <v>44</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="N6" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="9" t="n">
+      <c r="O6" s="9">
         <v>45384</v>
       </c>
       <c r="P6" s="9" t="s">
@@ -1157,15 +1178,15 @@
       <c r="X6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y6" s="0" t="s">
+      <c r="Y6" t="s">
         <v>33</v>
       </c>
-      <c r="Z6" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="Z6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="33.75" customHeight="1">
+      <c r="A7" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1174,28 +1195,28 @@
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="D7" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G7" s="0" t="n">
+      <c r="F7" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G7">
         <v>1000</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>600</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="8" t="n">
+      <c r="J7" s="8">
         <v>1</v>
       </c>
-      <c r="K7" s="8" t="n">
+      <c r="K7" s="8">
         <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -1204,10 +1225,10 @@
       <c r="M7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="N7" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="9" t="n">
+      <c r="O7" s="9">
         <v>45384</v>
       </c>
       <c r="P7" s="9" t="s">
@@ -1216,7 +1237,7 @@
       <c r="Q7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R7" s="10" t="n">
+      <c r="R7" s="10">
         <v>7709577438</v>
       </c>
       <c r="S7" s="1" t="s">
@@ -1237,15 +1258,15 @@
       <c r="X7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y7" s="0" t="s">
+      <c r="Y7" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="Z7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="33.75" customHeight="1">
+      <c r="A8" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1254,28 +1275,28 @@
       <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E8" s="0" t="s">
+      <c r="D8" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G8" s="0" t="n">
+      <c r="F8" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G8">
         <v>1000</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8">
         <v>600</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="8" t="n">
+      <c r="J8" s="8">
         <v>1</v>
       </c>
-      <c r="K8" s="8" t="n">
+      <c r="K8" s="8">
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -1284,10 +1305,10 @@
       <c r="M8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="N8" t="s">
         <v>46</v>
       </c>
-      <c r="O8" s="9" t="n">
+      <c r="O8" s="9">
         <v>45384</v>
       </c>
       <c r="P8" s="9" t="s">
@@ -1296,7 +1317,7 @@
       <c r="Q8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="10" t="n">
+      <c r="R8" s="10">
         <v>7709577438</v>
       </c>
       <c r="S8" s="1" t="s">
@@ -1317,15 +1338,15 @@
       <c r="X8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y8" s="0" t="s">
+      <c r="Y8" t="s">
         <v>33</v>
       </c>
-      <c r="Z8" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="Z8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="33.75" customHeight="1">
+      <c r="A9" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1334,31 +1355,31 @@
       <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="5" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E9" s="0" t="s">
+      <c r="D9" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E9" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="5" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G9" s="0" t="n">
+      <c r="F9" s="5">
+        <v>123456</v>
+      </c>
+      <c r="G9">
         <v>1000</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9">
         <v>600</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="3" t="n">
+      <c r="J9" s="6">
         <v>1</v>
       </c>
-      <c r="L9" s="3" t="n">
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
         <v>2</v>
       </c>
       <c r="M9" s="3" t="s">
@@ -1402,8 +1423,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:26" ht="33.75" customHeight="1">
+      <c r="A10" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1412,31 +1433,31 @@
       <c r="C10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="5" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E10" s="0" t="s">
+      <c r="D10" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E10" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="5" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G10" s="0" t="n">
+      <c r="F10" s="5">
+        <v>123456</v>
+      </c>
+      <c r="G10">
         <v>1000</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10">
         <v>600</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="3" t="n">
+      <c r="J10" s="6">
         <v>1</v>
       </c>
-      <c r="L10" s="3" t="n">
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
         <v>2</v>
       </c>
       <c r="M10" s="3" t="s">
@@ -1476,12 +1497,12 @@
       <c r="Y10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Z10" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="Z10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="18" customHeight="1">
+      <c r="A11" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1490,28 +1511,28 @@
       <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E11" s="0" t="s">
+      <c r="D11" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E11" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G11" s="0" t="n">
+      <c r="F11" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G11">
         <v>1000</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11">
         <v>600</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="8" t="n">
+      <c r="J11" s="8">
         <v>1</v>
       </c>
-      <c r="K11" s="8" t="n">
+      <c r="K11" s="8">
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -1520,10 +1541,10 @@
       <c r="M11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N11" s="0" t="s">
+      <c r="N11" t="s">
         <v>46</v>
       </c>
-      <c r="O11" s="9" t="n">
+      <c r="O11" s="9">
         <v>45384</v>
       </c>
       <c r="P11" s="9" t="s">
@@ -1532,7 +1553,7 @@
       <c r="Q11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R11" s="10" t="n">
+      <c r="R11" s="10">
         <v>7709577438</v>
       </c>
       <c r="S11" s="1" t="s">
@@ -1553,15 +1574,15 @@
       <c r="X11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y11" s="0" t="s">
+      <c r="Y11" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="Z11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A12" t="s">
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1570,28 +1591,28 @@
       <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E12" s="0" t="s">
+      <c r="D12" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E12" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G12" s="0" t="n">
+      <c r="F12" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G12">
         <v>1000</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12">
         <v>600</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="8" t="n">
+      <c r="J12" s="8">
         <v>1</v>
       </c>
-      <c r="K12" s="8" t="n">
+      <c r="K12" s="8">
         <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
@@ -1600,10 +1621,10 @@
       <c r="M12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N12" s="0" t="s">
+      <c r="N12" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="9" t="n">
+      <c r="O12" s="9">
         <v>45384</v>
       </c>
       <c r="P12" s="9" t="s">
@@ -1612,7 +1633,7 @@
       <c r="Q12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R12" s="10" t="n">
+      <c r="R12" s="10">
         <v>7709577438</v>
       </c>
       <c r="S12" s="1" t="s">
@@ -1633,15 +1654,15 @@
       <c r="X12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y12" s="0" t="s">
+      <c r="Y12" t="s">
         <v>33</v>
       </c>
-      <c r="Z12" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="Z12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" customHeight="1">
+      <c r="A13" t="s">
         <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1650,28 +1671,28 @@
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E13" s="0" t="s">
+      <c r="D13" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E13" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G13" s="0" t="n">
+      <c r="F13" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G13">
         <v>1000</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13">
         <v>600</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="8" t="n">
+      <c r="J13" s="8">
         <v>1</v>
       </c>
-      <c r="K13" s="8" t="n">
+      <c r="K13" s="8">
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
@@ -1680,10 +1701,10 @@
       <c r="M13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N13" s="0" t="s">
+      <c r="N13" t="s">
         <v>46</v>
       </c>
-      <c r="O13" s="9" t="n">
+      <c r="O13" s="9">
         <v>45384</v>
       </c>
       <c r="P13" s="9" t="s">
@@ -1692,7 +1713,7 @@
       <c r="Q13" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R13" s="10" t="n">
+      <c r="R13" s="10">
         <v>7709577438</v>
       </c>
       <c r="S13" s="1" t="s">
@@ -1713,15 +1734,15 @@
       <c r="X13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y13" s="0" t="s">
+      <c r="Y13" t="s">
         <v>33</v>
       </c>
-      <c r="Z13" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="Z13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="26.25" customHeight="1">
+      <c r="A14" t="s">
         <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1730,28 +1751,28 @@
       <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E14" s="0" t="s">
+      <c r="D14" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E14" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G14" s="0" t="n">
+      <c r="F14" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G14">
         <v>1000</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14">
         <v>600</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="8" t="n">
+      <c r="J14" s="8">
         <v>1</v>
       </c>
-      <c r="K14" s="8" t="n">
+      <c r="K14" s="8">
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
@@ -1760,10 +1781,10 @@
       <c r="M14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="0" t="s">
+      <c r="N14" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="9" t="n">
+      <c r="O14" s="9">
         <v>45384</v>
       </c>
       <c r="P14" s="9" t="s">
@@ -1772,7 +1793,7 @@
       <c r="Q14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R14" s="10" t="n">
+      <c r="R14" s="10">
         <v>7709577438</v>
       </c>
       <c r="S14" s="1" t="s">
@@ -1793,15 +1814,15 @@
       <c r="X14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y14" s="0" t="s">
+      <c r="Y14" t="s">
         <v>33</v>
       </c>
-      <c r="Z14" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="Z14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="30" customHeight="1">
+      <c r="A15" t="s">
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1810,28 +1831,28 @@
       <c r="C15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="11" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E15" s="0" t="s">
+      <c r="D15" s="11">
+        <v>123456</v>
+      </c>
+      <c r="E15" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G15" s="0" t="n">
+      <c r="F15" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G15">
         <v>1000</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15">
         <v>600</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="8" t="n">
+      <c r="J15" s="8">
         <v>1</v>
       </c>
-      <c r="K15" s="8" t="n">
+      <c r="K15" s="8">
         <v>1</v>
       </c>
       <c r="L15" s="1" t="s">
@@ -1840,10 +1861,10 @@
       <c r="M15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N15" s="0" t="s">
+      <c r="N15" t="s">
         <v>46</v>
       </c>
-      <c r="O15" s="9" t="n">
+      <c r="O15" s="9">
         <v>45384</v>
       </c>
       <c r="P15" s="9" t="s">
@@ -1852,7 +1873,7 @@
       <c r="Q15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R15" s="10" t="n">
+      <c r="R15" s="10">
         <v>7709577438</v>
       </c>
       <c r="S15" s="1" t="s">
@@ -1873,14 +1894,14 @@
       <c r="X15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y15" s="0" t="s">
+      <c r="Y15" t="s">
         <v>33</v>
       </c>
-      <c r="Z15" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1024" s="3" customFormat="1" ht="48">
       <c r="A16" s="3" t="s">
         <v>61</v>
       </c>
@@ -1890,19 +1911,19 @@
       <c r="C16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="5" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E16" s="0" t="s">
+      <c r="D16" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E16" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="5" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G16" s="3" t="n">
+      <c r="F16" s="5">
+        <v>123456</v>
+      </c>
+      <c r="G16" s="3">
         <v>1000</v>
       </c>
-      <c r="H16" s="3" t="n">
+      <c r="H16" s="3">
         <v>600</v>
       </c>
       <c r="I16" s="3" t="s">
@@ -1911,17 +1932,17 @@
       <c r="J16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K16" s="3" t="n">
+      <c r="K16" s="3">
         <v>1</v>
       </c>
-      <c r="L16" s="3" t="n">
+      <c r="L16" s="3">
         <v>1</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N16" s="3" t="s">
-        <v>63</v>
+      <c r="N16" t="s">
+        <v>118</v>
       </c>
       <c r="O16" s="7"/>
       <c r="P16" s="7" t="s">
@@ -2428,8 +2449,8 @@
       <c r="AMI16" s="5"/>
       <c r="AMJ16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:26" ht="31.5" customHeight="1">
+      <c r="A17" t="s">
         <v>64</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2438,28 +2459,28 @@
       <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E17" s="0" t="s">
+      <c r="D17" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E17" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G17" s="0" t="n">
+      <c r="F17" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G17">
         <v>1000</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17">
         <v>600</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="8" t="n">
+      <c r="J17" s="8">
         <v>1</v>
       </c>
-      <c r="K17" s="8" t="n">
+      <c r="K17" s="8">
         <v>1</v>
       </c>
       <c r="L17" s="1" t="s">
@@ -2468,10 +2489,10 @@
       <c r="M17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N17" s="0" t="s">
+      <c r="N17" t="s">
         <v>46</v>
       </c>
-      <c r="O17" s="9" t="n">
+      <c r="O17" s="9">
         <v>45384</v>
       </c>
       <c r="P17" s="9" t="s">
@@ -2480,7 +2501,7 @@
       <c r="Q17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R17" s="10" t="n">
+      <c r="R17" s="10">
         <v>7709577438</v>
       </c>
       <c r="S17" s="1" t="s">
@@ -2501,39 +2522,39 @@
       <c r="X17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y17" s="0" t="s">
+      <c r="Y17" t="s">
         <v>33</v>
       </c>
-      <c r="Z17" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="Z17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="31.5" customHeight="1">
+      <c r="A18" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="13" t="n">
+      <c r="D18" s="13">
         <v>123456</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G18" s="0" t="n">
+      <c r="F18">
+        <v>123456</v>
+      </c>
+      <c r="G18">
         <v>1000</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18">
         <v>600</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" t="s">
         <v>30</v>
       </c>
       <c r="J18" s="8" t="s">
@@ -2545,19 +2566,19 @@
       <c r="L18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N18" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O18" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P18" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q18" s="0" t="s">
+      <c r="M18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" t="s">
         <v>31</v>
       </c>
       <c r="R18" s="1" t="s">
@@ -2569,27 +2590,27 @@
       <c r="T18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U18" s="0" t="s">
+      <c r="U18" t="s">
         <v>68</v>
       </c>
-      <c r="V18" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W18" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X18" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y18" s="0" t="s">
+      <c r="V18" t="s">
+        <v>31</v>
+      </c>
+      <c r="W18" t="s">
+        <v>31</v>
+      </c>
+      <c r="X18" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y18" t="s">
         <v>33</v>
       </c>
-      <c r="Z18" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="Z18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="31.5" customHeight="1">
+      <c r="A19" t="s">
         <v>69</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2598,19 +2619,19 @@
       <c r="C19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="5" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E19" s="0" t="s">
+      <c r="D19" s="5">
+        <v>123456</v>
+      </c>
+      <c r="E19" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="5" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G19" s="0" t="n">
+      <c r="F19" s="5">
+        <v>123456</v>
+      </c>
+      <c r="G19">
         <v>1000</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19">
         <v>600</v>
       </c>
       <c r="I19" s="3" t="s">
@@ -2619,10 +2640,10 @@
       <c r="J19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K19" s="3" t="n">
+      <c r="K19" s="3">
         <v>1</v>
       </c>
-      <c r="L19" s="3" t="n">
+      <c r="L19" s="3">
         <v>1</v>
       </c>
       <c r="M19" s="3" t="s">
@@ -2647,48 +2668,48 @@
       <c r="U19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V19" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W19" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X19" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y19" s="0" t="s">
+      <c r="V19" t="s">
+        <v>31</v>
+      </c>
+      <c r="W19" t="s">
+        <v>31</v>
+      </c>
+      <c r="X19" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y19" t="s">
         <v>33</v>
       </c>
-      <c r="Z19" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="Z19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="31.5" customHeight="1">
+      <c r="A20" t="s">
         <v>71</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E20" s="0" t="s">
+      <c r="D20">
+        <v>123456</v>
+      </c>
+      <c r="E20" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G20" s="0" t="n">
+      <c r="F20">
+        <v>123456</v>
+      </c>
+      <c r="G20">
         <v>1000</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20">
         <v>600</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="I20" t="s">
         <v>30</v>
       </c>
       <c r="J20" s="8" t="s">
@@ -2700,19 +2721,19 @@
       <c r="L20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M20" s="0" t="s">
+      <c r="M20" t="s">
         <v>72</v>
       </c>
-      <c r="N20" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O20" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P20" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q20" s="0" t="s">
+      <c r="N20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" t="s">
         <v>31</v>
       </c>
       <c r="R20" s="1" t="s">
@@ -2724,51 +2745,51 @@
       <c r="T20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U20" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V20" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W20" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X20" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y20" s="0" t="s">
+      <c r="U20" t="s">
+        <v>31</v>
+      </c>
+      <c r="V20" t="s">
+        <v>31</v>
+      </c>
+      <c r="W20" t="s">
+        <v>31</v>
+      </c>
+      <c r="X20" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y20" t="s">
         <v>33</v>
       </c>
-      <c r="Z20" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="Z20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="31.5" customHeight="1">
+      <c r="A21" t="s">
         <v>73</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E21" s="0" t="s">
+      <c r="D21">
+        <v>123456</v>
+      </c>
+      <c r="E21" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G21" s="0" t="n">
+      <c r="F21">
+        <v>123456</v>
+      </c>
+      <c r="G21">
         <v>1000</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21">
         <v>600</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="I21" t="s">
         <v>30</v>
       </c>
       <c r="J21" s="8" t="s">
@@ -2780,19 +2801,19 @@
       <c r="L21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M21" s="0" t="s">
+      <c r="M21" t="s">
         <v>72</v>
       </c>
-      <c r="N21" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O21" s="14" t="n">
+      <c r="N21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="14">
         <v>45384</v>
       </c>
-      <c r="P21" s="0" t="s">
+      <c r="P21" t="s">
         <v>39</v>
       </c>
-      <c r="Q21" s="0" t="s">
+      <c r="Q21" t="s">
         <v>40</v>
       </c>
       <c r="R21" s="1" t="s">
@@ -2801,30 +2822,30 @@
       <c r="S21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T21" s="1" t="n">
+      <c r="T21" s="1">
         <v>300</v>
       </c>
-      <c r="U21" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V21" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W21" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X21" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y21" s="0" t="s">
+      <c r="U21" t="s">
+        <v>31</v>
+      </c>
+      <c r="V21" t="s">
+        <v>31</v>
+      </c>
+      <c r="W21" t="s">
+        <v>31</v>
+      </c>
+      <c r="X21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y21" t="s">
         <v>33</v>
       </c>
-      <c r="Z21" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="Z21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="32.25" customHeight="1">
+      <c r="A22" t="s">
         <v>74</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2833,28 +2854,28 @@
       <c r="C22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E22" s="0" t="s">
+      <c r="D22" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E22" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G22" s="0" t="n">
+      <c r="F22" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G22">
         <v>1000</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22">
         <v>600</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J22" s="8" t="n">
+      <c r="J22" s="8">
         <v>1</v>
       </c>
-      <c r="K22" s="8" t="n">
+      <c r="K22" s="8">
         <v>1</v>
       </c>
       <c r="L22" s="1" t="s">
@@ -2863,10 +2884,10 @@
       <c r="M22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N22" s="0" t="s">
+      <c r="N22" t="s">
         <v>46</v>
       </c>
-      <c r="O22" s="9" t="n">
+      <c r="O22" s="9">
         <v>45384</v>
       </c>
       <c r="P22" s="9" t="s">
@@ -2875,7 +2896,7 @@
       <c r="Q22" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R22" s="10" t="n">
+      <c r="R22" s="10">
         <v>7709577438</v>
       </c>
       <c r="S22" s="1" t="s">
@@ -2884,27 +2905,27 @@
       <c r="T22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U22" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V22" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W22" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X22" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y22" s="0" t="s">
+      <c r="U22" t="s">
+        <v>31</v>
+      </c>
+      <c r="V22" t="s">
+        <v>31</v>
+      </c>
+      <c r="W22" t="s">
+        <v>31</v>
+      </c>
+      <c r="X22" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y22" t="s">
         <v>33</v>
       </c>
       <c r="Z22" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:26" ht="28.5" customHeight="1">
+      <c r="A23" t="s">
         <v>75</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2913,28 +2934,28 @@
       <c r="C23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E23" s="0" t="s">
+      <c r="D23" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E23" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G23" s="0" t="n">
+      <c r="F23" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G23">
         <v>1000</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23">
         <v>600</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="8" t="n">
+      <c r="J23" s="8">
         <v>1</v>
       </c>
-      <c r="K23" s="8" t="n">
+      <c r="K23" s="8">
         <v>1</v>
       </c>
       <c r="L23" s="1" t="s">
@@ -2943,10 +2964,10 @@
       <c r="M23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N23" s="0" t="s">
+      <c r="N23" t="s">
         <v>46</v>
       </c>
-      <c r="O23" s="9" t="n">
+      <c r="O23" s="9">
         <v>45384</v>
       </c>
       <c r="P23" s="9" t="s">
@@ -2955,7 +2976,7 @@
       <c r="Q23" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R23" s="10" t="n">
+      <c r="R23" s="10">
         <v>7709577438</v>
       </c>
       <c r="S23" s="1" t="s">
@@ -2964,27 +2985,27 @@
       <c r="T23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U23" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V23" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W23" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X23" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y23" s="0" t="s">
+      <c r="U23" t="s">
+        <v>31</v>
+      </c>
+      <c r="V23" t="s">
+        <v>31</v>
+      </c>
+      <c r="W23" t="s">
+        <v>31</v>
+      </c>
+      <c r="X23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y23" t="s">
         <v>33</v>
       </c>
       <c r="Z23" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:26" ht="13.8">
+      <c r="A24" t="s">
         <v>76</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2993,28 +3014,28 @@
       <c r="C24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E24" s="0" t="s">
+      <c r="D24" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E24" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G24" s="0" t="n">
+      <c r="F24" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G24">
         <v>1000</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24">
         <v>600</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="8" t="n">
+      <c r="J24" s="8">
         <v>1</v>
       </c>
-      <c r="K24" s="8" t="n">
+      <c r="K24" s="8">
         <v>1</v>
       </c>
       <c r="L24" s="1" t="s">
@@ -3023,10 +3044,10 @@
       <c r="M24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N24" s="0" t="s">
+      <c r="N24" t="s">
         <v>46</v>
       </c>
-      <c r="O24" s="9" t="n">
+      <c r="O24" s="9">
         <v>45384</v>
       </c>
       <c r="P24" s="9" t="s">
@@ -3035,7 +3056,7 @@
       <c r="Q24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R24" s="10" t="n">
+      <c r="R24" s="10">
         <v>7709577438</v>
       </c>
       <c r="S24" s="1" t="s">
@@ -3044,27 +3065,27 @@
       <c r="T24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U24" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V24" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W24" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X24" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y24" s="0" t="s">
+      <c r="U24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V24" t="s">
+        <v>31</v>
+      </c>
+      <c r="W24" t="s">
+        <v>31</v>
+      </c>
+      <c r="X24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y24" t="s">
         <v>33</v>
       </c>
-      <c r="Z24" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="Z24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="48">
+      <c r="A25" t="s">
         <v>77</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -3073,28 +3094,28 @@
       <c r="C25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E25" s="0" t="s">
+      <c r="D25" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E25" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G25" s="0" t="n">
+      <c r="F25" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G25">
         <v>1000</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25">
         <v>600</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="8" t="n">
+      <c r="J25" s="8">
         <v>1</v>
       </c>
-      <c r="K25" s="8" t="n">
+      <c r="K25" s="8">
         <v>1</v>
       </c>
       <c r="L25" s="1" t="s">
@@ -3103,10 +3124,10 @@
       <c r="M25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N25" s="0" t="s">
+      <c r="N25" t="s">
         <v>46</v>
       </c>
-      <c r="O25" s="9" t="n">
+      <c r="O25" s="9">
         <v>45384</v>
       </c>
       <c r="P25" s="9" t="s">
@@ -3115,7 +3136,7 @@
       <c r="Q25" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R25" s="10" t="n">
+      <c r="R25" s="10">
         <v>7709577438</v>
       </c>
       <c r="S25" s="1" t="s">
@@ -3124,27 +3145,31 @@
       <c r="T25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U25" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V25" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W25" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X25" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y25" s="0" t="s">
+      <c r="U25" t="s">
+        <v>31</v>
+      </c>
+      <c r="V25" t="s">
+        <v>31</v>
+      </c>
+      <c r="W25" t="s">
+        <v>31</v>
+      </c>
+      <c r="X25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y25" t="s">
         <v>33</v>
       </c>
-      <c r="Z25" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="Z25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA25"/>
+      <c r="AB25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="13.8">
+      <c r="A26" t="s">
         <v>78</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3153,28 +3178,28 @@
       <c r="C26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E26" s="0" t="s">
+      <c r="D26" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E26" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G26" s="0" t="n">
+      <c r="F26" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G26">
         <v>1000</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26">
         <v>600</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="8" t="n">
+      <c r="J26" s="8">
         <v>1</v>
       </c>
-      <c r="K26" s="8" t="n">
+      <c r="K26" s="8">
         <v>1</v>
       </c>
       <c r="L26" s="1" t="s">
@@ -3183,10 +3208,10 @@
       <c r="M26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N26" s="0" t="s">
+      <c r="N26" t="s">
         <v>46</v>
       </c>
-      <c r="O26" s="9" t="n">
+      <c r="O26" s="9">
         <v>45384</v>
       </c>
       <c r="P26" s="9" t="s">
@@ -3195,7 +3220,7 @@
       <c r="Q26" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R26" s="10" t="n">
+      <c r="R26" s="10">
         <v>7709577438</v>
       </c>
       <c r="S26" s="1" t="s">
@@ -3204,27 +3229,27 @@
       <c r="T26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U26" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V26" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W26" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X26" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y26" s="0" t="s">
+      <c r="U26" t="s">
+        <v>31</v>
+      </c>
+      <c r="V26" t="s">
+        <v>31</v>
+      </c>
+      <c r="W26" t="s">
+        <v>31</v>
+      </c>
+      <c r="X26" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y26" t="s">
         <v>33</v>
       </c>
-      <c r="Z26" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="Z26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="13.8">
+      <c r="A27" t="s">
         <v>79</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -3233,28 +3258,28 @@
       <c r="C27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E27" s="0" t="s">
+      <c r="D27" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E27" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G27" s="0" t="n">
+      <c r="F27" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G27">
         <v>1000</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27">
         <v>600</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="8" t="n">
+      <c r="J27" s="8">
         <v>1</v>
       </c>
-      <c r="K27" s="8" t="n">
+      <c r="K27" s="8">
         <v>1</v>
       </c>
       <c r="L27" s="1" t="s">
@@ -3263,10 +3288,10 @@
       <c r="M27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N27" s="0" t="s">
+      <c r="N27" t="s">
         <v>46</v>
       </c>
-      <c r="O27" s="9" t="n">
+      <c r="O27" s="9">
         <v>45384</v>
       </c>
       <c r="P27" s="9" t="s">
@@ -3275,7 +3300,7 @@
       <c r="Q27" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R27" s="10" t="n">
+      <c r="R27" s="10">
         <v>7709577438</v>
       </c>
       <c r="S27" s="1" t="s">
@@ -3284,57 +3309,57 @@
       <c r="T27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U27" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V27" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W27" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X27" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y27" s="0" t="s">
+      <c r="U27" t="s">
+        <v>31</v>
+      </c>
+      <c r="V27" t="s">
+        <v>31</v>
+      </c>
+      <c r="W27" t="s">
+        <v>31</v>
+      </c>
+      <c r="X27" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y27" t="s">
         <v>33</v>
       </c>
-      <c r="Z27" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="Z27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="48">
+      <c r="A28" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E28" s="0" t="s">
+      <c r="D28" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E28" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G28" s="0" t="n">
+      <c r="F28" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G28">
         <v>1000</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28">
         <v>600</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="8" t="n">
+      <c r="J28" s="8">
         <v>1</v>
       </c>
-      <c r="K28" s="8" t="n">
+      <c r="K28" s="8">
         <v>1</v>
       </c>
       <c r="L28" s="1" t="s">
@@ -3343,10 +3368,10 @@
       <c r="M28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N28" s="0" t="s">
+      <c r="N28" t="s">
         <v>46</v>
       </c>
-      <c r="O28" s="9" t="n">
+      <c r="O28" s="9">
         <v>45384</v>
       </c>
       <c r="P28" s="9" t="s">
@@ -3355,7 +3380,7 @@
       <c r="Q28" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R28" s="10" t="n">
+      <c r="R28" s="10">
         <v>7709577438</v>
       </c>
       <c r="S28" s="1" t="s">
@@ -3364,27 +3389,27 @@
       <c r="T28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U28" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V28" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W28" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X28" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y28" s="0" t="s">
+      <c r="U28" t="s">
+        <v>31</v>
+      </c>
+      <c r="V28" t="s">
+        <v>31</v>
+      </c>
+      <c r="W28" t="s">
+        <v>31</v>
+      </c>
+      <c r="X28" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y28" t="s">
         <v>33</v>
       </c>
-      <c r="Z28" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="Z28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="13.8">
+      <c r="A29" t="s">
         <v>81</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -3393,28 +3418,28 @@
       <c r="C29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E29" s="0" t="s">
+      <c r="D29" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E29" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G29" s="0" t="n">
+      <c r="F29" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G29">
         <v>1000</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29">
         <v>600</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J29" s="8" t="n">
+      <c r="J29" s="8">
         <v>1</v>
       </c>
-      <c r="K29" s="8" t="n">
+      <c r="K29" s="8">
         <v>1</v>
       </c>
       <c r="L29" s="1" t="s">
@@ -3423,10 +3448,10 @@
       <c r="M29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N29" s="0" t="s">
+      <c r="N29" t="s">
         <v>46</v>
       </c>
-      <c r="O29" s="9" t="n">
+      <c r="O29" s="9">
         <v>45384</v>
       </c>
       <c r="P29" s="9" t="s">
@@ -3435,7 +3460,7 @@
       <c r="Q29" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R29" s="10" t="n">
+      <c r="R29" s="10">
         <v>7709577438</v>
       </c>
       <c r="S29" s="1" t="s">
@@ -3444,27 +3469,27 @@
       <c r="T29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U29" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V29" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W29" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X29" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y29" s="0" t="s">
+      <c r="U29" t="s">
+        <v>31</v>
+      </c>
+      <c r="V29" t="s">
+        <v>31</v>
+      </c>
+      <c r="W29" t="s">
+        <v>31</v>
+      </c>
+      <c r="X29" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y29" t="s">
         <v>33</v>
       </c>
-      <c r="Z29" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="Z29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="13.8">
+      <c r="A30" t="s">
         <v>82</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -3473,28 +3498,28 @@
       <c r="C30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E30" s="0" t="s">
+      <c r="D30" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E30" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G30" s="0" t="n">
+      <c r="F30" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G30">
         <v>1000</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30">
         <v>600</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J30" s="8" t="n">
+      <c r="J30" s="8">
         <v>1</v>
       </c>
-      <c r="K30" s="8" t="n">
+      <c r="K30" s="8">
         <v>1</v>
       </c>
       <c r="L30" s="1" t="s">
@@ -3503,10 +3528,10 @@
       <c r="M30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N30" s="0" t="s">
+      <c r="N30" t="s">
         <v>46</v>
       </c>
-      <c r="O30" s="9" t="n">
+      <c r="O30" s="9">
         <v>45384</v>
       </c>
       <c r="P30" s="9" t="s">
@@ -3515,7 +3540,7 @@
       <c r="Q30" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R30" s="10" t="n">
+      <c r="R30" s="10">
         <v>7709577438</v>
       </c>
       <c r="S30" s="1" t="s">
@@ -3524,26 +3549,26 @@
       <c r="T30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U30" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V30" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W30" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X30" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y30" s="0" t="s">
+      <c r="U30" t="s">
+        <v>31</v>
+      </c>
+      <c r="V30" t="s">
+        <v>31</v>
+      </c>
+      <c r="W30" t="s">
+        <v>31</v>
+      </c>
+      <c r="X30" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y30" t="s">
         <v>33</v>
       </c>
-      <c r="Z30" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="72">
       <c r="A31" s="4" t="s">
         <v>83</v>
       </c>
@@ -3553,19 +3578,19 @@
       <c r="C31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="4" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E31" s="0" t="s">
+      <c r="D31" s="4">
+        <v>123456</v>
+      </c>
+      <c r="E31" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="4" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G31" s="4" t="n">
+      <c r="F31" s="4">
+        <v>123456</v>
+      </c>
+      <c r="G31" s="4">
         <v>1000</v>
       </c>
-      <c r="H31" s="4" t="n">
+      <c r="H31" s="4">
         <v>600</v>
       </c>
       <c r="I31" s="4" t="s">
@@ -3574,17 +3599,17 @@
       <c r="J31" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="K31" s="3" t="n">
+      <c r="K31" s="3">
         <v>1</v>
       </c>
-      <c r="L31" s="3" t="n">
+      <c r="L31" s="3">
         <v>2</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N31" s="3" t="s">
-        <v>85</v>
+      <c r="N31" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="O31" s="7"/>
       <c r="P31" s="4" t="s">
@@ -3593,7 +3618,7 @@
       <c r="Q31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="R31" s="10" t="n">
+      <c r="R31" s="10">
         <v>7709577438</v>
       </c>
       <c r="S31" s="1" t="s">
@@ -3602,51 +3627,51 @@
       <c r="T31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U31" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V31" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W31" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X31" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y31" s="0" t="s">
+      <c r="U31" t="s">
+        <v>31</v>
+      </c>
+      <c r="V31" t="s">
+        <v>31</v>
+      </c>
+      <c r="W31" t="s">
+        <v>31</v>
+      </c>
+      <c r="X31" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y31" t="s">
         <v>33</v>
       </c>
-      <c r="Z31" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="Z31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="13.8">
+      <c r="A32" t="s">
         <v>86</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E32" s="0" t="s">
+      <c r="D32">
+        <v>123456</v>
+      </c>
+      <c r="E32" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G32" s="0" t="n">
+      <c r="F32">
+        <v>123456</v>
+      </c>
+      <c r="G32">
         <v>1000</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="H32">
         <v>600</v>
       </c>
-      <c r="I32" s="0" t="s">
+      <c r="I32" t="s">
         <v>30</v>
       </c>
       <c r="J32" s="8" t="s">
@@ -3658,51 +3683,51 @@
       <c r="L32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M32" s="0" t="s">
+      <c r="M32" t="s">
         <v>72</v>
       </c>
-      <c r="N32" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O32" s="14" t="n">
+      <c r="N32" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" s="14">
         <v>45384</v>
       </c>
-      <c r="P32" s="0" t="s">
+      <c r="P32" t="s">
         <v>39</v>
       </c>
-      <c r="Q32" s="0" t="s">
+      <c r="Q32" t="s">
         <v>40</v>
       </c>
-      <c r="R32" s="10" t="n">
+      <c r="R32" s="10">
         <v>7709577438</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T32" s="1" t="n">
+      <c r="T32" s="1">
         <v>300</v>
       </c>
-      <c r="U32" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V32" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W32" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X32" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y32" s="0" t="s">
+      <c r="U32" t="s">
+        <v>31</v>
+      </c>
+      <c r="V32" t="s">
+        <v>31</v>
+      </c>
+      <c r="W32" t="s">
+        <v>31</v>
+      </c>
+      <c r="X32" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y32" t="s">
         <v>33</v>
       </c>
-      <c r="Z32" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="Z32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="13.8">
+      <c r="A33" t="s">
         <v>87</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3711,28 +3736,28 @@
       <c r="C33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E33" s="0" t="s">
+      <c r="D33" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E33" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G33" s="0" t="n">
+      <c r="F33" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G33">
         <v>1000</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="H33">
         <v>600</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J33" s="8" t="n">
+      <c r="J33" s="8">
         <v>1</v>
       </c>
-      <c r="K33" s="8" t="n">
+      <c r="K33" s="8">
         <v>1</v>
       </c>
       <c r="L33" s="1" t="s">
@@ -3741,10 +3766,10 @@
       <c r="M33" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N33" s="0" t="s">
+      <c r="N33" t="s">
         <v>46</v>
       </c>
-      <c r="O33" s="9" t="n">
+      <c r="O33" s="9">
         <v>45384</v>
       </c>
       <c r="P33" s="9" t="s">
@@ -3753,7 +3778,7 @@
       <c r="Q33" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R33" s="10" t="n">
+      <c r="R33" s="10">
         <v>7709577438</v>
       </c>
       <c r="S33" s="1" t="s">
@@ -3762,26 +3787,26 @@
       <c r="T33" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="U33" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V33" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W33" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X33" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y33" s="0" t="s">
+      <c r="U33" t="s">
+        <v>31</v>
+      </c>
+      <c r="V33" t="s">
+        <v>31</v>
+      </c>
+      <c r="W33" t="s">
+        <v>31</v>
+      </c>
+      <c r="X33" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y33" t="s">
         <v>33</v>
       </c>
-      <c r="Z33" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" s="10" customFormat="1" ht="13.8">
       <c r="A34" s="10" t="s">
         <v>90</v>
       </c>
@@ -3791,25 +3816,25 @@
       <c r="C34" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="15" t="n">
+      <c r="D34" s="15">
         <v>123456</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="15" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G34" s="10" t="n">
+      <c r="F34" s="15">
+        <v>123456</v>
+      </c>
+      <c r="G34" s="10">
         <v>1000</v>
       </c>
-      <c r="H34" s="10" t="n">
+      <c r="H34" s="10">
         <v>600</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J34" s="8" t="n">
+      <c r="J34" s="8">
         <v>1</v>
       </c>
       <c r="K34" s="8" t="s">
@@ -3824,7 +3849,7 @@
       <c r="N34" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="O34" s="16" t="n">
+      <c r="O34" s="16">
         <v>45384</v>
       </c>
       <c r="P34" s="17" t="s">
@@ -3833,7 +3858,7 @@
       <c r="Q34" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="R34" s="10" t="n">
+      <c r="R34" s="10">
         <v>7709577438</v>
       </c>
       <c r="S34" s="8" t="s">
@@ -3861,8 +3886,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:26" ht="48">
+      <c r="A35" t="s">
         <v>91</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3871,28 +3896,28 @@
       <c r="C35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E35" s="0" t="s">
+      <c r="D35" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E35" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G35" s="0" t="n">
+      <c r="F35" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G35">
         <v>1000</v>
       </c>
-      <c r="H35" s="0" t="n">
+      <c r="H35">
         <v>600</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J35" s="8" t="n">
+      <c r="J35" s="8">
         <v>1</v>
       </c>
-      <c r="K35" s="8" t="n">
+      <c r="K35" s="8">
         <v>1</v>
       </c>
       <c r="L35" s="1" t="s">
@@ -3901,10 +3926,10 @@
       <c r="M35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N35" s="0" t="s">
+      <c r="N35" t="s">
         <v>46</v>
       </c>
-      <c r="O35" s="9" t="n">
+      <c r="O35" s="9">
         <v>45384</v>
       </c>
       <c r="P35" s="9" t="s">
@@ -3913,14 +3938,14 @@
       <c r="Q35" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R35" s="10" t="n">
+      <c r="R35" s="10">
         <v>7709577438</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="U35" s="1" t="s">
         <v>31</v>
@@ -3934,15 +3959,15 @@
       <c r="X35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y35" s="0" t="s">
+      <c r="Y35" t="s">
         <v>33</v>
       </c>
       <c r="Z35" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:26" ht="13.8">
+      <c r="A36" t="s">
         <v>92</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -3951,19 +3976,19 @@
       <c r="C36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E36" s="0" t="s">
+      <c r="D36" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E36" t="s">
         <v>29</v>
       </c>
-      <c r="F36" s="2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G36" s="0" t="n">
+      <c r="F36" s="2">
+        <v>123456</v>
+      </c>
+      <c r="G36">
         <v>1000</v>
       </c>
-      <c r="H36" s="0" t="n">
+      <c r="H36">
         <v>600</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -3981,10 +4006,10 @@
       <c r="M36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N36" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O36" s="9" t="n">
+      <c r="N36" t="s">
+        <v>31</v>
+      </c>
+      <c r="O36" s="9">
         <v>45384</v>
       </c>
       <c r="P36" s="9" t="s">
@@ -3993,57 +4018,57 @@
       <c r="Q36" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R36" s="10" t="n">
+      <c r="R36" s="10">
         <v>7709577438</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T36" s="1" t="n">
+      <c r="T36" s="1">
         <v>300</v>
       </c>
-      <c r="U36" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V36" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W36" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X36" s="0" t="s">
+      <c r="U36" t="s">
+        <v>31</v>
+      </c>
+      <c r="V36" t="s">
+        <v>31</v>
+      </c>
+      <c r="W36" t="s">
+        <v>31</v>
+      </c>
+      <c r="X36" t="s">
         <v>93</v>
       </c>
-      <c r="Y36" s="0" t="s">
+      <c r="Y36" t="s">
         <v>33</v>
       </c>
-      <c r="Z36" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="Z36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="24">
+      <c r="A37" t="s">
         <v>94</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E37" s="0" t="s">
+      <c r="D37">
+        <v>123456</v>
+      </c>
+      <c r="E37" t="s">
         <v>29</v>
       </c>
-      <c r="F37" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G37" s="0" t="n">
+      <c r="F37">
+        <v>123456</v>
+      </c>
+      <c r="G37">
         <v>1000</v>
       </c>
-      <c r="H37" s="0" t="n">
+      <c r="H37">
         <v>600</v>
       </c>
       <c r="I37" s="1" t="s">
@@ -4058,72 +4083,72 @@
       <c r="L37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M37" s="0" t="s">
+      <c r="M37" t="s">
         <v>95</v>
       </c>
-      <c r="N37" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O37" s="14" t="n">
+      <c r="N37" t="s">
+        <v>31</v>
+      </c>
+      <c r="O37" s="14">
         <v>45384</v>
       </c>
-      <c r="P37" s="0" t="s">
+      <c r="P37" t="s">
         <v>39</v>
       </c>
-      <c r="Q37" s="0" t="s">
+      <c r="Q37" t="s">
         <v>40</v>
       </c>
-      <c r="R37" s="10" t="n">
+      <c r="R37" s="10">
         <v>7709577438</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T37" s="1" t="n">
+      <c r="T37" s="1">
         <v>300</v>
       </c>
-      <c r="U37" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V37" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W37" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X37" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y37" s="0" t="s">
+      <c r="U37" t="s">
+        <v>31</v>
+      </c>
+      <c r="V37" t="s">
+        <v>31</v>
+      </c>
+      <c r="W37" t="s">
+        <v>31</v>
+      </c>
+      <c r="X37" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y37" t="s">
         <v>33</v>
       </c>
-      <c r="Z37" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="Z37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="13.8">
+      <c r="A38" t="s">
         <v>96</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E38" s="0" t="s">
+      <c r="D38">
+        <v>123456</v>
+      </c>
+      <c r="E38" t="s">
         <v>29</v>
       </c>
-      <c r="F38" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G38" s="0" t="n">
+      <c r="F38">
+        <v>123456</v>
+      </c>
+      <c r="G38">
         <v>1000</v>
       </c>
-      <c r="H38" s="0" t="n">
+      <c r="H38">
         <v>600</v>
       </c>
       <c r="I38" s="1" t="s">
@@ -4138,50 +4163,50 @@
       <c r="L38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M38" s="0" t="s">
+      <c r="M38" t="s">
         <v>95</v>
       </c>
-      <c r="N38" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O38" s="14" t="n">
+      <c r="N38" t="s">
+        <v>31</v>
+      </c>
+      <c r="O38" s="14">
         <v>45384</v>
       </c>
-      <c r="P38" s="0" t="s">
+      <c r="P38" t="s">
         <v>39</v>
       </c>
-      <c r="Q38" s="0" t="s">
+      <c r="Q38" t="s">
         <v>40</v>
       </c>
-      <c r="R38" s="10" t="n">
+      <c r="R38" s="10">
         <v>7709577438</v>
       </c>
       <c r="S38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T38" s="1" t="n">
+      <c r="T38" s="1">
         <v>300</v>
       </c>
-      <c r="U38" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V38" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W38" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X38" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y38" s="0" t="s">
+      <c r="U38" t="s">
+        <v>31</v>
+      </c>
+      <c r="V38" t="s">
+        <v>31</v>
+      </c>
+      <c r="W38" t="s">
+        <v>31</v>
+      </c>
+      <c r="X38" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y38" t="s">
         <v>33</v>
       </c>
-      <c r="Z38" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="72">
       <c r="A39" s="4" t="s">
         <v>97</v>
       </c>
@@ -4191,19 +4216,19 @@
       <c r="C39" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="4" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E39" s="0" t="s">
+      <c r="D39" s="4">
+        <v>123456</v>
+      </c>
+      <c r="E39" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="4" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G39" s="4" t="n">
+      <c r="F39" s="4">
+        <v>123456</v>
+      </c>
+      <c r="G39" s="4">
         <v>1000</v>
       </c>
-      <c r="H39" s="4" t="n">
+      <c r="H39" s="4">
         <v>600</v>
       </c>
       <c r="I39" s="4" t="s">
@@ -4212,19 +4237,21 @@
       <c r="J39" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="K39" s="3" t="n">
+      <c r="K39" s="3">
         <v>1</v>
       </c>
-      <c r="L39" s="3" t="n">
+      <c r="L39" s="3">
         <v>2</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N39" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O39" s="7"/>
+      <c r="N39" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="O39" s="14">
+        <v>45384</v>
+      </c>
       <c r="P39" s="4" t="s">
         <v>39</v>
       </c>
@@ -4252,15 +4279,15 @@
       <c r="X39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y39" s="0" t="s">
+      <c r="Y39" t="s">
         <v>33</v>
       </c>
-      <c r="Z39" s="0" t="s">
+      <c r="Z39" t="s">
         <v>31</v>
       </c>
       <c r="AA39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:27" ht="72">
       <c r="A40" s="4" t="s">
         <v>98</v>
       </c>
@@ -4270,19 +4297,19 @@
       <c r="C40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="4" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E40" s="0" t="s">
+      <c r="D40" s="4">
+        <v>123456</v>
+      </c>
+      <c r="E40" t="s">
         <v>29</v>
       </c>
-      <c r="F40" s="4" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G40" s="4" t="n">
+      <c r="F40" s="4">
+        <v>123456</v>
+      </c>
+      <c r="G40" s="4">
         <v>1000</v>
       </c>
-      <c r="H40" s="4" t="n">
+      <c r="H40" s="4">
         <v>600</v>
       </c>
       <c r="I40" s="4" t="s">
@@ -4291,19 +4318,21 @@
       <c r="J40" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="K40" s="3" t="n">
+      <c r="K40" s="3">
         <v>1</v>
       </c>
-      <c r="L40" s="3" t="n">
+      <c r="L40" s="3">
         <v>2</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N40" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O40" s="7"/>
+      <c r="N40" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="O40" s="14">
+        <v>45384</v>
+      </c>
       <c r="P40" s="4" t="s">
         <v>39</v>
       </c>
@@ -4331,15 +4360,15 @@
       <c r="X40" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y40" s="0" t="s">
+      <c r="Y40" t="s">
         <v>33</v>
       </c>
-      <c r="Z40" s="0" t="s">
+      <c r="Z40" t="s">
         <v>31</v>
       </c>
       <c r="AA40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="35.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:27" ht="72">
       <c r="A41" s="4" t="s">
         <v>99</v>
       </c>
@@ -4349,19 +4378,19 @@
       <c r="C41" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="4" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E41" s="0" t="s">
+      <c r="D41" s="4">
+        <v>123456</v>
+      </c>
+      <c r="E41" t="s">
         <v>29</v>
       </c>
-      <c r="F41" s="4" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G41" s="4" t="n">
+      <c r="F41" s="4">
+        <v>123456</v>
+      </c>
+      <c r="G41" s="4">
         <v>1000</v>
       </c>
-      <c r="H41" s="4" t="n">
+      <c r="H41" s="4">
         <v>600</v>
       </c>
       <c r="I41" s="4" t="s">
@@ -4370,19 +4399,21 @@
       <c r="J41" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="K41" s="3" t="n">
+      <c r="K41" s="3">
         <v>1</v>
       </c>
-      <c r="L41" s="3" t="n">
+      <c r="L41" s="3">
         <v>2</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O41" s="7"/>
+      <c r="N41" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="O41" s="14">
+        <v>45384</v>
+      </c>
       <c r="P41" s="4" t="s">
         <v>39</v>
       </c>
@@ -4410,40 +4441,40 @@
       <c r="X41" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y41" s="0" t="s">
+      <c r="Y41" t="s">
         <v>33</v>
       </c>
-      <c r="Z41" s="0" t="s">
+      <c r="Z41" t="s">
         <v>31</v>
       </c>
       <c r="AA41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:26">
+      <c r="A42" t="s">
         <v>100</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E42" s="0" t="s">
+      <c r="D42">
+        <v>123456</v>
+      </c>
+      <c r="E42" t="s">
         <v>29</v>
       </c>
-      <c r="F42" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G42" s="0" t="n">
+      <c r="F42">
+        <v>123456</v>
+      </c>
+      <c r="G42">
         <v>1000</v>
       </c>
-      <c r="H42" s="0" t="n">
+      <c r="H42">
         <v>600</v>
       </c>
-      <c r="I42" s="0" t="s">
+      <c r="I42" t="s">
         <v>30</v>
       </c>
       <c r="J42" s="8" t="s">
@@ -4455,19 +4486,19 @@
       <c r="L42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M42" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N42" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O42" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P42" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q42" s="0" t="s">
+      <c r="M42" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="O42" s="14">
+        <v>45384</v>
+      </c>
+      <c r="P42" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q42" t="s">
         <v>31</v>
       </c>
       <c r="S42" s="1" t="s">
@@ -4476,51 +4507,51 @@
       <c r="T42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U42" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V42" s="0" t="s">
+      <c r="U42" t="s">
+        <v>31</v>
+      </c>
+      <c r="V42" t="s">
         <v>101</v>
       </c>
-      <c r="W42" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X42" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y42" s="0" t="s">
+      <c r="W42" t="s">
+        <v>31</v>
+      </c>
+      <c r="X42" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y42" t="s">
         <v>33</v>
       </c>
-      <c r="Z42" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="Z42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="13.8">
+      <c r="A43" t="s">
         <v>102</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E43" s="0" t="s">
+      <c r="D43">
+        <v>123456</v>
+      </c>
+      <c r="E43" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G43" s="0" t="n">
+      <c r="F43">
+        <v>123456</v>
+      </c>
+      <c r="G43">
         <v>1000</v>
       </c>
-      <c r="H43" s="0" t="n">
+      <c r="H43">
         <v>600</v>
       </c>
-      <c r="I43" s="0" t="s">
+      <c r="I43" t="s">
         <v>30</v>
       </c>
       <c r="J43" s="8" t="s">
@@ -4532,19 +4563,19 @@
       <c r="L43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M43" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N43" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O43" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P43" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q43" s="0" t="s">
+      <c r="M43" t="s">
+        <v>31</v>
+      </c>
+      <c r="N43" t="s">
+        <v>31</v>
+      </c>
+      <c r="O43" t="s">
+        <v>31</v>
+      </c>
+      <c r="P43" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q43" t="s">
         <v>31</v>
       </c>
       <c r="S43" s="1" t="s">
@@ -4553,51 +4584,51 @@
       <c r="T43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U43" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V43" s="0" t="s">
+      <c r="U43" t="s">
+        <v>31</v>
+      </c>
+      <c r="V43" t="s">
         <v>103</v>
       </c>
-      <c r="W43" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X43" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y43" s="0" t="s">
+      <c r="W43" t="s">
+        <v>31</v>
+      </c>
+      <c r="X43" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y43" t="s">
         <v>33</v>
       </c>
-      <c r="Z43" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="Z43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" ht="13.8">
+      <c r="A44" t="s">
         <v>104</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E44" s="0" t="s">
+      <c r="D44">
+        <v>123456</v>
+      </c>
+      <c r="E44" t="s">
         <v>29</v>
       </c>
-      <c r="F44" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G44" s="0" t="n">
+      <c r="F44">
+        <v>123456</v>
+      </c>
+      <c r="G44">
         <v>1000</v>
       </c>
-      <c r="H44" s="0" t="n">
+      <c r="H44">
         <v>600</v>
       </c>
-      <c r="I44" s="0" t="s">
+      <c r="I44" t="s">
         <v>30</v>
       </c>
       <c r="J44" s="8" t="s">
@@ -4609,19 +4640,19 @@
       <c r="L44" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M44" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N44" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O44" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P44" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q44" s="0" t="s">
+      <c r="M44" t="s">
+        <v>31</v>
+      </c>
+      <c r="N44" t="s">
+        <v>31</v>
+      </c>
+      <c r="O44" t="s">
+        <v>31</v>
+      </c>
+      <c r="P44" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q44" t="s">
         <v>31</v>
       </c>
       <c r="S44" s="1" t="s">
@@ -4630,51 +4661,51 @@
       <c r="T44" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U44" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V44" s="0" t="s">
+      <c r="U44" t="s">
+        <v>31</v>
+      </c>
+      <c r="V44" t="s">
         <v>32</v>
       </c>
-      <c r="W44" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X44" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y44" s="0" t="s">
+      <c r="W44" t="s">
+        <v>31</v>
+      </c>
+      <c r="X44" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y44" t="s">
         <v>33</v>
       </c>
-      <c r="Z44" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="Z44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" ht="13.8">
+      <c r="A45" t="s">
         <v>105</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E45" s="0" t="s">
+      <c r="D45">
+        <v>123456</v>
+      </c>
+      <c r="E45" t="s">
         <v>29</v>
       </c>
-      <c r="F45" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G45" s="0" t="n">
+      <c r="F45">
+        <v>123456</v>
+      </c>
+      <c r="G45">
         <v>1000</v>
       </c>
-      <c r="H45" s="0" t="n">
+      <c r="H45">
         <v>600</v>
       </c>
-      <c r="I45" s="0" t="s">
+      <c r="I45" t="s">
         <v>30</v>
       </c>
       <c r="J45" s="8" t="s">
@@ -4686,19 +4717,19 @@
       <c r="L45" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M45" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N45" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O45" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P45" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q45" s="0" t="s">
+      <c r="M45" t="s">
+        <v>31</v>
+      </c>
+      <c r="N45" t="s">
+        <v>31</v>
+      </c>
+      <c r="O45" t="s">
+        <v>31</v>
+      </c>
+      <c r="P45" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q45" t="s">
         <v>31</v>
       </c>
       <c r="S45" s="1" t="s">
@@ -4707,51 +4738,51 @@
       <c r="T45" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U45" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V45" s="0" t="s">
+      <c r="U45" t="s">
+        <v>31</v>
+      </c>
+      <c r="V45" t="s">
         <v>32</v>
       </c>
-      <c r="W45" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X45" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y45" s="0" t="s">
+      <c r="W45" t="s">
+        <v>31</v>
+      </c>
+      <c r="X45" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y45" t="s">
         <v>33</v>
       </c>
-      <c r="Z45" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="Z45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="13.8">
+      <c r="A46" t="s">
         <v>106</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E46" s="0" t="s">
+      <c r="D46">
+        <v>123456</v>
+      </c>
+      <c r="E46" t="s">
         <v>29</v>
       </c>
-      <c r="F46" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G46" s="0" t="n">
+      <c r="F46">
+        <v>123456</v>
+      </c>
+      <c r="G46">
         <v>1000</v>
       </c>
-      <c r="H46" s="0" t="n">
+      <c r="H46">
         <v>600</v>
       </c>
-      <c r="I46" s="0" t="s">
+      <c r="I46" t="s">
         <v>30</v>
       </c>
       <c r="J46" s="8" t="s">
@@ -4763,19 +4794,19 @@
       <c r="L46" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M46" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N46" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O46" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P46" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q46" s="0" t="s">
+      <c r="M46" t="s">
+        <v>31</v>
+      </c>
+      <c r="N46" t="s">
+        <v>31</v>
+      </c>
+      <c r="O46" t="s">
+        <v>31</v>
+      </c>
+      <c r="P46" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q46" t="s">
         <v>31</v>
       </c>
       <c r="S46" s="1" t="s">
@@ -4784,51 +4815,51 @@
       <c r="T46" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U46" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V46" s="0" t="s">
+      <c r="U46" t="s">
+        <v>31</v>
+      </c>
+      <c r="V46" t="s">
         <v>32</v>
       </c>
-      <c r="W46" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X46" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y46" s="0" t="s">
+      <c r="W46" t="s">
+        <v>31</v>
+      </c>
+      <c r="X46" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y46" t="s">
         <v>33</v>
       </c>
-      <c r="Z46" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="Z46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="13.8">
+      <c r="A47" t="s">
         <v>107</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E47" s="0" t="s">
+      <c r="D47">
+        <v>123456</v>
+      </c>
+      <c r="E47" t="s">
         <v>29</v>
       </c>
-      <c r="F47" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G47" s="0" t="n">
+      <c r="F47">
+        <v>123456</v>
+      </c>
+      <c r="G47">
         <v>1000</v>
       </c>
-      <c r="H47" s="0" t="n">
+      <c r="H47">
         <v>600</v>
       </c>
-      <c r="I47" s="0" t="s">
+      <c r="I47" t="s">
         <v>30</v>
       </c>
       <c r="J47" s="8" t="s">
@@ -4840,19 +4871,19 @@
       <c r="L47" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M47" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N47" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O47" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P47" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q47" s="0" t="s">
+      <c r="M47" t="s">
+        <v>31</v>
+      </c>
+      <c r="N47" t="s">
+        <v>31</v>
+      </c>
+      <c r="O47" t="s">
+        <v>31</v>
+      </c>
+      <c r="P47" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q47" t="s">
         <v>31</v>
       </c>
       <c r="S47" s="1" t="s">
@@ -4861,51 +4892,51 @@
       <c r="T47" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U47" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V47" s="0" t="s">
+      <c r="U47" t="s">
+        <v>31</v>
+      </c>
+      <c r="V47" t="s">
         <v>101</v>
       </c>
-      <c r="W47" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X47" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y47" s="0" t="s">
+      <c r="W47" t="s">
+        <v>31</v>
+      </c>
+      <c r="X47" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y47" t="s">
         <v>33</v>
       </c>
-      <c r="Z47" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="Z47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="13.8">
+      <c r="A48" t="s">
         <v>108</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E48" s="0" t="s">
+      <c r="D48">
+        <v>123456</v>
+      </c>
+      <c r="E48" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G48" s="0" t="n">
+      <c r="F48">
+        <v>123456</v>
+      </c>
+      <c r="G48">
         <v>1000</v>
       </c>
-      <c r="H48" s="0" t="n">
+      <c r="H48">
         <v>600</v>
       </c>
-      <c r="I48" s="0" t="s">
+      <c r="I48" t="s">
         <v>30</v>
       </c>
       <c r="J48" s="8" t="s">
@@ -4917,19 +4948,19 @@
       <c r="L48" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M48" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N48" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O48" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P48" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q48" s="0" t="s">
+      <c r="M48" t="s">
+        <v>31</v>
+      </c>
+      <c r="N48" t="s">
+        <v>31</v>
+      </c>
+      <c r="O48" t="s">
+        <v>31</v>
+      </c>
+      <c r="P48" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q48" t="s">
         <v>31</v>
       </c>
       <c r="S48" s="1" t="s">
@@ -4938,51 +4969,51 @@
       <c r="T48" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U48" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V48" s="0" t="s">
+      <c r="U48" t="s">
+        <v>31</v>
+      </c>
+      <c r="V48" t="s">
         <v>101</v>
       </c>
-      <c r="W48" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X48" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y48" s="0" t="s">
+      <c r="W48" t="s">
+        <v>31</v>
+      </c>
+      <c r="X48" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y48" t="s">
         <v>33</v>
       </c>
-      <c r="Z48" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="Z48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="13.8">
+      <c r="A49" t="s">
         <v>109</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E49" s="0" t="s">
+      <c r="D49">
+        <v>123456</v>
+      </c>
+      <c r="E49" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G49" s="0" t="n">
+      <c r="F49">
+        <v>123456</v>
+      </c>
+      <c r="G49">
         <v>1000</v>
       </c>
-      <c r="H49" s="0" t="n">
+      <c r="H49">
         <v>600</v>
       </c>
-      <c r="I49" s="0" t="s">
+      <c r="I49" t="s">
         <v>30</v>
       </c>
       <c r="J49" s="1" t="s">
@@ -4994,19 +5025,19 @@
       <c r="L49" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M49" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="N49" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O49" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P49" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q49" s="0" t="s">
+      <c r="M49" t="s">
+        <v>31</v>
+      </c>
+      <c r="N49" t="s">
+        <v>31</v>
+      </c>
+      <c r="O49" t="s">
+        <v>31</v>
+      </c>
+      <c r="P49" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q49" t="s">
         <v>31</v>
       </c>
       <c r="S49" s="1" t="s">
@@ -5015,51 +5046,51 @@
       <c r="T49" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U49" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V49" s="0" t="s">
+      <c r="U49" t="s">
+        <v>31</v>
+      </c>
+      <c r="V49" t="s">
         <v>101</v>
       </c>
-      <c r="W49" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="X49" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y49" s="0" t="s">
+      <c r="W49" t="s">
+        <v>31</v>
+      </c>
+      <c r="X49" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y49" t="s">
         <v>33</v>
       </c>
-      <c r="Z49" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="Z49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" ht="13.8">
+      <c r="A50" t="s">
         <v>110</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" t="s">
         <v>28</v>
       </c>
-      <c r="D50" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E50" s="0" t="s">
+      <c r="D50">
+        <v>123456</v>
+      </c>
+      <c r="E50" t="s">
         <v>29</v>
       </c>
-      <c r="F50" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G50" s="0" t="n">
+      <c r="F50">
+        <v>123456</v>
+      </c>
+      <c r="G50">
         <v>1000</v>
       </c>
-      <c r="H50" s="0" t="n">
+      <c r="H50">
         <v>600</v>
       </c>
-      <c r="I50" s="0" t="s">
+      <c r="I50" t="s">
         <v>30</v>
       </c>
       <c r="J50" s="1" t="s">
@@ -5071,19 +5102,19 @@
       <c r="L50" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M50" s="0" t="s">
+      <c r="M50" t="s">
         <v>72</v>
       </c>
-      <c r="N50" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O50" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P50" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q50" s="0" t="s">
+      <c r="N50" t="s">
+        <v>31</v>
+      </c>
+      <c r="O50" t="s">
+        <v>31</v>
+      </c>
+      <c r="P50" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q50" t="s">
         <v>31</v>
       </c>
       <c r="S50" s="1" t="s">
@@ -5092,51 +5123,51 @@
       <c r="T50" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U50" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V50" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W50" s="0" t="n">
+      <c r="U50" t="s">
+        <v>31</v>
+      </c>
+      <c r="V50" t="s">
+        <v>31</v>
+      </c>
+      <c r="W50">
         <v>5</v>
       </c>
-      <c r="X50" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y50" s="0" t="s">
+      <c r="X50" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y50" t="s">
         <v>33</v>
       </c>
-      <c r="Z50" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="Z50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" ht="13.8">
+      <c r="A51" t="s">
         <v>111</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E51" s="0" t="s">
+      <c r="D51">
+        <v>123456</v>
+      </c>
+      <c r="E51" t="s">
         <v>29</v>
       </c>
-      <c r="F51" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G51" s="0" t="n">
+      <c r="F51">
+        <v>123456</v>
+      </c>
+      <c r="G51">
         <v>1000</v>
       </c>
-      <c r="H51" s="0" t="n">
+      <c r="H51">
         <v>600</v>
       </c>
-      <c r="I51" s="0" t="s">
+      <c r="I51" t="s">
         <v>30</v>
       </c>
       <c r="J51" s="1" t="s">
@@ -5148,19 +5179,19 @@
       <c r="L51" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M51" s="0" t="s">
+      <c r="M51" t="s">
         <v>72</v>
       </c>
-      <c r="N51" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O51" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P51" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q51" s="0" t="s">
+      <c r="N51" t="s">
+        <v>31</v>
+      </c>
+      <c r="O51" t="s">
+        <v>31</v>
+      </c>
+      <c r="P51" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q51" t="s">
         <v>31</v>
       </c>
       <c r="S51" s="1" t="s">
@@ -5169,51 +5200,51 @@
       <c r="T51" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U51" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V51" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W51" s="0" t="n">
+      <c r="U51" t="s">
+        <v>31</v>
+      </c>
+      <c r="V51" t="s">
+        <v>31</v>
+      </c>
+      <c r="W51">
         <v>600</v>
       </c>
-      <c r="X51" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y51" s="0" t="s">
+      <c r="X51" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y51" t="s">
         <v>33</v>
       </c>
-      <c r="Z51" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="Z51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" ht="13.8">
+      <c r="A52" t="s">
         <v>112</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E52" s="0" t="s">
+      <c r="D52">
+        <v>123456</v>
+      </c>
+      <c r="E52" t="s">
         <v>29</v>
       </c>
-      <c r="F52" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G52" s="0" t="n">
+      <c r="F52">
+        <v>123456</v>
+      </c>
+      <c r="G52">
         <v>1000</v>
       </c>
-      <c r="H52" s="0" t="n">
+      <c r="H52">
         <v>600</v>
       </c>
-      <c r="I52" s="0" t="s">
+      <c r="I52" t="s">
         <v>30</v>
       </c>
       <c r="J52" s="1" t="s">
@@ -5225,19 +5256,19 @@
       <c r="L52" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M52" s="0" t="s">
+      <c r="M52" t="s">
         <v>72</v>
       </c>
-      <c r="N52" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O52" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P52" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q52" s="0" t="s">
+      <c r="N52" t="s">
+        <v>31</v>
+      </c>
+      <c r="O52" t="s">
+        <v>31</v>
+      </c>
+      <c r="P52" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q52" t="s">
         <v>31</v>
       </c>
       <c r="S52" s="1" t="s">
@@ -5246,51 +5277,51 @@
       <c r="T52" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U52" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V52" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W52" s="0" t="n">
+      <c r="U52" t="s">
+        <v>31</v>
+      </c>
+      <c r="V52" t="s">
+        <v>31</v>
+      </c>
+      <c r="W52">
         <v>10</v>
       </c>
-      <c r="X52" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y52" s="0" t="s">
+      <c r="X52" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y52" t="s">
         <v>33</v>
       </c>
-      <c r="Z52" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="Z52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" ht="13.8">
+      <c r="A53" t="s">
         <v>113</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E53" s="0" t="s">
+      <c r="D53">
+        <v>123456</v>
+      </c>
+      <c r="E53" t="s">
         <v>29</v>
       </c>
-      <c r="F53" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G53" s="0" t="n">
+      <c r="F53">
+        <v>123456</v>
+      </c>
+      <c r="G53">
         <v>1000</v>
       </c>
-      <c r="H53" s="0" t="n">
+      <c r="H53">
         <v>600</v>
       </c>
-      <c r="I53" s="0" t="s">
+      <c r="I53" t="s">
         <v>30</v>
       </c>
       <c r="J53" s="1" t="s">
@@ -5302,19 +5333,19 @@
       <c r="L53" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M53" s="0" t="s">
+      <c r="M53" t="s">
         <v>72</v>
       </c>
-      <c r="N53" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O53" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P53" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q53" s="0" t="s">
+      <c r="N53" t="s">
+        <v>31</v>
+      </c>
+      <c r="O53" t="s">
+        <v>31</v>
+      </c>
+      <c r="P53" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q53" t="s">
         <v>31</v>
       </c>
       <c r="S53" s="1" t="s">
@@ -5323,51 +5354,51 @@
       <c r="T53" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U53" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V53" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W53" s="0" t="n">
+      <c r="U53" t="s">
+        <v>31</v>
+      </c>
+      <c r="V53" t="s">
+        <v>31</v>
+      </c>
+      <c r="W53">
         <v>10</v>
       </c>
-      <c r="X53" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y53" s="0" t="s">
+      <c r="X53" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y53" t="s">
         <v>33</v>
       </c>
-      <c r="Z53" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="Z53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" ht="13.8">
+      <c r="A54" t="s">
         <v>114</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" t="s">
         <v>28</v>
       </c>
-      <c r="D54" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E54" s="0" t="s">
+      <c r="D54">
+        <v>123456</v>
+      </c>
+      <c r="E54" t="s">
         <v>116</v>
       </c>
-      <c r="F54" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="G54" s="0" t="n">
+      <c r="F54">
+        <v>123456</v>
+      </c>
+      <c r="G54">
         <v>1000</v>
       </c>
-      <c r="H54" s="0" t="n">
+      <c r="H54">
         <v>600</v>
       </c>
-      <c r="I54" s="0" t="s">
+      <c r="I54" t="s">
         <v>30</v>
       </c>
       <c r="J54" s="1" t="s">
@@ -5379,19 +5410,19 @@
       <c r="L54" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M54" s="0" t="s">
+      <c r="M54" t="s">
         <v>72</v>
       </c>
-      <c r="N54" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O54" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="P54" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q54" s="0" t="s">
+      <c r="N54" t="s">
+        <v>31</v>
+      </c>
+      <c r="O54" t="s">
+        <v>31</v>
+      </c>
+      <c r="P54" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q54" t="s">
         <v>31</v>
       </c>
       <c r="S54" s="1" t="s">
@@ -5400,26 +5431,26 @@
       <c r="T54" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U54" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V54" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W54" s="0" t="n">
+      <c r="U54" t="s">
+        <v>31</v>
+      </c>
+      <c r="V54" t="s">
+        <v>31</v>
+      </c>
+      <c r="W54">
         <v>5</v>
       </c>
-      <c r="X54" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y54" s="0" t="s">
+      <c r="X54" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y54" t="s">
         <v>33</v>
       </c>
-      <c r="Z54" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="2:26" ht="13.8">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -5433,7 +5464,7 @@
       <c r="R55" s="10"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="2:26" ht="13.8">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -5447,7 +5478,7 @@
       <c r="R56" s="10"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="2:18" ht="13.8">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -5460,7 +5491,7 @@
       <c r="Q57" s="9"/>
       <c r="R57" s="10"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="2:18" ht="13.8">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -5473,7 +5504,7 @@
       <c r="Q58" s="9"/>
       <c r="R58" s="10"/>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="2:18">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -5486,7 +5517,7 @@
       <c r="Q59" s="9"/>
       <c r="R59" s="10"/>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="2:18">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -5499,7 +5530,7 @@
       <c r="Q60" s="9"/>
       <c r="R60" s="10"/>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="2:18">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -5512,7 +5543,7 @@
       <c r="Q61" s="9"/>
       <c r="R61" s="10"/>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="2:18">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -5525,7 +5556,7 @@
       <c r="Q62" s="9"/>
       <c r="R62" s="10"/>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="2:18">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -5538,7 +5569,7 @@
       <c r="Q63" s="9"/>
       <c r="R63" s="10"/>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="2:18">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -5551,7 +5582,7 @@
       <c r="Q64" s="9"/>
       <c r="R64" s="10"/>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="2:18">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -5564,7 +5595,7 @@
       <c r="Q65" s="9"/>
       <c r="R65" s="10"/>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="2:18">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -5577,7 +5608,7 @@
       <c r="Q66" s="9"/>
       <c r="R66" s="10"/>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="2:18">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -5590,14 +5621,11 @@
       <c r="Q67" s="9"/>
       <c r="R67" s="10"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" ht="12.8"/>
   </sheetData>
-  <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter scaleWithDoc="1" alignWithMargins="1" differentFirst="0" differentOddEven="0"/>
 </worksheet>
 </file>
--- a/TestData/Web_POS/Billing/billing_test_data.xlsx
+++ b/TestData/Web_POS/Billing/billing_test_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="119">
   <si>
     <t xml:space="preserve">TC_Id</t>
   </si>
@@ -223,13 +223,7 @@
     <t xml:space="preserve">TC_17</t>
   </si>
   <si>
-    <t xml:space="preserve">307220524Dzl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MrunalJagtap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rudraksha : 2, Carry bag : 1</t>
+    <t xml:space="preserve">Carry Bag Latest : 1</t>
   </si>
   <si>
     <t xml:space="preserve">TC_18</t>
@@ -791,7 +785,7 @@
   <dimension ref="A1:AMJ68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2641,7 +2635,7 @@
         <v>66</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>30</v>
@@ -2649,8 +2643,8 @@
       <c r="D18" s="14" t="n">
         <v>123456</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>68</v>
+      <c r="E18" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>123456</v>
@@ -2698,7 +2692,7 @@
         <v>33</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="V18" s="1" t="s">
         <v>33</v>
@@ -2718,7 +2712,7 @@
     </row>
     <row r="19" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>29</v>
@@ -2745,7 +2739,7 @@
         <v>32</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K19" s="4" t="n">
         <v>1</v>
@@ -2793,7 +2787,7 @@
     </row>
     <row r="20" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>29</v>
@@ -2829,7 +2823,7 @@
         <v>33</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>33</v>
@@ -2873,7 +2867,7 @@
     </row>
     <row r="21" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>29</v>
@@ -2909,7 +2903,7 @@
         <v>33</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>33</v>
@@ -2953,7 +2947,7 @@
     </row>
     <row r="22" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>29</v>
@@ -3033,7 +3027,7 @@
     </row>
     <row r="23" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>29</v>
@@ -3113,7 +3107,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>29</v>
@@ -3193,7 +3187,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>29</v>
@@ -3271,12 +3265,12 @@
         <v>33</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>29</v>
@@ -3356,7 +3350,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>29</v>
@@ -3436,7 +3430,7 @@
     </row>
     <row r="28" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>29</v>
@@ -3516,7 +3510,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>29</v>
@@ -3596,7 +3590,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>29</v>
@@ -3676,7 +3670,7 @@
     </row>
     <row r="31" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>29</v>
@@ -3703,7 +3697,7 @@
         <v>32</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K31" s="4" t="n">
         <v>1</v>
@@ -3715,7 +3709,7 @@
         <v>53</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O31" s="8"/>
       <c r="P31" s="5" t="s">
@@ -3754,7 +3748,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>29</v>
@@ -3790,7 +3784,7 @@
         <v>33</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>33</v>
@@ -3834,7 +3828,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>29</v>
@@ -3888,10 +3882,10 @@
         <v>7709577438</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>33</v>
@@ -3914,7 +3908,7 @@
     </row>
     <row r="34" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>29</v>
@@ -3968,7 +3962,7 @@
         <v>7709577438</v>
       </c>
       <c r="S34" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T34" s="9" t="s">
         <v>33</v>
@@ -3994,7 +3988,7 @@
     </row>
     <row r="35" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>29</v>
@@ -4048,10 +4042,10 @@
         <v>7709577438</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="U35" s="2" t="s">
         <v>33</v>
@@ -4074,7 +4068,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>29</v>
@@ -4110,7 +4104,7 @@
         <v>33</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>33</v>
@@ -4143,7 +4137,7 @@
         <v>33</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>35</v>
@@ -4154,7 +4148,7 @@
     </row>
     <row r="37" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>29</v>
@@ -4190,7 +4184,7 @@
         <v>33</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>33</v>
@@ -4234,7 +4228,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>29</v>
@@ -4270,7 +4264,7 @@
         <v>33</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>33</v>
@@ -4314,7 +4308,7 @@
     </row>
     <row r="39" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>29</v>
@@ -4341,7 +4335,7 @@
         <v>32</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K39" s="4" t="n">
         <v>1</v>
@@ -4353,7 +4347,7 @@
         <v>53</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O39" s="15" t="n">
         <v>45384</v>
@@ -4395,7 +4389,7 @@
     </row>
     <row r="40" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>29</v>
@@ -4422,7 +4416,7 @@
         <v>32</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K40" s="4" t="n">
         <v>1</v>
@@ -4434,7 +4428,7 @@
         <v>53</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O40" s="15" t="n">
         <v>45384</v>
@@ -4476,7 +4470,7 @@
     </row>
     <row r="41" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>29</v>
@@ -4503,7 +4497,7 @@
         <v>32</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K41" s="4" t="n">
         <v>1</v>
@@ -4515,7 +4509,7 @@
         <v>53</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O41" s="15" t="n">
         <v>45384</v>
@@ -4557,7 +4551,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>29</v>
@@ -4596,7 +4590,7 @@
         <v>53</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O42" s="15" t="n">
         <v>45384</v>
@@ -4617,7 +4611,7 @@
         <v>33</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="W42" s="1" t="s">
         <v>33</v>
@@ -4634,7 +4628,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>29</v>
@@ -4694,7 +4688,7 @@
         <v>33</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="W43" s="1" t="s">
         <v>33</v>
@@ -4711,7 +4705,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>29</v>
@@ -4788,7 +4782,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>29</v>
@@ -4865,7 +4859,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>29</v>
@@ -4942,7 +4936,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>29</v>
@@ -5002,7 +4996,7 @@
         <v>33</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="W47" s="1" t="s">
         <v>33</v>
@@ -5019,7 +5013,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>29</v>
@@ -5079,7 +5073,7 @@
         <v>33</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="W48" s="1" t="s">
         <v>33</v>
@@ -5096,7 +5090,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>29</v>
@@ -5156,7 +5150,7 @@
         <v>33</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="W49" s="1" t="s">
         <v>33</v>
@@ -5173,7 +5167,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>29</v>
@@ -5209,7 +5203,7 @@
         <v>33</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>33</v>
@@ -5250,7 +5244,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>29</v>
@@ -5286,7 +5280,7 @@
         <v>33</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>33</v>
@@ -5327,7 +5321,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>29</v>
@@ -5363,7 +5357,7 @@
         <v>33</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>33</v>
@@ -5404,7 +5398,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>29</v>
@@ -5440,7 +5434,7 @@
         <v>33</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>33</v>
@@ -5481,10 +5475,10 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>30</v>
@@ -5493,7 +5487,7 @@
         <v>123456</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F54" s="1" t="n">
         <v>123456</v>
@@ -5517,7 +5511,7 @@
         <v>33</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>33</v>
